--- a/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
@@ -656,22 +656,22 @@
         <v>8.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
         <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M2" t="n">
         <v>5.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P2" t="n">
         <v>1.22</v>
@@ -680,10 +680,10 @@
         <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T2" t="n">
         <v>11</v>
@@ -772,28 +772,28 @@
         <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
         <v>19</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="O3" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -802,10 +802,10 @@
         <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="T3" t="n">
         <v>9</v>
@@ -826,10 +826,10 @@
         <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -900,22 +900,22 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
         <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M4" t="n">
         <v>4.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P4" t="n">
         <v>1.33</v>
@@ -924,7 +924,7 @@
         <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
         <v>2.25</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
@@ -1025,19 +1025,19 @@
         <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P5" t="n">
         <v>1.3</v>
@@ -1046,7 +1046,7 @@
         <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>2.05</v>
@@ -1073,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1135,31 +1135,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
         <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
         <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="O6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1168,7 +1168,7 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>2.2</v>
@@ -1266,22 +1266,22 @@
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
         <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1290,7 +1290,7 @@
         <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
         <v>2</v>
@@ -1400,10 +1400,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1644,10 +1644,10 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="O10" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1677,10 +1677,10 @@
         <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
@@ -1710,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1766,10 +1766,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="O11" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -2120,13 +2120,13 @@
         <v>2.63</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>3.2</v>
@@ -2242,13 +2242,13 @@
         <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>3.2</v>
@@ -2364,13 +2364,13 @@
         <v>1.62</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
         <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M16" t="n">
         <v>4.33</v>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
         <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M17" t="n">
         <v>4.5</v>
@@ -2510,10 +2510,10 @@
         <v>3.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -2522,7 +2522,7 @@
         <v>13</v>
       </c>
       <c r="V17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
         <v>21</v>
@@ -2531,7 +2531,7 @@
         <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
         <v>13</v>
@@ -2549,13 +2549,13 @@
         <v>126</v>
       </c>
       <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG17" t="n">
         <v>12</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>34</v>
@@ -2599,25 +2599,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
         <v>7.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N18" t="n">
         <v>2.3</v>
@@ -2635,7 +2635,7 @@
         <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
         <v>5.5</v>
@@ -2727,16 +2727,16 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K19" t="n">
         <v>6.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
         <v>2.5</v>
@@ -2757,7 +2757,7 @@
         <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="T19" t="n">
         <v>7.5</v>
@@ -2802,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
@@ -2852,16 +2852,16 @@
         <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K20" t="n">
         <v>6.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M20" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N20" t="n">
         <v>2.7</v>
@@ -2876,10 +2876,10 @@
         <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S20" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T20" t="n">
         <v>5</v>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
@@ -3090,16 +3090,16 @@
         <v>1.62</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -3126,16 +3126,16 @@
         <v>1.67</v>
       </c>
       <c r="T22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V22" t="n">
         <v>8.5</v>
       </c>
       <c r="W22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X22" t="n">
         <v>15</v>
@@ -3150,10 +3150,10 @@
         <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD22" t="n">
         <v>501</v>
@@ -3162,16 +3162,16 @@
         <v>12</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="n">
         <v>51</v>
@@ -3215,7 +3215,7 @@
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J23" t="n">
         <v>1.13</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>1.14</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
@@ -3462,10 +3462,10 @@
         <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.67</v>
@@ -3498,13 +3498,13 @@
         <v>7</v>
       </c>
       <c r="V25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
         <v>15</v>
       </c>
       <c r="X25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
         <v>51</v>
@@ -3575,10 +3575,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H26" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I26" t="n">
         <v>3.5</v>
@@ -3724,7 +3724,7 @@
         <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
         <v>2.03</v>
@@ -4185,19 +4185,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.62</v>
@@ -4224,28 +4224,28 @@
         <v>1.5</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
         <v>41</v>
       </c>
       <c r="Z31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
         <v>23</v>
@@ -4257,10 +4257,10 @@
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
         <v>17</v>
@@ -4269,10 +4269,10 @@
         <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -4340,7 +4340,7 @@
         <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S32" t="n">
         <v>2</v>
@@ -4462,7 +4462,7 @@
         <v>3.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S33" t="n">
         <v>2.5</v>
@@ -4572,10 +4572,10 @@
         <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O34" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4584,7 +4584,7 @@
         <v>3.25</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S34" t="n">
         <v>2.2</v>
@@ -4706,7 +4706,7 @@
         <v>3.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S35" t="n">
         <v>2.5</v>
@@ -4828,10 +4828,10 @@
         <v>3.4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T36" t="n">
         <v>11</v>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -4926,22 +4926,22 @@
         <v>6.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K37" t="n">
         <v>10</v>
       </c>
       <c r="L37" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="n">
         <v>3.5</v>
       </c>
       <c r="N37" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="O37" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="P37" t="n">
         <v>1.4</v>
@@ -4953,7 +4953,7 @@
         <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T37" t="n">
         <v>6</v>
@@ -5045,25 +5045,25 @@
         <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K38" t="n">
         <v>8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P38" t="n">
         <v>1.5</v>
@@ -5161,25 +5161,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K39" t="n">
         <v>6.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="N39" t="n">
         <v>2.5</v>
@@ -5203,16 +5203,16 @@
         <v>5.5</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V39" t="n">
         <v>9.5</v>
       </c>
       <c r="W39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
         <v>41</v>
@@ -5233,16 +5233,16 @@
         <v>501</v>
       </c>
       <c r="AE39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG39" t="n">
         <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI39" t="n">
         <v>41</v>
@@ -5292,16 +5292,16 @@
         <v>3.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M40" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N40" t="n">
         <v>2.35</v>
@@ -5325,7 +5325,7 @@
         <v>6</v>
       </c>
       <c r="U40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V40" t="n">
         <v>9.5</v>
@@ -5340,7 +5340,7 @@
         <v>34</v>
       </c>
       <c r="Z40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA40" t="n">
         <v>6</v>
@@ -5358,7 +5358,7 @@
         <v>9</v>
       </c>
       <c r="AF40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG40" t="n">
         <v>13</v>
@@ -5411,19 +5411,19 @@
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="J41" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N41" t="n">
         <v>2.35</v>
@@ -5447,7 +5447,7 @@
         <v>7.5</v>
       </c>
       <c r="U41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V41" t="n">
         <v>11</v>
@@ -5456,7 +5456,7 @@
         <v>29</v>
       </c>
       <c r="X41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y41" t="n">
         <v>41</v>
@@ -5486,13 +5486,13 @@
         <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI41" t="n">
         <v>23</v>
       </c>
       <c r="AJ41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M42" t="n">
         <v>3.2</v>
@@ -5572,7 +5572,7 @@
         <v>6</v>
       </c>
       <c r="V42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W42" t="n">
         <v>10</v>
@@ -5590,7 +5590,7 @@
         <v>7.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC42" t="n">
         <v>81</v>
@@ -5652,22 +5652,22 @@
         <v>1.91</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J43" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K43" t="n">
         <v>8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M43" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
         <v>2.25</v>
@@ -5697,28 +5697,28 @@
         <v>9</v>
       </c>
       <c r="W43" t="n">
+        <v>15</v>
+      </c>
+      <c r="X43" t="n">
         <v>17</v>
-      </c>
-      <c r="X43" t="n">
-        <v>19</v>
       </c>
       <c r="Y43" t="n">
         <v>34</v>
       </c>
       <c r="Z43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB43" t="n">
         <v>17</v>
       </c>
       <c r="AC43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AE43" t="n">
         <v>10</v>
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -5780,13 +5780,13 @@
         <v>3.25</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K44" t="n">
         <v>8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
@@ -6015,70 +6015,70 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="I46" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J46" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K46" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L46" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M46" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="N46" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O46" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P46" t="n">
         <v>1.57</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R46" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S46" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T46" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U46" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V46" t="n">
         <v>9.5</v>
       </c>
       <c r="W46" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y46" t="n">
         <v>45</v>
       </c>
       <c r="Z46" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AB46" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC46" t="n">
         <v>120</v>
@@ -6087,19 +6087,19 @@
         <v>101</v>
       </c>
       <c r="AE46" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF46" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH46" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI46" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="n">
         <v>60</v>
@@ -6137,31 +6137,31 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I47" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="J47" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K47" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="N47" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="O47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P47" t="n">
         <v>1.55</v>
@@ -6170,61 +6170,61 @@
         <v>2.3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S47" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T47" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="U47" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W47" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="X47" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y47" t="n">
         <v>45</v>
       </c>
       <c r="Z47" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB47" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD47" t="n">
         <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG47" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AH47" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI47" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ47" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
@@ -6259,70 +6259,70 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
         <v>1.09</v>
       </c>
       <c r="K48" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
         <v>1.42</v>
       </c>
       <c r="M48" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O48" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P48" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R48" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="S48" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T48" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="U48" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="V48" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="W48" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="X48" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z48" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AA48" t="n">
         <v>6.2</v>
       </c>
       <c r="AB48" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC48" t="n">
         <v>100</v>
@@ -6331,22 +6331,22 @@
         <v>900</v>
       </c>
       <c r="AE48" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AF48" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AG48" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="AH48" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AI48" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AJ48" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
@@ -6381,31 +6381,31 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="H49" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>4.55</v>
+        <v>4.15</v>
       </c>
       <c r="J49" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="K49" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L49" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M49" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="N49" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="O49" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P49" t="n">
         <v>1.55</v>
@@ -6414,37 +6414,37 @@
         <v>2.3</v>
       </c>
       <c r="R49" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="S49" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T49" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="U49" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
       </c>
       <c r="W49" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="X49" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="AB49" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AC49" t="n">
         <v>150</v>
@@ -6453,22 +6453,22 @@
         <v>101</v>
       </c>
       <c r="AE49" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG49" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH49" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ49" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -6503,13 +6503,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I50" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="J50" t="n">
         <v>1.1</v>
@@ -6536,61 +6536,61 @@
         <v>2.3</v>
       </c>
       <c r="R50" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="S50" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="T50" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="U50" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="V50" t="n">
         <v>8.75</v>
       </c>
       <c r="W50" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="X50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y50" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="n">
         <v>5.8</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AB50" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AC50" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD50" t="n">
         <v>101</v>
       </c>
       <c r="AE50" t="n">
-        <v>9.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF50" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AG50" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AH50" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AI50" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
@@ -6625,13 +6625,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H51" t="n">
         <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J51" t="n">
         <v>1.06</v>
@@ -6640,16 +6640,16 @@
         <v>10</v>
       </c>
       <c r="L51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N51" t="n">
         <v>2.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P51" t="n">
         <v>1.44</v>
@@ -6658,10 +6658,10 @@
         <v>2.63</v>
       </c>
       <c r="R51" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S51" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T51" t="n">
         <v>6.5</v>
@@ -6771,7 +6771,7 @@
         <v>2.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P52" t="n">
         <v>1.57</v>
@@ -6783,7 +6783,7 @@
         <v>2.5</v>
       </c>
       <c r="S52" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T52" t="n">
         <v>4.75</v>
@@ -6884,10 +6884,10 @@
         <v>10</v>
       </c>
       <c r="L53" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M53" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
         <v>2.1</v>
@@ -6902,10 +6902,10 @@
         <v>2.63</v>
       </c>
       <c r="R53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T53" t="n">
         <v>8</v>
@@ -7006,16 +7006,16 @@
         <v>9</v>
       </c>
       <c r="L54" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O54" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P54" t="n">
         <v>1.5</v>
@@ -7024,10 +7024,10 @@
         <v>2.5</v>
       </c>
       <c r="R54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S54" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -7601,51 +7601,51 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="H59" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I59" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M59" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N59" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O59" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P59" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q59" t="n">
         <v>2.4</v>
       </c>
       <c r="R59" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S59" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T59" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="U59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V59" t="n">
         <v>9.75</v>
       </c>
       <c r="W59" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X59" t="n">
         <v>24</v>
@@ -7654,34 +7654,34 @@
         <v>35</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AA59" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB59" t="n">
         <v>14.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD59" t="n">
         <v>700</v>
       </c>
       <c r="AE59" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AF59" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH59" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI59" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ59" t="n">
         <v>37</v>
@@ -7719,18 +7719,18 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M60" t="n">
         <v>2.55</v>
@@ -7748,22 +7748,22 @@
         <v>2.37</v>
       </c>
       <c r="R60" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S60" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T60" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U60" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V60" t="n">
         <v>9.5</v>
       </c>
       <c r="W60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X60" t="n">
         <v>21</v>
@@ -7772,34 +7772,34 @@
         <v>37</v>
       </c>
       <c r="Z60" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA60" t="n">
         <v>6.2</v>
       </c>
       <c r="AB60" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD60" t="n">
         <v>900</v>
       </c>
       <c r="AE60" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF60" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG60" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH60" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ60" t="n">
         <v>45</v>
@@ -7837,66 +7837,66 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I61" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M61" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="N61" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O61" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P61" t="n">
         <v>1.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R61" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S61" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T61" t="n">
         <v>6</v>
       </c>
       <c r="U61" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="V61" t="n">
         <v>8.25</v>
       </c>
       <c r="W61" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="X61" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA61" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB61" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC61" t="n">
         <v>100</v>
@@ -7905,22 +7905,22 @@
         <v>900</v>
       </c>
       <c r="AE61" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF61" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AG61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH61" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AI61" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -7955,86 +7955,90 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H62" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M62" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N62" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O62" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.55</v>
+      </c>
       <c r="R62" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S62" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T62" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="U62" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="V62" t="n">
         <v>8.25</v>
       </c>
       <c r="W62" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="X62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y62" t="n">
         <v>32</v>
       </c>
       <c r="Z62" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA62" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AB62" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD62" t="n">
         <v>101</v>
       </c>
       <c r="AE62" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH62" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI62" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ62" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
@@ -8191,13 +8195,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H64" t="n">
         <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J64" t="n">
         <v>1.07</v>
@@ -8257,7 +8261,7 @@
         <v>17</v>
       </c>
       <c r="AC64" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD64" t="n">
         <v>800</v>
@@ -8553,19 +8557,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H67" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I67" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J67" t="n">
         <v>1.07</v>
       </c>
       <c r="K67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L67" t="n">
         <v>1.36</v>
@@ -8586,25 +8590,25 @@
         <v>2.63</v>
       </c>
       <c r="R67" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S67" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T67" t="n">
         <v>12</v>
       </c>
       <c r="U67" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V67" t="n">
         <v>19</v>
       </c>
       <c r="W67" t="n">
+        <v>67</v>
+      </c>
+      <c r="X67" t="n">
         <v>51</v>
-      </c>
-      <c r="X67" t="n">
-        <v>41</v>
       </c>
       <c r="Y67" t="n">
         <v>51</v>
@@ -8613,13 +8617,13 @@
         <v>8.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB67" t="n">
         <v>21</v>
       </c>
       <c r="AC67" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD67" t="n">
         <v>101</v>
@@ -8628,13 +8632,13 @@
         <v>5.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG67" t="n">
         <v>9</v>
       </c>
       <c r="AH67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI67" t="n">
         <v>15</v>
@@ -8675,13 +8679,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="H68" t="n">
         <v>3.1</v>
       </c>
       <c r="I68" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8690,16 +8694,16 @@
         <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M68" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N68" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P68" t="n">
         <v>1.36</v>
@@ -8717,7 +8721,7 @@
         <v>8.5</v>
       </c>
       <c r="U68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V68" t="n">
         <v>9</v>
@@ -8753,13 +8757,13 @@
         <v>21</v>
       </c>
       <c r="AG68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH68" t="n">
         <v>41</v>
       </c>
       <c r="AI68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ68" t="n">
         <v>34</v>
@@ -8797,7 +8801,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H69" t="n">
         <v>3.7</v>
@@ -8922,7 +8926,7 @@
         <v>2.15</v>
       </c>
       <c r="H70" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="I70" t="n">
         <v>4</v>
@@ -8946,31 +8950,31 @@
         <v>1.42</v>
       </c>
       <c r="P70" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R70" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S70" t="n">
         <v>1.62</v>
       </c>
       <c r="T70" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="U70" t="n">
         <v>8.75</v>
       </c>
       <c r="V70" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W70" t="n">
         <v>21</v>
       </c>
       <c r="X70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y70" t="n">
         <v>45</v>
@@ -8979,10 +8983,10 @@
         <v>4.9</v>
       </c>
       <c r="AA70" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC70" t="n">
         <v>120</v>
@@ -8991,22 +8995,22 @@
         <v>101</v>
       </c>
       <c r="AE70" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AF70" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG70" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH70" t="n">
         <v>70</v>
       </c>
       <c r="AI70" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ70" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
@@ -9412,10 +9416,10 @@
         <v>3.75</v>
       </c>
       <c r="N74" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O74" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P74" t="n">
         <v>1.4</v>
@@ -9650,16 +9654,16 @@
         <v>13</v>
       </c>
       <c r="L76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M76" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O76" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P76" t="n">
         <v>1.36</v>
@@ -10360,10 +10364,10 @@
         <v>3.1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K82" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L82" t="n">
         <v>1.3</v>
@@ -10375,7 +10379,7 @@
         <v>2.05</v>
       </c>
       <c r="O82" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P82" t="n">
         <v>1.44</v>
@@ -10408,7 +10412,7 @@
         <v>29</v>
       </c>
       <c r="Z82" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA82" t="n">
         <v>6</v>
@@ -10473,13 +10477,13 @@
         </is>
       </c>
       <c r="G83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H83" t="n">
         <v>3.5</v>
       </c>
-      <c r="H83" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I83" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J83" t="n">
         <v>1.04</v>
@@ -10491,52 +10495,52 @@
         <v>1.2</v>
       </c>
       <c r="M83" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="N83" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O83" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="P83" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R83" t="n">
         <v>1.53</v>
       </c>
       <c r="S83" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T83" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U83" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V83" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="W83" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X83" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y83" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z83" t="n">
         <v>8.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB83" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC83" t="n">
         <v>40</v>
@@ -10548,19 +10552,19 @@
         <v>10</v>
       </c>
       <c r="AF83" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AG83" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI83" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ83" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -10717,52 +10721,52 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H85" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I85" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J85" t="n">
         <v>1.02</v>
       </c>
       <c r="K85" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="L85" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M85" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="N85" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O85" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="P85" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="Q85" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="R85" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S85" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T85" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U85" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="V85" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="W85" t="n">
         <v>110</v>
@@ -10771,40 +10775,40 @@
         <v>45</v>
       </c>
       <c r="Y85" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z85" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA85" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB85" t="n">
         <v>13.5</v>
       </c>
       <c r="AC85" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD85" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE85" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF85" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI85" t="n">
         <v>10.25</v>
       </c>
-      <c r="AG85" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AJ85" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
@@ -11328,10 +11332,10 @@
         <v>1.85</v>
       </c>
       <c r="J90" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K90" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L90" t="n">
         <v>1.25</v>
@@ -11340,10 +11344,10 @@
         <v>3.75</v>
       </c>
       <c r="N90" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O90" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P90" t="n">
         <v>1.4</v>
@@ -11563,94 +11567,94 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H92" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K92" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L92" t="n">
         <v>1.7</v>
       </c>
-      <c r="J92" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K92" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="L92" t="n">
-        <v>1.42</v>
-      </c>
       <c r="M92" t="n">
-        <v>2.67</v>
+        <v>2.05</v>
       </c>
       <c r="N92" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O92" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="P92" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="R92" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="S92" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="T92" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="U92" t="n">
         <v>25</v>
       </c>
       <c r="V92" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="W92" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="X92" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Y92" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="Z92" t="n">
-        <v>6.3</v>
+        <v>4.75</v>
       </c>
       <c r="AA92" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB92" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AC92" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AD92" t="n">
         <v>101</v>
       </c>
       <c r="AE92" t="n">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="AF92" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AG92" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH92" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI92" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AJ92" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93">
@@ -11807,94 +11811,94 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.35</v>
+        <v>4.7</v>
       </c>
       <c r="H94" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I94" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J94" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K94" t="n">
         <v>6.7</v>
       </c>
       <c r="L94" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M94" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="N94" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O94" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P94" t="n">
         <v>1.47</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R94" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S94" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="T94" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="U94" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V94" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W94" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X94" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y94" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z94" t="n">
         <v>6.7</v>
       </c>
       <c r="AA94" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB94" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC94" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD94" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE94" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AF94" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AG94" t="n">
         <v>8.25</v>
       </c>
       <c r="AH94" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ94" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -11929,91 +11933,91 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I95" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="J95" t="n">
         <v>1.09</v>
       </c>
       <c r="K95" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="L95" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M95" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="N95" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O95" t="n">
         <v>1.6</v>
       </c>
       <c r="P95" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R95" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S95" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T95" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>24</v>
+      </c>
+      <c r="V95" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W95" t="n">
+        <v>80</v>
+      </c>
+      <c r="X95" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG95" t="n">
         <v>8.5</v>
       </c>
-      <c r="U95" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="V95" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W95" t="n">
-        <v>45</v>
-      </c>
-      <c r="X95" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>9</v>
-      </c>
       <c r="AH95" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AI95" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AJ95" t="n">
         <v>35</v>
@@ -12420,25 +12424,25 @@
         <v>2.15</v>
       </c>
       <c r="H99" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="I99" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J99" t="n">
         <v>1.11</v>
       </c>
       <c r="K99" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L99" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M99" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N99" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="O99" t="n">
         <v>1.53</v>
@@ -12465,19 +12469,19 @@
         <v>9</v>
       </c>
       <c r="W99" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X99" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y99" t="n">
         <v>35</v>
       </c>
       <c r="Z99" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA99" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB99" t="n">
         <v>16</v>
@@ -12492,13 +12496,13 @@
         <v>8</v>
       </c>
       <c r="AF99" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG99" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH99" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI99" t="n">
         <v>40</v>
@@ -12542,22 +12546,22 @@
         <v>2.15</v>
       </c>
       <c r="H100" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I100" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K100" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L100" t="n">
         <v>1.35</v>
       </c>
       <c r="M100" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="N100" t="n">
         <v>2.02</v>
@@ -12569,43 +12573,43 @@
         <v>1.47</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R100" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S100" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T100" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="U100" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V100" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W100" t="n">
         <v>21</v>
       </c>
       <c r="X100" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y100" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z100" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA100" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB100" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC100" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD100" t="n">
         <v>600</v>
@@ -12614,19 +12618,19 @@
         <v>9</v>
       </c>
       <c r="AF100" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG100" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH100" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI100" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ100" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
@@ -12905,94 +12909,94 @@
         </is>
       </c>
       <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P103" t="n">
         <v>1.53</v>
       </c>
-      <c r="H103" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I103" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K103" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="L103" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M103" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="N103" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O103" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P103" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Q103" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="R103" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="S103" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="T103" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U103" t="n">
-        <v>6.3</v>
+        <v>8.75</v>
       </c>
       <c r="V103" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W103" t="n">
-        <v>10.25</v>
+        <v>18</v>
       </c>
       <c r="X103" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y103" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z103" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="AA103" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="AB103" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AC103" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AD103" t="n">
         <v>1000</v>
       </c>
       <c r="AE103" t="n">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF103" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AG103" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH103" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AI103" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AJ103" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104">
@@ -13036,10 +13040,10 @@
         <v>3.1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K104" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L104" t="n">
         <v>1.53</v>
@@ -13054,16 +13058,16 @@
         <v>1.44</v>
       </c>
       <c r="P104" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R104" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S104" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T104" t="n">
         <v>6</v>
@@ -13075,16 +13079,16 @@
         <v>11</v>
       </c>
       <c r="W104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y104" t="n">
         <v>41</v>
       </c>
       <c r="Z104" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA104" t="n">
         <v>6</v>
@@ -13093,7 +13097,7 @@
         <v>19</v>
       </c>
       <c r="AC104" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD104" t="n">
         <v>501</v>
@@ -13652,10 +13656,10 @@
         <v>7</v>
       </c>
       <c r="L109" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M109" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N109" t="n">
         <v>2.5</v>
@@ -14024,10 +14028,10 @@
         <v>3</v>
       </c>
       <c r="N112" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O112" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P112" t="n">
         <v>1.44</v>
@@ -14473,13 +14477,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J117" t="n">
         <v>1.06</v>
@@ -14494,10 +14498,10 @@
         <v>3.5</v>
       </c>
       <c r="N117" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O117" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P117" t="n">
         <v>1.4</v>
@@ -14521,19 +14525,19 @@
         <v>9.5</v>
       </c>
       <c r="W117" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X117" t="n">
         <v>19</v>
       </c>
       <c r="Y117" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z117" t="n">
         <v>10</v>
       </c>
       <c r="AA117" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB117" t="n">
         <v>13</v>
@@ -14554,7 +14558,7 @@
         <v>11</v>
       </c>
       <c r="AH117" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI117" t="n">
         <v>23</v>
@@ -14607,7 +14611,7 @@
         <v>1.04</v>
       </c>
       <c r="K118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L118" t="n">
         <v>1.22</v>
@@ -14717,13 +14721,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I119" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="J119" t="n">
         <v>1.11</v>
@@ -14732,40 +14736,40 @@
         <v>6.5</v>
       </c>
       <c r="L119" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M119" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N119" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="O119" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P119" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R119" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S119" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T119" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="U119" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="V119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W119" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X119" t="n">
         <v>41</v>
@@ -14774,10 +14778,10 @@
         <v>51</v>
       </c>
       <c r="Z119" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA119" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB119" t="n">
         <v>21</v>
@@ -14789,19 +14793,19 @@
         <v>101</v>
       </c>
       <c r="AE119" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AG119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH119" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI119" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ119" t="n">
         <v>41</v>
@@ -14839,7 +14843,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H120" t="n">
         <v>2.88</v>
@@ -14848,55 +14852,55 @@
         <v>2.15</v>
       </c>
       <c r="J120" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="K120" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="L120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P120" t="n">
         <v>1.62</v>
       </c>
-      <c r="M120" t="n">
+      <c r="Q120" t="n">
         <v>2.2</v>
       </c>
-      <c r="N120" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O120" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P120" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R120" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S120" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T120" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U120" t="n">
         <v>15</v>
       </c>
       <c r="V120" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W120" t="n">
         <v>41</v>
       </c>
       <c r="X120" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y120" t="n">
         <v>51</v>
       </c>
       <c r="Z120" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA120" t="n">
         <v>6</v>
@@ -14905,7 +14909,7 @@
         <v>21</v>
       </c>
       <c r="AC120" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD120" t="n">
         <v>101</v>
@@ -14917,7 +14921,7 @@
         <v>9</v>
       </c>
       <c r="AG120" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH120" t="n">
         <v>21</v>
@@ -15104,10 +15108,10 @@
         <v>2.63</v>
       </c>
       <c r="N122" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O122" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P122" t="n">
         <v>1.53</v>
@@ -15226,10 +15230,10 @@
         <v>5</v>
       </c>
       <c r="N123" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O123" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P123" t="n">
         <v>1.29</v>
@@ -15327,19 +15331,19 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H124" t="n">
         <v>3.2</v>
       </c>
       <c r="I124" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J124" t="n">
         <v>1.07</v>
       </c>
       <c r="K124" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L124" t="n">
         <v>1.36</v>
@@ -15375,7 +15379,7 @@
         <v>9.5</v>
       </c>
       <c r="W124" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X124" t="n">
         <v>19</v>
@@ -15399,10 +15403,10 @@
         <v>301</v>
       </c>
       <c r="AE124" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG124" t="n">
         <v>12</v>
@@ -15452,10 +15456,10 @@
         <v>1.48</v>
       </c>
       <c r="H125" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I125" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J125" t="n">
         <v>1.04</v>
@@ -15491,13 +15495,13 @@
         <v>8</v>
       </c>
       <c r="U125" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V125" t="n">
         <v>8.5</v>
       </c>
       <c r="W125" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X125" t="n">
         <v>12</v>
@@ -15515,16 +15519,16 @@
         <v>15</v>
       </c>
       <c r="AC125" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD125" t="n">
         <v>201</v>
       </c>
       <c r="AE125" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF125" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG125" t="n">
         <v>21</v>
@@ -15586,16 +15590,16 @@
         <v>11</v>
       </c>
       <c r="L126" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M126" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N126" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O126" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P126" t="n">
         <v>1.36</v>
@@ -15815,13 +15819,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H128" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I128" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J128" t="n">
         <v>1.03</v>
@@ -15875,19 +15879,19 @@
         <v>15</v>
       </c>
       <c r="AA128" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB128" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC128" t="n">
         <v>41</v>
       </c>
       <c r="AD128" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF128" t="n">
         <v>10</v>
@@ -15896,7 +15900,7 @@
         <v>8.5</v>
       </c>
       <c r="AH128" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI128" t="n">
         <v>13</v>
@@ -16068,10 +16072,10 @@
         <v>3</v>
       </c>
       <c r="J130" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L130" t="n">
         <v>1.3</v>
@@ -16181,13 +16185,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H131" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J131" t="n">
         <v>1.05</v>
@@ -16196,16 +16200,16 @@
         <v>11</v>
       </c>
       <c r="L131" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M131" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N131" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O131" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P131" t="n">
         <v>1.36</v>
@@ -16229,7 +16233,7 @@
         <v>21</v>
       </c>
       <c r="W131" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X131" t="n">
         <v>51</v>
@@ -16262,13 +16266,13 @@
         <v>8.5</v>
       </c>
       <c r="AH131" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI131" t="n">
         <v>12</v>
       </c>
       <c r="AJ131" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
@@ -16327,7 +16331,7 @@
         <v>1.85</v>
       </c>
       <c r="O132" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P132" t="n">
         <v>1.36</v>
@@ -16446,10 +16450,10 @@
         <v>3.5</v>
       </c>
       <c r="N133" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O133" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P133" t="n">
         <v>1.4</v>
@@ -16556,10 +16560,10 @@
         <v>2.7</v>
       </c>
       <c r="J134" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K134" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L134" t="n">
         <v>1.5</v>
@@ -16669,10 +16673,10 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H135" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I135" t="n">
         <v>17</v>
@@ -16684,22 +16688,22 @@
         <v>21</v>
       </c>
       <c r="L135" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M135" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N135" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O135" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P135" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q135" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R135" t="n">
         <v>2.05</v>
@@ -16708,7 +16712,7 @@
         <v>1.7</v>
       </c>
       <c r="T135" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U135" t="n">
         <v>7</v>
@@ -16726,13 +16730,13 @@
         <v>29</v>
       </c>
       <c r="Z135" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA135" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB135" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC135" t="n">
         <v>67</v>
@@ -16744,7 +16748,7 @@
         <v>41</v>
       </c>
       <c r="AF135" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG135" t="n">
         <v>41</v>
@@ -16753,7 +16757,7 @@
         <v>251</v>
       </c>
       <c r="AI135" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ135" t="n">
         <v>81</v>
@@ -16913,13 +16917,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I137" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J137" t="n">
         <v>1.07</v>
@@ -16928,16 +16932,16 @@
         <v>9</v>
       </c>
       <c r="L137" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M137" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N137" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O137" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P137" t="n">
         <v>1.5</v>
@@ -16955,16 +16959,16 @@
         <v>6.5</v>
       </c>
       <c r="U137" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V137" t="n">
         <v>9</v>
       </c>
       <c r="W137" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X137" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y137" t="n">
         <v>34</v>
@@ -16973,7 +16977,7 @@
         <v>8</v>
       </c>
       <c r="AA137" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB137" t="n">
         <v>17</v>
@@ -16982,16 +16986,16 @@
         <v>51</v>
       </c>
       <c r="AD137" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE137" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF137" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH137" t="n">
         <v>41</v>
@@ -17035,13 +17039,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>3.1</v>
       </c>
       <c r="I138" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J138" t="n">
         <v>1.07</v>
@@ -17116,7 +17120,7 @@
         <v>11</v>
       </c>
       <c r="AH138" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI138" t="n">
         <v>26</v>
@@ -17279,19 +17283,19 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H140" t="n">
         <v>3.7</v>
       </c>
       <c r="I140" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J140" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K140" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L140" t="n">
         <v>1.33</v>
@@ -17312,16 +17316,16 @@
         <v>2.63</v>
       </c>
       <c r="R140" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S140" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T140" t="n">
         <v>6.5</v>
       </c>
       <c r="U140" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V140" t="n">
         <v>8.5</v>
@@ -17354,7 +17358,7 @@
         <v>11</v>
       </c>
       <c r="AF140" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG140" t="n">
         <v>15</v>
@@ -17401,19 +17405,19 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>3.3</v>
       </c>
       <c r="I141" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J141" t="n">
         <v>1.04</v>
       </c>
       <c r="K141" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L141" t="n">
         <v>1.25</v>
@@ -17446,16 +17450,16 @@
         <v>15</v>
       </c>
       <c r="V141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W141" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X141" t="n">
         <v>21</v>
       </c>
       <c r="Y141" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z141" t="n">
         <v>12</v>
@@ -17479,7 +17483,7 @@
         <v>13</v>
       </c>
       <c r="AG141" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH141" t="n">
         <v>23</v>
@@ -17526,34 +17530,34 @@
         <v>2.75</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I142" t="n">
         <v>2.75</v>
       </c>
       <c r="J142" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K142" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L142" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M142" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N142" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O142" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P142" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R142" t="n">
         <v>1.91</v>
@@ -17562,28 +17566,28 @@
         <v>1.8</v>
       </c>
       <c r="T142" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U142" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V142" t="n">
         <v>11</v>
       </c>
       <c r="W142" t="n">
+        <v>29</v>
+      </c>
+      <c r="X142" t="n">
         <v>26</v>
       </c>
-      <c r="X142" t="n">
-        <v>23</v>
-      </c>
       <c r="Y142" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z142" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA142" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB142" t="n">
         <v>15</v>
@@ -17595,22 +17599,22 @@
         <v>351</v>
       </c>
       <c r="AE142" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG142" t="n">
         <v>11</v>
       </c>
       <c r="AH142" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI142" t="n">
         <v>26</v>
       </c>
-      <c r="AI142" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ142" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143">
@@ -17645,13 +17649,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H143" t="n">
         <v>3.1</v>
       </c>
       <c r="I143" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J143" t="n">
         <v>1.07</v>
@@ -17666,10 +17670,10 @@
         <v>3</v>
       </c>
       <c r="N143" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O143" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P143" t="n">
         <v>1.44</v>
@@ -17693,7 +17697,7 @@
         <v>11</v>
       </c>
       <c r="W143" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X143" t="n">
         <v>23</v>
@@ -17714,7 +17718,7 @@
         <v>51</v>
       </c>
       <c r="AD143" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE143" t="n">
         <v>8</v>
@@ -17767,10 +17771,10 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I144" t="n">
         <v>2.1</v>
@@ -17836,7 +17840,7 @@
         <v>41</v>
       </c>
       <c r="AD144" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE144" t="n">
         <v>10</v>
@@ -17910,10 +17914,10 @@
         <v>4.5</v>
       </c>
       <c r="N145" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O145" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P145" t="n">
         <v>1.3</v>
@@ -18133,49 +18137,49 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I147" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="J147" t="n">
         <v>1.07</v>
       </c>
       <c r="K147" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="L147" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M147" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="N147" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O147" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P147" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="R147" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S147" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T147" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="U147" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="V147" t="n">
         <v>8.25</v>
@@ -18184,19 +18188,19 @@
         <v>13</v>
       </c>
       <c r="X147" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y147" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z147" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA147" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB147" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC147" t="n">
         <v>90</v>
@@ -18208,16 +18212,16 @@
         <v>11.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG147" t="n">
         <v>15</v>
       </c>
       <c r="AH147" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI147" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ147" t="n">
         <v>55</v>
@@ -18377,7 +18381,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H149" t="n">
         <v>4.8</v>
@@ -18514,7 +18518,7 @@
         <v>6.5</v>
       </c>
       <c r="L150" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M150" t="n">
         <v>2.87</v>
@@ -18538,13 +18542,13 @@
         <v>1.93</v>
       </c>
       <c r="T150" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U150" t="n">
         <v>13.5</v>
       </c>
       <c r="V150" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W150" t="n">
         <v>32</v>
@@ -18743,22 +18747,22 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H152" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I152" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="J152" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K152" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L152" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M152" t="n">
         <v>3.3</v>
@@ -18767,13 +18771,13 @@
         <v>1.85</v>
       </c>
       <c r="O152" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P152" t="n">
         <v>1.4</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R152" t="n">
         <v>2.02</v>
@@ -18782,7 +18786,7 @@
         <v>1.7</v>
       </c>
       <c r="T152" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U152" t="n">
         <v>6.5</v>
@@ -18791,7 +18795,7 @@
         <v>8.25</v>
       </c>
       <c r="W152" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X152" t="n">
         <v>12.5</v>
@@ -18800,7 +18804,7 @@
         <v>30</v>
       </c>
       <c r="Z152" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA152" t="n">
         <v>8</v>
@@ -18815,7 +18819,7 @@
         <v>1000</v>
       </c>
       <c r="AE152" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF152" t="n">
         <v>35</v>
@@ -19014,10 +19018,10 @@
         <v>1.8</v>
       </c>
       <c r="P154" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="R154" t="n">
         <v>1.75</v>
@@ -19026,10 +19030,10 @@
         <v>1.98</v>
       </c>
       <c r="T154" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U154" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="V154" t="n">
         <v>11.25</v>
@@ -19047,19 +19051,19 @@
         <v>7.1</v>
       </c>
       <c r="AA154" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB154" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC154" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD154" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE154" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AF154" t="n">
         <v>10</v>
@@ -19068,13 +19072,13 @@
         <v>8.75</v>
       </c>
       <c r="AH154" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI154" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ154" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155">
@@ -19368,16 +19372,16 @@
         <v>11</v>
       </c>
       <c r="L157" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M157" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N157" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O157" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P157" t="n">
         <v>1.4</v>
@@ -19484,10 +19488,10 @@
         <v>7</v>
       </c>
       <c r="J158" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K158" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L158" t="n">
         <v>1.3</v>
@@ -19597,19 +19601,19 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H159" t="n">
         <v>3.1</v>
       </c>
       <c r="I159" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J159" t="n">
         <v>1.07</v>
       </c>
       <c r="K159" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L159" t="n">
         <v>1.33</v>
@@ -19639,16 +19643,16 @@
         <v>8</v>
       </c>
       <c r="U159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V159" t="n">
         <v>10</v>
       </c>
       <c r="W159" t="n">
+        <v>26</v>
+      </c>
+      <c r="X159" t="n">
         <v>23</v>
-      </c>
-      <c r="X159" t="n">
-        <v>21</v>
       </c>
       <c r="Y159" t="n">
         <v>34</v>
@@ -19669,16 +19673,16 @@
         <v>251</v>
       </c>
       <c r="AE159" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF159" t="n">
         <v>13</v>
       </c>
       <c r="AG159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH159" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI159" t="n">
         <v>23</v>
@@ -19719,13 +19723,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>3.25</v>
       </c>
       <c r="I160" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J160" t="n">
         <v>1.07</v>
@@ -19752,25 +19756,25 @@
         <v>2.63</v>
       </c>
       <c r="R160" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S160" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T160" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U160" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V160" t="n">
         <v>9</v>
       </c>
       <c r="W160" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X160" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y160" t="n">
         <v>29</v>
@@ -19782,13 +19786,13 @@
         <v>6.5</v>
       </c>
       <c r="AB160" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC160" t="n">
         <v>51</v>
       </c>
       <c r="AD160" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE160" t="n">
         <v>9.5</v>
@@ -19803,7 +19807,7 @@
         <v>41</v>
       </c>
       <c r="AI160" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ160" t="n">
         <v>41</v>
@@ -20460,10 +20464,10 @@
         <v>3</v>
       </c>
       <c r="J166" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K166" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L166" t="n">
         <v>1.44</v>
@@ -20478,10 +20482,10 @@
         <v>1.53</v>
       </c>
       <c r="P166" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R166" t="n">
         <v>2.1</v>
@@ -20493,7 +20497,7 @@
         <v>6.5</v>
       </c>
       <c r="U166" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V166" t="n">
         <v>11</v>
@@ -20508,13 +20512,13 @@
         <v>41</v>
       </c>
       <c r="Z166" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA166" t="n">
         <v>6</v>
       </c>
       <c r="AB166" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC166" t="n">
         <v>67</v>
@@ -20523,7 +20527,7 @@
         <v>900</v>
       </c>
       <c r="AE166" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF166" t="n">
         <v>13</v>
@@ -20532,7 +20536,7 @@
         <v>12</v>
       </c>
       <c r="AH166" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI166" t="n">
         <v>29</v>
@@ -20621,10 +20625,10 @@
         <v>11</v>
       </c>
       <c r="W167" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X167" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y167" t="n">
         <v>41</v>
@@ -20645,7 +20649,7 @@
         <v>101</v>
       </c>
       <c r="AE167" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF167" t="n">
         <v>13</v>
@@ -20826,10 +20830,10 @@
         <v>2.88</v>
       </c>
       <c r="J169" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K169" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L169" t="n">
         <v>1.3</v>
@@ -20850,10 +20854,10 @@
         <v>2.63</v>
       </c>
       <c r="R169" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S169" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T169" t="n">
         <v>8</v>
@@ -20886,7 +20890,7 @@
         <v>51</v>
       </c>
       <c r="AD169" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE169" t="n">
         <v>9</v>
@@ -20939,13 +20943,13 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I170" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J170" t="n">
         <v>1.1</v>
@@ -20954,16 +20958,16 @@
         <v>6.5</v>
       </c>
       <c r="L170" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M170" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N170" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O170" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P170" t="n">
         <v>1.57</v>
@@ -20972,22 +20976,22 @@
         <v>2.25</v>
       </c>
       <c r="R170" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S170" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T170" t="n">
         <v>6</v>
       </c>
       <c r="U170" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V170" t="n">
         <v>10</v>
       </c>
       <c r="W170" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X170" t="n">
         <v>21</v>
@@ -20999,7 +21003,7 @@
         <v>6.5</v>
       </c>
       <c r="AA170" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB170" t="n">
         <v>19</v>
@@ -21011,22 +21015,22 @@
         <v>900</v>
       </c>
       <c r="AE170" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF170" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG170" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH170" t="n">
         <v>41</v>
       </c>
       <c r="AI170" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ170" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ170" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="171">
@@ -21070,10 +21074,10 @@
         <v>2.75</v>
       </c>
       <c r="J171" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K171" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L171" t="n">
         <v>1.44</v>
@@ -21082,10 +21086,10 @@
         <v>2.63</v>
       </c>
       <c r="N171" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="O171" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P171" t="n">
         <v>1.53</v>
@@ -21192,10 +21196,10 @@
         <v>3.4</v>
       </c>
       <c r="J172" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K172" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L172" t="n">
         <v>1.36</v>
@@ -21225,13 +21229,13 @@
         <v>6.5</v>
       </c>
       <c r="U172" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V172" t="n">
         <v>9.5</v>
       </c>
       <c r="W172" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X172" t="n">
         <v>19</v>
@@ -21255,7 +21259,7 @@
         <v>700</v>
       </c>
       <c r="AE172" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF172" t="n">
         <v>17</v>
@@ -21489,7 +21493,7 @@
         <v>19</v>
       </c>
       <c r="AC174" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD174" t="n">
         <v>101</v>
@@ -21498,7 +21502,7 @@
         <v>8</v>
       </c>
       <c r="AF174" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG174" t="n">
         <v>13</v>
@@ -21554,10 +21558,10 @@
         <v>2.5</v>
       </c>
       <c r="J175" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K175" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L175" t="n">
         <v>1.33</v>
@@ -21614,7 +21618,7 @@
         <v>51</v>
       </c>
       <c r="AD175" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE175" t="n">
         <v>8</v>
@@ -21667,13 +21671,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H176" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I176" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J176" t="n">
         <v>1.06</v>
@@ -21724,7 +21728,7 @@
         <v>29</v>
       </c>
       <c r="Z176" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA176" t="n">
         <v>6.5</v>
@@ -21911,10 +21915,10 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H178" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I178" t="n">
         <v>4</v>
@@ -21956,10 +21960,10 @@
         <v>8.5</v>
       </c>
       <c r="V178" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W178" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X178" t="n">
         <v>17</v>
@@ -21986,7 +21990,7 @@
         <v>10</v>
       </c>
       <c r="AF178" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG178" t="n">
         <v>13</v>
@@ -22524,16 +22528,16 @@
         <v>2.62</v>
       </c>
       <c r="H183" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I183" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J183" t="n">
         <v>1.06</v>
       </c>
       <c r="K183" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L183" t="n">
         <v>1.3</v>
@@ -22554,16 +22558,16 @@
         <v>2.65</v>
       </c>
       <c r="R183" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S183" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T183" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U183" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V183" t="n">
         <v>9.5</v>
@@ -22575,16 +22579,16 @@
         <v>21</v>
       </c>
       <c r="Y183" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z183" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA183" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB183" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC183" t="n">
         <v>55</v>
@@ -22593,22 +22597,22 @@
         <v>400</v>
       </c>
       <c r="AE183" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF183" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG183" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH183" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI183" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ183" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184">
@@ -22643,10 +22647,10 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H184" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I184" t="n">
         <v>1.82</v>
@@ -22664,25 +22668,25 @@
         <v>4.25</v>
       </c>
       <c r="N184" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O184" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="P184" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Q184" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R184" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S184" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T184" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="U184" t="n">
         <v>24</v>
@@ -22694,43 +22698,43 @@
         <v>55</v>
       </c>
       <c r="X184" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y184" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z184" t="n">
         <v>9</v>
       </c>
       <c r="AA184" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB184" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC184" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD184" t="n">
         <v>250</v>
       </c>
       <c r="AE184" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF184" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AG184" t="n">
         <v>8.25</v>
       </c>
       <c r="AH184" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI184" t="n">
         <v>13</v>
       </c>
       <c r="AJ184" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185">
@@ -22896,22 +22900,22 @@
         <v>5.5</v>
       </c>
       <c r="J186" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K186" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L186" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M186" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N186" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O186" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P186" t="n">
         <v>1.29</v>
@@ -23009,13 +23013,13 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
         <v>3.5</v>
       </c>
       <c r="I187" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J187" t="n">
         <v>1.03</v>
@@ -23131,31 +23135,31 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H188" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I188" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="J188" t="n">
         <v>1.03</v>
       </c>
       <c r="K188" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L188" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M188" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N188" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O188" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P188" t="n">
         <v>1.29</v>
@@ -23194,7 +23198,7 @@
         <v>9.5</v>
       </c>
       <c r="AB188" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC188" t="n">
         <v>51</v>
@@ -23212,7 +23216,7 @@
         <v>8.5</v>
       </c>
       <c r="AH188" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI188" t="n">
         <v>11</v>
@@ -23737,19 +23741,19 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H193" t="n">
         <v>3.1</v>
       </c>
       <c r="I193" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J193" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K193" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L193" t="n">
         <v>1.44</v>
@@ -23776,7 +23780,7 @@
         <v>1.73</v>
       </c>
       <c r="T193" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U193" t="n">
         <v>11</v>
@@ -23785,7 +23789,7 @@
         <v>10</v>
       </c>
       <c r="W193" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X193" t="n">
         <v>23</v>
@@ -23815,13 +23819,13 @@
         <v>13</v>
       </c>
       <c r="AG193" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH193" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI193" t="n">
         <v>29</v>
-      </c>
-      <c r="AI193" t="n">
-        <v>26</v>
       </c>
       <c r="AJ193" t="n">
         <v>41</v>
@@ -23859,13 +23863,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>4.33</v>
       </c>
       <c r="I194" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J194" t="n">
         <v>1.06</v>
@@ -23892,28 +23896,28 @@
         <v>2.63</v>
       </c>
       <c r="R194" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S194" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T194" t="n">
         <v>5.5</v>
       </c>
       <c r="U194" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V194" t="n">
         <v>9</v>
       </c>
       <c r="W194" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X194" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y194" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z194" t="n">
         <v>9</v>
@@ -23934,16 +23938,16 @@
         <v>15</v>
       </c>
       <c r="AF194" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG194" t="n">
         <v>23</v>
       </c>
       <c r="AH194" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI194" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ194" t="n">
         <v>67</v>
@@ -23990,10 +23994,10 @@
         <v>2.15</v>
       </c>
       <c r="J195" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K195" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L195" t="n">
         <v>1.29</v>
@@ -24225,13 +24229,13 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H197" t="n">
         <v>3.6</v>
       </c>
       <c r="I197" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J197" t="n">
         <v>1.03</v>
@@ -24264,13 +24268,13 @@
         <v>2.63</v>
       </c>
       <c r="T197" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U197" t="n">
         <v>17</v>
       </c>
       <c r="V197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W197" t="n">
         <v>29</v>
@@ -24285,19 +24289,19 @@
         <v>19</v>
       </c>
       <c r="AA197" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB197" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC197" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD197" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE197" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF197" t="n">
         <v>15</v>
@@ -24371,7 +24375,7 @@
         <v>1.85</v>
       </c>
       <c r="O198" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P198" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
         <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M2" t="n">
         <v>5.5</v>
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V2" t="n">
         <v>10</v>
@@ -698,7 +698,7 @@
         <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
@@ -710,13 +710,13 @@
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE2" t="n">
         <v>29</v>
@@ -725,16 +725,16 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="n">
         <v>151</v>
       </c>
       <c r="AI2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
         <v>5.75</v>
@@ -778,22 +778,22 @@
         <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
         <v>19</v>
       </c>
       <c r="L3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M3" t="n">
         <v>5.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -900,22 +900,22 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -966,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
@@ -1022,13 +1022,13 @@
         <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
         <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
         <v>4.33</v>
@@ -1046,16 +1046,16 @@
         <v>3.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V5" t="n">
         <v>9</v>
@@ -1070,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>8.5</v>
@@ -1085,7 +1085,7 @@
         <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>29</v>
@@ -1147,25 +1147,25 @@
         <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
         <v>4.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.57</v>
@@ -1207,7 +1207,7 @@
         <v>126</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>3.5</v>
@@ -1290,16 +1290,16 @@
         <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T7" t="n">
         <v>7.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1308,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
         <v>26</v>
@@ -1326,10 +1326,10 @@
         <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
@@ -1382,43 +1382,43 @@
         <v>3.5</v>
       </c>
       <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
+      <c r="N8" t="n">
         <v>2.1</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T8" t="n">
         <v>10</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>11</v>
       </c>
       <c r="U8" t="n">
         <v>17</v>
@@ -1436,22 +1436,22 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1466,7 +1466,7 @@
         <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>1.06</v>
@@ -1638,22 +1638,22 @@
         <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="O10" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="P10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R10" t="n">
         <v>1.8</v>
@@ -1665,22 +1665,22 @@
         <v>7.5</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
@@ -1695,22 +1695,22 @@
         <v>251</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI10" t="n">
         <v>34</v>
       </c>
-      <c r="AI10" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
         <v>1.05</v>
@@ -1760,31 +1760,31 @@
         <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="O11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="P11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U11" t="n">
         <v>8</v>
@@ -1808,13 +1808,13 @@
         <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
         <v>1.13</v>
@@ -1882,16 +1882,16 @@
         <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
         <v>1.62</v>
@@ -1924,7 +1924,7 @@
         <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA12" t="n">
         <v>5.5</v>
@@ -1942,10 +1942,10 @@
         <v>6.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>29</v>
@@ -1995,7 +1995,7 @@
         <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -2016,10 +2016,10 @@
         <v>1.84</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R13" t="n">
         <v>1.95</v>
@@ -2046,7 +2046,7 @@
         <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>7</v>
@@ -2058,7 +2058,7 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE13" t="n">
         <v>11</v>
@@ -2073,7 +2073,7 @@
         <v>51</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="n">
         <v>41</v>
@@ -2174,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
@@ -2242,13 +2242,13 @@
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>3.4</v>
@@ -2358,19 +2358,19 @@
         <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
         <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
         <v>4.33</v>
@@ -2406,7 +2406,7 @@
         <v>51</v>
       </c>
       <c r="X16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
@@ -2486,13 +2486,13 @@
         <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
         <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="n">
         <v>4.33</v>
@@ -2599,31 +2599,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
         <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P18" t="n">
         <v>1.5</v>
@@ -2656,7 +2656,7 @@
         <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2677,7 +2677,7 @@
         <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>51</v>
@@ -2721,91 +2721,91 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J19" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K19" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="M19" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="S19" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="T19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U19" t="n">
         <v>15</v>
       </c>
       <c r="V19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="n">
         <v>501</v>
       </c>
       <c r="AE19" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>41</v>
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
         <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3004,7 +3004,7 @@
         <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U21" t="n">
         <v>5.5</v>
@@ -3087,43 +3087,43 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
         <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T22" t="n">
         <v>5.5</v>
@@ -3132,10 +3132,10 @@
         <v>6.5</v>
       </c>
       <c r="V22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X22" t="n">
         <v>15</v>
@@ -3144,16 +3144,16 @@
         <v>34</v>
       </c>
       <c r="Z22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA22" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>7</v>
       </c>
       <c r="AB22" t="n">
         <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD22" t="n">
         <v>501</v>
@@ -3352,10 +3352,10 @@
         <v>2.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
         <v>1.67</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
@@ -3474,16 +3474,16 @@
         <v>2.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
         <v>2.63</v>
@@ -3498,22 +3498,22 @@
         <v>7</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
         <v>51</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
         <v>26</v>
@@ -3531,7 +3531,7 @@
         <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>51</v>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>2.63</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
         <v>1.17</v>
@@ -3617,13 +3617,13 @@
         <v>5.5</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V26" t="n">
         <v>12</v>
       </c>
       <c r="W26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X26" t="n">
         <v>29</v>
@@ -3632,7 +3632,7 @@
         <v>51</v>
       </c>
       <c r="Z26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AA26" t="n">
         <v>5.5</v>
@@ -3650,16 +3650,16 @@
         <v>6.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
         <v>51</v>
@@ -3697,19 +3697,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H27" t="n">
         <v>2.7</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.8</v>
@@ -3736,7 +3736,7 @@
         <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U27" t="n">
         <v>10</v>
@@ -3754,7 +3754,7 @@
         <v>51</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
@@ -3763,7 +3763,7 @@
         <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD27" t="n">
         <v>101</v>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
@@ -4200,10 +4200,10 @@
         <v>5.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N31" t="n">
         <v>3.1</v>
@@ -4218,22 +4218,22 @@
         <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
         <v>4.75</v>
       </c>
       <c r="U31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V31" t="n">
         <v>10</v>
       </c>
       <c r="W31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X31" t="n">
         <v>21</v>
@@ -4263,7 +4263,7 @@
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
         <v>51</v>
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.02</v>
@@ -4450,10 +4450,10 @@
         <v>5.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P33" t="n">
         <v>1.25</v>
@@ -4462,22 +4462,22 @@
         <v>3.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S33" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T33" t="n">
         <v>11</v>
       </c>
       <c r="U33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V33" t="n">
         <v>8.5</v>
       </c>
       <c r="W33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X33" t="n">
         <v>12</v>
@@ -4489,28 +4489,28 @@
         <v>19</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="n">
         <v>29</v>
@@ -4572,10 +4572,10 @@
         <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O34" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J36" t="n">
         <v>1.03</v>
@@ -4810,16 +4810,16 @@
         <v>15</v>
       </c>
       <c r="L36" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P36" t="n">
         <v>1.3</v>
@@ -4861,7 +4861,7 @@
         <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD36" t="n">
         <v>126</v>
@@ -4870,16 +4870,16 @@
         <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
         <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ36" t="n">
         <v>23</v>
@@ -5039,13 +5039,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>1.08</v>
@@ -5054,22 +5054,22 @@
         <v>8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N38" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P38" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R38" t="n">
         <v>1.95</v>
@@ -5078,10 +5078,10 @@
         <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V38" t="n">
         <v>13</v>
@@ -5096,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="Z38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA38" t="n">
         <v>6</v>
@@ -5114,16 +5114,16 @@
         <v>6.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG38" t="n">
         <v>9</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ38" t="n">
         <v>29</v>
@@ -5161,19 +5161,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J39" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
         <v>1.5</v>
@@ -5203,13 +5203,13 @@
         <v>5.5</v>
       </c>
       <c r="U39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X39" t="n">
         <v>19</v>
@@ -5236,13 +5236,13 @@
         <v>9.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="n">
         <v>41</v>
@@ -5283,94 +5283,94 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
         <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M40" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N40" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="O40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P40" t="n">
         <v>1.57</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R40" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V40" t="n">
         <v>9.5</v>
       </c>
       <c r="W40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X40" t="n">
         <v>19</v>
       </c>
       <c r="Y40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA40" t="n">
         <v>6</v>
       </c>
       <c r="AB40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE40" t="n">
         <v>9</v>
       </c>
       <c r="AF40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI40" t="n">
         <v>41</v>
       </c>
-      <c r="AI40" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
@@ -5405,19 +5405,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J41" t="n">
         <v>1.08</v>
       </c>
       <c r="K41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.44</v>
@@ -5426,16 +5426,16 @@
         <v>2.75</v>
       </c>
       <c r="N41" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O41" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R41" t="n">
         <v>1.95</v>
@@ -5447,7 +5447,7 @@
         <v>7.5</v>
       </c>
       <c r="U41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V41" t="n">
         <v>11</v>
@@ -5456,7 +5456,7 @@
         <v>29</v>
       </c>
       <c r="X41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y41" t="n">
         <v>41</v>
@@ -5468,7 +5468,7 @@
         <v>6</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
         <v>51</v>
@@ -5477,7 +5477,7 @@
         <v>401</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF41" t="n">
         <v>12</v>
@@ -5486,7 +5486,7 @@
         <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI41" t="n">
         <v>23</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H42" t="n">
         <v>4</v>
@@ -5548,10 +5548,10 @@
         <v>3.2</v>
       </c>
       <c r="N42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5560,10 +5560,10 @@
         <v>2.63</v>
       </c>
       <c r="R42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S42" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T42" t="n">
         <v>5.5</v>
@@ -5575,7 +5575,7 @@
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -5587,10 +5587,10 @@
         <v>8.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC42" t="n">
         <v>81</v>
@@ -5605,7 +5605,7 @@
         <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH42" t="n">
         <v>81</v>
@@ -5658,22 +5658,22 @@
         <v>4.1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N43" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O43" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P43" t="n">
         <v>1.44</v>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J44" t="n">
         <v>1.08</v>
       </c>
       <c r="K44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L44" t="n">
         <v>1.36</v>
@@ -5810,16 +5810,16 @@
         <v>1.83</v>
       </c>
       <c r="T44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U44" t="n">
         <v>11</v>
       </c>
       <c r="V44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
@@ -5828,10 +5828,10 @@
         <v>34</v>
       </c>
       <c r="Z44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB44" t="n">
         <v>15</v>
@@ -5843,7 +5843,7 @@
         <v>301</v>
       </c>
       <c r="AE44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF44" t="n">
         <v>15</v>
@@ -5855,7 +5855,7 @@
         <v>34</v>
       </c>
       <c r="AI44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ44" t="n">
         <v>41</v>
@@ -6015,31 +6015,31 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M46" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P46" t="n">
         <v>1.44</v>
@@ -6048,13 +6048,13 @@
         <v>2.63</v>
       </c>
       <c r="R46" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U46" t="n">
         <v>7.5</v>
@@ -6090,7 +6090,7 @@
         <v>12</v>
       </c>
       <c r="AF46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG46" t="n">
         <v>17</v>
@@ -6102,7 +6102,7 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -6137,13 +6137,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
         <v>1.1</v>
@@ -6176,16 +6176,16 @@
         <v>1.5</v>
       </c>
       <c r="T47" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U47" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V47" t="n">
         <v>9.5</v>
       </c>
       <c r="W47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X47" t="n">
         <v>17</v>
@@ -6200,7 +6200,7 @@
         <v>7</v>
       </c>
       <c r="AB47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
         <v>101</v>
@@ -6209,16 +6209,16 @@
         <v>1250</v>
       </c>
       <c r="AE47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF47" t="n">
         <v>29</v>
       </c>
       <c r="AG47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH47" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI47" t="n">
         <v>51</v>
@@ -6631,7 +6631,7 @@
         <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J51" t="n">
         <v>1.07</v>
@@ -6712,7 +6712,7 @@
         <v>26</v>
       </c>
       <c r="AJ51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="H52" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="J52" t="n">
         <v>1.07</v>
@@ -6762,16 +6762,16 @@
         <v>9</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N52" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O52" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P52" t="n">
         <v>1.5</v>
@@ -6780,25 +6780,25 @@
         <v>2.5</v>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S52" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T52" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V52" t="n">
         <v>9</v>
       </c>
       <c r="W52" t="n">
+        <v>13</v>
+      </c>
+      <c r="X52" t="n">
         <v>17</v>
-      </c>
-      <c r="X52" t="n">
-        <v>19</v>
       </c>
       <c r="Y52" t="n">
         <v>34</v>
@@ -6807,34 +6807,34 @@
         <v>8</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI52" t="n">
         <v>41</v>
       </c>
-      <c r="AI52" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -6869,25 +6869,25 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
         <v>1.5</v>
       </c>
       <c r="J53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K53" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N53" t="n">
         <v>2.1</v>
@@ -6902,10 +6902,10 @@
         <v>2.63</v>
       </c>
       <c r="R53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T53" t="n">
         <v>13</v>
@@ -6944,7 +6944,7 @@
         <v>5.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG53" t="n">
         <v>9</v>
@@ -6991,13 +6991,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>3.1</v>
       </c>
       <c r="I54" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J54" t="n">
         <v>1.05</v>
@@ -7006,16 +7006,16 @@
         <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N54" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P54" t="n">
         <v>1.36</v>
@@ -7030,10 +7030,10 @@
         <v>2.1</v>
       </c>
       <c r="T54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V54" t="n">
         <v>9</v>
@@ -7069,13 +7069,13 @@
         <v>21</v>
       </c>
       <c r="AG54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH54" t="n">
         <v>41</v>
       </c>
       <c r="AI54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ54" t="n">
         <v>34</v>
@@ -7113,13 +7113,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H55" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J55" t="n">
         <v>1.03</v>
@@ -7128,16 +7128,16 @@
         <v>15</v>
       </c>
       <c r="L55" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N55" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O55" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P55" t="n">
         <v>1.33</v>
@@ -7146,28 +7146,28 @@
         <v>3.25</v>
       </c>
       <c r="R55" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S55" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V55" t="n">
         <v>8.5</v>
       </c>
       <c r="W55" t="n">
+        <v>17</v>
+      </c>
+      <c r="X55" t="n">
         <v>15</v>
       </c>
-      <c r="X55" t="n">
-        <v>13</v>
-      </c>
       <c r="Y55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z55" t="n">
         <v>15</v>
@@ -7176,7 +7176,7 @@
         <v>7.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC55" t="n">
         <v>41</v>
@@ -7191,16 +7191,16 @@
         <v>21</v>
       </c>
       <c r="AG55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH55" t="n">
         <v>41</v>
       </c>
       <c r="AI55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="56">
@@ -7235,94 +7235,94 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H56" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="I56" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J56" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="K56" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="L56" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M56" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N56" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="P56" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R56" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S56" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="T56" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W56" t="n">
+        <v>20</v>
+      </c>
+      <c r="X56" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA56" t="n">
         <v>5.7</v>
       </c>
-      <c r="U56" t="n">
+      <c r="AB56" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE56" t="n">
         <v>9.25</v>
-      </c>
-      <c r="V56" t="n">
-        <v>9</v>
-      </c>
-      <c r="W56" t="n">
-        <v>21</v>
-      </c>
-      <c r="X56" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>8.5</v>
       </c>
       <c r="AF56" t="n">
         <v>19.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI56" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H57" t="n">
         <v>3.5</v>
@@ -7366,34 +7366,34 @@
         <v>1.55</v>
       </c>
       <c r="J57" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="L57" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M57" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="N57" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="O57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S57" t="n">
         <v>1.62</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.6</v>
       </c>
       <c r="T57" t="n">
         <v>13.5</v>
@@ -7405,46 +7405,46 @@
         <v>21</v>
       </c>
       <c r="W57" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="X57" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="n">
         <v>90</v>
       </c>
       <c r="Z57" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AA57" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB57" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC57" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD57" t="n">
         <v>101</v>
       </c>
       <c r="AE57" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AF57" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AG57" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH57" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI57" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ57" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
@@ -7479,62 +7479,62 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H58" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I58" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M58" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="N58" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S58" t="n">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="T58" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="U58" t="n">
         <v>8</v>
       </c>
       <c r="V58" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="W58" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X58" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Y58" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z58" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB58" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC58" t="n">
         <v>40</v>
@@ -7543,22 +7543,22 @@
         <v>250</v>
       </c>
       <c r="AE58" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI58" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ58" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
@@ -7593,35 +7593,35 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H59" t="n">
         <v>3.4</v>
       </c>
       <c r="I59" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M59" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N59" t="n">
         <v>1.72</v>
       </c>
       <c r="O59" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S59" t="n">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="T59" t="n">
         <v>10</v>
@@ -7642,7 +7642,7 @@
         <v>27</v>
       </c>
       <c r="Z59" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA59" t="n">
         <v>5.9</v>
@@ -7657,22 +7657,22 @@
         <v>250</v>
       </c>
       <c r="AE59" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AF59" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG59" t="n">
         <v>7</v>
       </c>
       <c r="AH59" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI59" t="n">
         <v>11.75</v>
       </c>
       <c r="AJ59" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="60">
@@ -7728,10 +7728,10 @@
         <v>3.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O60" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P60" t="n">
         <v>1.4</v>
@@ -7829,13 +7829,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
@@ -7844,16 +7844,16 @@
         <v>15</v>
       </c>
       <c r="L61" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M61" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N61" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O61" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P61" t="n">
         <v>1.33</v>
@@ -7901,7 +7901,7 @@
         <v>126</v>
       </c>
       <c r="AE61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF61" t="n">
         <v>13</v>
@@ -7910,7 +7910,7 @@
         <v>9.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI61" t="n">
         <v>17</v>
@@ -8073,25 +8073,25 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="I63" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="J63" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K63" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L63" t="n">
         <v>1.44</v>
       </c>
       <c r="M63" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N63" t="n">
         <v>2.3</v>
@@ -8100,67 +8100,67 @@
         <v>1.57</v>
       </c>
       <c r="P63" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="R63" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="S63" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T63" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="U63" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="V63" t="n">
         <v>9.25</v>
       </c>
       <c r="W63" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="X63" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z63" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AA63" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE63" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AF63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG63" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ63" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
@@ -8552,79 +8552,79 @@
         <v>2.2</v>
       </c>
       <c r="H67" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L67" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M67" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N67" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S67" t="n">
         <v>2.25</v>
       </c>
-      <c r="P67" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S67" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T67" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="U67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V67" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W67" t="n">
         <v>21</v>
       </c>
       <c r="X67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC67" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD67" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AE67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG67" t="n">
         <v>11</v>
@@ -8633,10 +8633,10 @@
         <v>34</v>
       </c>
       <c r="AI67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ67" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -8671,25 +8671,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M68" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N68" t="n">
         <v>2.05</v>
@@ -8710,7 +8710,7 @@
         <v>1.91</v>
       </c>
       <c r="T68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U68" t="n">
         <v>11</v>
@@ -8749,7 +8749,7 @@
         <v>15</v>
       </c>
       <c r="AG68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH68" t="n">
         <v>34</v>
@@ -8793,13 +8793,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H69" t="n">
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J69" t="n">
         <v>1.04</v>
@@ -8817,7 +8817,7 @@
         <v>1.62</v>
       </c>
       <c r="O69" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="P69" t="n">
         <v>1.33</v>
@@ -8829,7 +8829,7 @@
         <v>1.53</v>
       </c>
       <c r="S69" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T69" t="n">
         <v>13.5</v>
@@ -8844,10 +8844,10 @@
         <v>45</v>
       </c>
       <c r="X69" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y69" t="n">
         <v>26</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>27</v>
       </c>
       <c r="Z69" t="n">
         <v>8.5</v>
@@ -8856,7 +8856,7 @@
         <v>7</v>
       </c>
       <c r="AB69" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC69" t="n">
         <v>40</v>
@@ -8868,7 +8868,7 @@
         <v>9.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG69" t="n">
         <v>8.5</v>
@@ -8877,10 +8877,10 @@
         <v>19.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -8915,10 +8915,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
@@ -8939,22 +8939,22 @@
         <v>1.53</v>
       </c>
       <c r="O70" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="P70" t="n">
         <v>1.29</v>
       </c>
       <c r="Q70" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R70" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S70" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="T70" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="U70" t="n">
         <v>13.5</v>
@@ -8963,10 +8963,10 @@
         <v>8.75</v>
       </c>
       <c r="W70" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X70" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y70" t="n">
         <v>18.5</v>
@@ -8975,25 +8975,25 @@
         <v>9</v>
       </c>
       <c r="AA70" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB70" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD70" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE70" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG70" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH70" t="n">
         <v>40</v>
@@ -9002,7 +9002,7 @@
         <v>22</v>
       </c>
       <c r="AJ70" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
@@ -9165,7 +9165,7 @@
         <v>4.8</v>
       </c>
       <c r="I72" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -9176,34 +9176,34 @@
         <v>5.6</v>
       </c>
       <c r="N72" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="O72" t="n">
         <v>2.92</v>
       </c>
       <c r="P72" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="Q72" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="R72" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S72" t="n">
         <v>2.32</v>
       </c>
       <c r="T72" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="U72" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V72" t="n">
         <v>8.5</v>
       </c>
       <c r="W72" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X72" t="n">
         <v>9.75</v>
@@ -9212,37 +9212,37 @@
         <v>17</v>
       </c>
       <c r="Z72" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA72" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB72" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD72" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE72" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG72" t="n">
         <v>24</v>
       </c>
       <c r="AH72" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI72" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ72" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -9277,13 +9277,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="H73" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I73" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -9294,10 +9294,10 @@
         <v>3.3</v>
       </c>
       <c r="N73" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O73" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P73" t="n">
         <v>1.39</v>
@@ -9315,25 +9315,25 @@
         <v>9.5</v>
       </c>
       <c r="U73" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V73" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W73" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X73" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z73" t="n">
         <v>11.25</v>
       </c>
       <c r="AA73" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB73" t="n">
         <v>12</v>
@@ -9345,22 +9345,22 @@
         <v>300</v>
       </c>
       <c r="AE73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG73" t="n">
         <v>9.75</v>
       </c>
-      <c r="AF73" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH73" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI73" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ73" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
@@ -9395,25 +9395,25 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>3.1</v>
       </c>
       <c r="I74" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J74" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L74" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M74" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N74" t="n">
         <v>2.35</v>
@@ -9422,10 +9422,10 @@
         <v>1.57</v>
       </c>
       <c r="P74" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R74" t="n">
         <v>2</v>
@@ -9434,16 +9434,16 @@
         <v>1.75</v>
       </c>
       <c r="T74" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U74" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V74" t="n">
         <v>9.5</v>
       </c>
       <c r="W74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X74" t="n">
         <v>21</v>
@@ -9452,7 +9452,7 @@
         <v>34</v>
       </c>
       <c r="Z74" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA74" t="n">
         <v>6</v>
@@ -9464,7 +9464,7 @@
         <v>67</v>
       </c>
       <c r="AD74" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE74" t="n">
         <v>8.5</v>
@@ -9639,13 +9639,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H76" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I76" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J76" t="n">
         <v>1.04</v>
@@ -9660,10 +9660,10 @@
         <v>3.75</v>
       </c>
       <c r="N76" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O76" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P76" t="n">
         <v>1.36</v>
@@ -9678,10 +9678,10 @@
         <v>2</v>
       </c>
       <c r="T76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V76" t="n">
         <v>13</v>
@@ -9690,7 +9690,7 @@
         <v>41</v>
       </c>
       <c r="X76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y76" t="n">
         <v>34</v>
@@ -9699,19 +9699,19 @@
         <v>12</v>
       </c>
       <c r="AA76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB76" t="n">
         <v>15</v>
       </c>
       <c r="AC76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD76" t="n">
         <v>201</v>
       </c>
       <c r="AE76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF76" t="n">
         <v>9</v>
@@ -9723,7 +9723,7 @@
         <v>15</v>
       </c>
       <c r="AI76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ76" t="n">
         <v>23</v>
@@ -9883,94 +9883,94 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I78" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="J78" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="K78" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L78" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="M78" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="N78" t="n">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="O78" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P78" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R78" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S78" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T78" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U78" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V78" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="W78" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="X78" t="n">
         <v>80</v>
       </c>
       <c r="Y78" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Z78" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AA78" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB78" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC78" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AD78" t="n">
         <v>101</v>
       </c>
       <c r="AE78" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="AF78" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AG78" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AH78" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI78" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ78" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79">
@@ -10005,19 +10005,19 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="H79" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="J79" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="K79" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L79" t="n">
         <v>1.53</v>
@@ -10026,73 +10026,73 @@
         <v>2.32</v>
       </c>
       <c r="N79" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="O79" t="n">
         <v>1.45</v>
       </c>
       <c r="P79" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R79" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S79" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T79" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="U79" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="V79" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W79" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X79" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y79" t="n">
         <v>45</v>
       </c>
       <c r="Z79" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AA79" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB79" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD79" t="n">
         <v>101</v>
       </c>
       <c r="AE79" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AF79" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG79" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH79" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI79" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ79" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80">
@@ -10127,52 +10127,52 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H80" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I80" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="J80" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K80" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="L80" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M80" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="N80" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O80" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P80" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R80" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S80" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T80" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="U80" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V80" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="W80" t="n">
         <v>80</v>
@@ -10181,13 +10181,13 @@
         <v>50</v>
       </c>
       <c r="Y80" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z80" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AA80" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB80" t="n">
         <v>17.5</v>
@@ -10202,16 +10202,16 @@
         <v>5.9</v>
       </c>
       <c r="AF80" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AG80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AI80" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ80" t="n">
         <v>32</v>
@@ -10249,91 +10249,91 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="I81" t="n">
-        <v>1.98</v>
+        <v>2.27</v>
       </c>
       <c r="J81" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="K81" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L81" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M81" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="N81" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="O81" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P81" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R81" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S81" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U81" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="V81" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="W81" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X81" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="Y81" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z81" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AA81" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC81" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD81" t="n">
         <v>900</v>
       </c>
       <c r="AE81" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AF81" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AG81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AI81" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AJ81" t="n">
         <v>40</v>
@@ -10493,13 +10493,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H83" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I83" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="J83" t="n">
         <v>1.08</v>
@@ -10532,19 +10532,19 @@
         <v>1.85</v>
       </c>
       <c r="T83" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U83" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="V83" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W83" t="n">
         <v>45</v>
       </c>
       <c r="X83" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y83" t="n">
         <v>40</v>
@@ -10553,7 +10553,7 @@
         <v>6.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB83" t="n">
         <v>15</v>
@@ -10565,16 +10565,16 @@
         <v>700</v>
       </c>
       <c r="AE83" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG83" t="n">
         <v>9</v>
       </c>
       <c r="AH83" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI83" t="n">
         <v>19</v>
@@ -10633,7 +10633,7 @@
         <v>1.32</v>
       </c>
       <c r="M84" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N84" t="n">
         <v>1.93</v>
@@ -10690,7 +10690,7 @@
         <v>13</v>
       </c>
       <c r="AF84" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG84" t="n">
         <v>17</v>
@@ -10779,7 +10779,7 @@
         <v>6.1</v>
       </c>
       <c r="U85" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V85" t="n">
         <v>9</v>
@@ -10987,7 +10987,7 @@
         <v>3.5</v>
       </c>
       <c r="I87" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="J87" t="n">
         <v>1.05</v>
@@ -10996,10 +10996,10 @@
         <v>7.7</v>
       </c>
       <c r="L87" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M87" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="N87" t="n">
         <v>1.75</v>
@@ -11008,7 +11008,7 @@
         <v>1.95</v>
       </c>
       <c r="P87" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q87" t="n">
         <v>2.8</v>
@@ -11020,16 +11020,16 @@
         <v>2</v>
       </c>
       <c r="T87" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U87" t="n">
         <v>8.5</v>
       </c>
       <c r="V87" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W87" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X87" t="n">
         <v>13</v>
@@ -11044,7 +11044,7 @@
         <v>7</v>
       </c>
       <c r="AB87" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC87" t="n">
         <v>60</v>
@@ -11053,10 +11053,10 @@
         <v>450</v>
       </c>
       <c r="AE87" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF87" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG87" t="n">
         <v>14.5</v>
@@ -11068,7 +11068,7 @@
         <v>45</v>
       </c>
       <c r="AJ87" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
@@ -11106,7 +11106,7 @@
         <v>2.05</v>
       </c>
       <c r="H88" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>3.65</v>
@@ -11121,10 +11121,10 @@
         <v>1.4</v>
       </c>
       <c r="M88" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N88" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O88" t="n">
         <v>1.62</v>
@@ -11142,28 +11142,28 @@
         <v>1.82</v>
       </c>
       <c r="T88" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="U88" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V88" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W88" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X88" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y88" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z88" t="n">
         <v>6.1</v>
       </c>
       <c r="AA88" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB88" t="n">
         <v>15</v>
@@ -11175,22 +11175,22 @@
         <v>700</v>
       </c>
       <c r="AE88" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF88" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG88" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH88" t="n">
         <v>60</v>
       </c>
       <c r="AI88" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ88" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
@@ -11225,19 +11225,19 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="H89" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I89" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J89" t="n">
         <v>1.11</v>
       </c>
       <c r="K89" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L89" t="n">
         <v>1.5</v>
@@ -11258,37 +11258,37 @@
         <v>2.25</v>
       </c>
       <c r="R89" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="S89" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T89" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="U89" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="V89" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W89" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X89" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y89" t="n">
         <v>40</v>
       </c>
       <c r="Z89" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA89" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC89" t="n">
         <v>150</v>
@@ -11297,22 +11297,22 @@
         <v>1000</v>
       </c>
       <c r="AE89" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG89" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AI89" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ89" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
@@ -12445,13 +12445,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="H99" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="I99" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -12462,66 +12462,66 @@
         <v>3.95</v>
       </c>
       <c r="N99" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O99" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="S99" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T99" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U99" t="n">
+        <v>25</v>
+      </c>
+      <c r="V99" t="n">
         <v>13</v>
       </c>
-      <c r="U99" t="n">
-        <v>26</v>
-      </c>
-      <c r="V99" t="n">
-        <v>14</v>
-      </c>
       <c r="W99" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="X99" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y99" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z99" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA99" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AB99" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC99" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD99" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE99" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF99" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AG99" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AH99" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI99" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ99" t="n">
         <v>19</v>
@@ -12580,10 +12580,10 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="S100" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T100" t="n">
         <v>40</v>
@@ -12668,15 +12668,25 @@
           <t>Kuala Lumpur City</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2.12</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O101" t="n">
+        <v>2.12</v>
+      </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
@@ -12734,10 +12744,10 @@
         <v>8.25</v>
       </c>
       <c r="H102" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I102" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -12756,19 +12766,19 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="S102" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T102" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U102" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V102" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W102" t="n">
         <v>175</v>
@@ -12777,40 +12787,40 @@
         <v>60</v>
       </c>
       <c r="Y102" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC102" t="n">
         <v>35</v>
       </c>
-      <c r="Z102" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA102" t="n">
+      <c r="AD102" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE102" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB102" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF102" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG102" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH102" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI102" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ102" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="103">
@@ -12979,7 +12989,7 @@
         <v>1.04</v>
       </c>
       <c r="K104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L104" t="n">
         <v>1.22</v>
@@ -13089,13 +13099,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H105" t="n">
         <v>2.9</v>
       </c>
       <c r="I105" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J105" t="n">
         <v>1.11</v>
@@ -13128,19 +13138,19 @@
         <v>1.53</v>
       </c>
       <c r="T105" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U105" t="n">
         <v>15</v>
       </c>
       <c r="V105" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W105" t="n">
         <v>41</v>
       </c>
       <c r="X105" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y105" t="n">
         <v>51</v>
@@ -13149,7 +13159,7 @@
         <v>6</v>
       </c>
       <c r="AA105" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB105" t="n">
         <v>21</v>
@@ -13167,7 +13177,7 @@
         <v>9</v>
       </c>
       <c r="AG105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH105" t="n">
         <v>21</v>
@@ -13336,10 +13346,10 @@
         <v>1.75</v>
       </c>
       <c r="H107" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I107" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J107" t="n">
         <v>1.07</v>
@@ -13577,10 +13587,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H109" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I109" t="n">
         <v>7</v>
@@ -13592,34 +13602,34 @@
         <v>15</v>
       </c>
       <c r="L109" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M109" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N109" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O109" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="P109" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q109" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R109" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S109" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U109" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V109" t="n">
         <v>8.5</v>
@@ -13628,28 +13638,28 @@
         <v>10</v>
       </c>
       <c r="X109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z109" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA109" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB109" t="n">
         <v>17</v>
       </c>
       <c r="AC109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF109" t="n">
         <v>41</v>
@@ -13664,7 +13674,7 @@
         <v>51</v>
       </c>
       <c r="AJ109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110">
@@ -13699,13 +13709,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H110" t="n">
         <v>3.25</v>
       </c>
       <c r="I110" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J110" t="n">
         <v>1.07</v>
@@ -13720,10 +13730,10 @@
         <v>3</v>
       </c>
       <c r="N110" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O110" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P110" t="n">
         <v>1.44</v>
@@ -13732,10 +13742,10 @@
         <v>2.63</v>
       </c>
       <c r="R110" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S110" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -13762,13 +13772,13 @@
         <v>6.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC110" t="n">
         <v>51</v>
       </c>
       <c r="AD110" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE110" t="n">
         <v>9.5</v>
@@ -13821,7 +13831,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H111" t="n">
         <v>4.33</v>
@@ -13878,7 +13888,7 @@
         <v>23</v>
       </c>
       <c r="Z111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA111" t="n">
         <v>8.5</v>
@@ -13964,10 +13974,10 @@
         <v>3.5</v>
       </c>
       <c r="N112" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O112" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P112" t="n">
         <v>1.4</v>
@@ -14065,13 +14075,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>3.1</v>
       </c>
       <c r="I113" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J113" t="n">
         <v>1.07</v>
@@ -14080,22 +14090,22 @@
         <v>9</v>
       </c>
       <c r="L113" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M113" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N113" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O113" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P113" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R113" t="n">
         <v>1.91</v>
@@ -14104,16 +14114,16 @@
         <v>1.91</v>
       </c>
       <c r="T113" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U113" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W113" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X113" t="n">
         <v>26</v>
@@ -14122,7 +14132,7 @@
         <v>34</v>
       </c>
       <c r="Z113" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA113" t="n">
         <v>6</v>
@@ -14140,10 +14150,10 @@
         <v>7.5</v>
       </c>
       <c r="AF113" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG113" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH113" t="n">
         <v>23</v>
@@ -14187,31 +14197,31 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H114" t="n">
         <v>3.6</v>
       </c>
       <c r="I114" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J114" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K114" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L114" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M114" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N114" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O114" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P114" t="n">
         <v>1.33</v>
@@ -14226,7 +14236,7 @@
         <v>2.2</v>
       </c>
       <c r="T114" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U114" t="n">
         <v>21</v>
@@ -14238,7 +14248,7 @@
         <v>41</v>
       </c>
       <c r="X114" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y114" t="n">
         <v>29</v>
@@ -14256,10 +14266,10 @@
         <v>41</v>
       </c>
       <c r="AD114" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE114" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF114" t="n">
         <v>10</v>
@@ -14271,7 +14281,7 @@
         <v>17</v>
       </c>
       <c r="AI114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ114" t="n">
         <v>21</v>
@@ -14309,13 +14319,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H115" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I115" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J115" t="n">
         <v>1.03</v>
@@ -14330,25 +14340,25 @@
         <v>4.5</v>
       </c>
       <c r="N115" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O115" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P115" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q115" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R115" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S115" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T115" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U115" t="n">
         <v>10</v>
@@ -14357,7 +14367,7 @@
         <v>8.5</v>
       </c>
       <c r="W115" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X115" t="n">
         <v>13</v>
@@ -14369,7 +14379,7 @@
         <v>15</v>
       </c>
       <c r="AA115" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB115" t="n">
         <v>13</v>
@@ -14378,7 +14388,7 @@
         <v>41</v>
       </c>
       <c r="AD115" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE115" t="n">
         <v>15</v>
@@ -14396,7 +14406,7 @@
         <v>29</v>
       </c>
       <c r="AJ115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116">
@@ -14431,13 +14441,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J116" t="n">
         <v>1.04</v>
@@ -14464,16 +14474,16 @@
         <v>3</v>
       </c>
       <c r="R116" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S116" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T116" t="n">
         <v>8.5</v>
       </c>
       <c r="U116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V116" t="n">
         <v>9</v>
@@ -14482,10 +14492,10 @@
         <v>19</v>
       </c>
       <c r="X116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y116" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z116" t="n">
         <v>12</v>
@@ -14503,19 +14513,19 @@
         <v>201</v>
       </c>
       <c r="AE116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF116" t="n">
         <v>17</v>
       </c>
       <c r="AG116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH116" t="n">
         <v>34</v>
       </c>
       <c r="AI116" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ116" t="n">
         <v>29</v>
@@ -14553,13 +14563,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="H117" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I117" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J117" t="n">
         <v>1.04</v>
@@ -14574,10 +14584,10 @@
         <v>3.75</v>
       </c>
       <c r="N117" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O117" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P117" t="n">
         <v>1.36</v>
@@ -14586,28 +14596,28 @@
         <v>3</v>
       </c>
       <c r="R117" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S117" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U117" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W117" t="n">
         <v>67</v>
       </c>
       <c r="X117" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y117" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z117" t="n">
         <v>11</v>
@@ -14616,13 +14626,13 @@
         <v>8</v>
       </c>
       <c r="AB117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC117" t="n">
         <v>51</v>
       </c>
       <c r="AD117" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE117" t="n">
         <v>7</v>
@@ -14634,10 +14644,10 @@
         <v>8.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ117" t="n">
         <v>26</v>
@@ -14696,10 +14706,10 @@
         <v>3.5</v>
       </c>
       <c r="N118" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O118" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P118" t="n">
         <v>1.36</v>
@@ -14797,19 +14807,19 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H119" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I119" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J119" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L119" t="n">
         <v>1.29</v>
@@ -14836,13 +14846,13 @@
         <v>1.8</v>
       </c>
       <c r="T119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U119" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W119" t="n">
         <v>51</v>
@@ -14881,7 +14891,7 @@
         <v>12</v>
       </c>
       <c r="AI119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ119" t="n">
         <v>29</v>
@@ -14919,49 +14929,49 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I120" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J120" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K120" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L120" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M120" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N120" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O120" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="P120" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R120" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S120" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T120" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V120" t="n">
         <v>11</v>
@@ -14970,40 +14980,40 @@
         <v>29</v>
       </c>
       <c r="X120" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y120" t="n">
         <v>41</v>
       </c>
       <c r="Z120" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA120" t="n">
         <v>6</v>
       </c>
       <c r="AB120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC120" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD120" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE120" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF120" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG120" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH120" t="n">
         <v>26</v>
       </c>
       <c r="AI120" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ120" t="n">
         <v>41</v>
@@ -15041,10 +15051,10 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H121" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I121" t="n">
         <v>17</v>
@@ -15056,34 +15066,34 @@
         <v>23</v>
       </c>
       <c r="L121" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="M121" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N121" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O121" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P121" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Q121" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="R121" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S121" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U121" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V121" t="n">
         <v>11</v>
@@ -15098,7 +15108,7 @@
         <v>29</v>
       </c>
       <c r="Z121" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA121" t="n">
         <v>15</v>
@@ -15110,7 +15120,7 @@
         <v>67</v>
       </c>
       <c r="AD121" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE121" t="n">
         <v>41</v>
@@ -15128,7 +15138,7 @@
         <v>101</v>
       </c>
       <c r="AJ121" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122">
@@ -15190,22 +15200,22 @@
         <v>2.25</v>
       </c>
       <c r="P122" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q122" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R122" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S122" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T122" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U122" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V122" t="n">
         <v>8.5</v>
@@ -15223,16 +15233,16 @@
         <v>15</v>
       </c>
       <c r="AA122" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB122" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC122" t="n">
         <v>51</v>
       </c>
       <c r="AD122" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE122" t="n">
         <v>21</v>
@@ -15241,7 +15251,7 @@
         <v>41</v>
       </c>
       <c r="AG122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH122" t="n">
         <v>81</v>
@@ -15250,7 +15260,7 @@
         <v>51</v>
       </c>
       <c r="AJ122" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123">
@@ -15285,79 +15295,79 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I123" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J123" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M123" t="n">
+        <v>3</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P123" t="n">
         <v>1.44</v>
       </c>
-      <c r="M123" t="n">
+      <c r="Q123" t="n">
         <v>2.63</v>
       </c>
-      <c r="N123" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O123" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P123" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R123" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S123" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="T123" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U123" t="n">
         <v>10</v>
       </c>
       <c r="V123" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W123" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X123" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y123" t="n">
         <v>34</v>
       </c>
       <c r="Z123" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA123" t="n">
         <v>6</v>
       </c>
       <c r="AB123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC123" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD123" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AE123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF123" t="n">
         <v>15</v>
@@ -15407,19 +15417,19 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H124" t="n">
         <v>3.1</v>
       </c>
       <c r="I124" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J124" t="n">
         <v>1.07</v>
       </c>
       <c r="K124" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L124" t="n">
         <v>1.36</v>
@@ -15434,10 +15444,10 @@
         <v>1.67</v>
       </c>
       <c r="P124" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R124" t="n">
         <v>1.83</v>
@@ -15449,7 +15459,7 @@
         <v>7.5</v>
       </c>
       <c r="U124" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V124" t="n">
         <v>10</v>
@@ -15479,7 +15489,7 @@
         <v>301</v>
       </c>
       <c r="AE124" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF124" t="n">
         <v>13</v>
@@ -15672,10 +15682,10 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O126" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P126" t="n">
         <v>1.4</v>
@@ -15773,13 +15783,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H127" t="n">
         <v>3.3</v>
       </c>
       <c r="I127" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J127" t="n">
         <v>1.04</v>
@@ -15794,10 +15804,10 @@
         <v>3.75</v>
       </c>
       <c r="N127" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O127" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P127" t="n">
         <v>1.36</v>
@@ -15848,7 +15858,7 @@
         <v>9.5</v>
       </c>
       <c r="AF127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG127" t="n">
         <v>9.5</v>
@@ -16139,13 +16149,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H130" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I130" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
@@ -16154,16 +16164,16 @@
         <v>15</v>
       </c>
       <c r="L130" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M130" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N130" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O130" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P130" t="n">
         <v>1.3</v>
@@ -16178,19 +16188,19 @@
         <v>2.38</v>
       </c>
       <c r="T130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W130" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X130" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y130" t="n">
         <v>23</v>
@@ -16205,25 +16215,25 @@
         <v>12</v>
       </c>
       <c r="AC130" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD130" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF130" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ130" t="n">
         <v>21</v>
@@ -16261,13 +16271,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H131" t="n">
         <v>4.5</v>
       </c>
       <c r="I131" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J131" t="n">
         <v>1.03</v>
@@ -16312,16 +16322,16 @@
         <v>11</v>
       </c>
       <c r="X131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z131" t="n">
         <v>15</v>
       </c>
       <c r="AA131" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB131" t="n">
         <v>17</v>
@@ -16336,13 +16346,13 @@
         <v>17</v>
       </c>
       <c r="AF131" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG131" t="n">
         <v>17</v>
       </c>
       <c r="AH131" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI131" t="n">
         <v>41</v>
@@ -16383,19 +16393,19 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="H132" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I132" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J132" t="n">
         <v>1.06</v>
       </c>
       <c r="K132" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="L132" t="n">
         <v>1.28</v>
@@ -16413,7 +16423,7 @@
         <v>1.4</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R132" t="n">
         <v>1.75</v>
@@ -16428,19 +16438,19 @@
         <v>8.75</v>
       </c>
       <c r="V132" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W132" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X132" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y132" t="n">
         <v>25</v>
       </c>
       <c r="Z132" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA132" t="n">
         <v>6.7</v>
@@ -16449,25 +16459,25 @@
         <v>14</v>
       </c>
       <c r="AC132" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD132" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE132" t="n">
         <v>12</v>
       </c>
       <c r="AF132" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG132" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH132" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI132" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ132" t="n">
         <v>40</v>
@@ -16505,19 +16515,19 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H133" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I133" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="J133" t="n">
         <v>1.07</v>
       </c>
       <c r="K133" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="L133" t="n">
         <v>1.34</v>
@@ -16535,7 +16545,7 @@
         <v>1.45</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R133" t="n">
         <v>1.93</v>
@@ -16544,7 +16554,7 @@
         <v>1.78</v>
       </c>
       <c r="T133" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U133" t="n">
         <v>7.5</v>
@@ -16562,25 +16572,25 @@
         <v>30</v>
       </c>
       <c r="Z133" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA133" t="n">
         <v>6.8</v>
       </c>
-      <c r="AA133" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AB133" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC133" t="n">
         <v>90</v>
       </c>
       <c r="AD133" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE133" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF133" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG133" t="n">
         <v>15</v>
@@ -16589,10 +16599,10 @@
         <v>80</v>
       </c>
       <c r="AI133" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ133" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134">
@@ -16630,10 +16640,10 @@
         <v>1.7</v>
       </c>
       <c r="H134" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I134" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="J134" t="n">
         <v>1.04</v>
@@ -16666,7 +16676,7 @@
         <v>2.12</v>
       </c>
       <c r="T134" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U134" t="n">
         <v>9</v>
@@ -16675,7 +16685,7 @@
         <v>8</v>
       </c>
       <c r="W134" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X134" t="n">
         <v>12.5</v>
@@ -16874,82 +16884,82 @@
         <v>2.55</v>
       </c>
       <c r="H136" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I136" t="n">
         <v>3.05</v>
       </c>
       <c r="J136" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K136" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="L136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P136" t="n">
         <v>1.47</v>
       </c>
-      <c r="M136" t="n">
+      <c r="Q136" t="n">
         <v>2.57</v>
       </c>
-      <c r="N136" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O136" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P136" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R136" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S136" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="T136" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="U136" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V136" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W136" t="n">
         <v>32</v>
       </c>
       <c r="X136" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y136" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Z136" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AA136" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB136" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF136" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC136" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>16</v>
-      </c>
       <c r="AG136" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH136" t="n">
         <v>45</v>
@@ -16958,7 +16968,7 @@
         <v>32</v>
       </c>
       <c r="AJ136" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137">
@@ -17115,94 +17125,94 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I138" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J138" t="n">
         <v>1.05</v>
       </c>
       <c r="K138" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="L138" t="n">
         <v>1.28</v>
       </c>
       <c r="M138" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N138" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O138" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P138" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q138" t="n">
         <v>2.75</v>
       </c>
       <c r="R138" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S138" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T138" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U138" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="V138" t="n">
         <v>8.25</v>
       </c>
       <c r="W138" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="X138" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y138" t="n">
         <v>28</v>
       </c>
       <c r="Z138" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA138" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB138" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC138" t="n">
         <v>90</v>
       </c>
       <c r="AD138" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE138" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF138" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG138" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI138" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ138" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="139">
@@ -17237,13 +17247,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="H139" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="I139" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J139" t="n">
         <v>1.03</v>
@@ -17252,40 +17262,40 @@
         <v>9</v>
       </c>
       <c r="L139" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M139" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="N139" t="n">
         <v>1.57</v>
       </c>
       <c r="O139" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="P139" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q139" t="n">
         <v>3.2</v>
       </c>
       <c r="R139" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S139" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T139" t="n">
         <v>8.25</v>
       </c>
       <c r="U139" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="V139" t="n">
         <v>8.25</v>
       </c>
       <c r="W139" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="X139" t="n">
         <v>11</v>
@@ -17300,28 +17310,28 @@
         <v>8.75</v>
       </c>
       <c r="AB139" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC139" t="n">
         <v>65</v>
       </c>
       <c r="AD139" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE139" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF139" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AG139" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH139" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI139" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ139" t="n">
         <v>50</v>
@@ -17359,37 +17369,37 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H140" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I140" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
         <v>1.06</v>
       </c>
       <c r="K140" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L140" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M140" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N140" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O140" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P140" t="n">
         <v>1.42</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R140" t="n">
         <v>1.75</v>
@@ -17398,25 +17408,25 @@
         <v>1.98</v>
       </c>
       <c r="T140" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U140" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="V140" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="W140" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X140" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y140" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z140" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA140" t="n">
         <v>6.4</v>
@@ -17434,19 +17444,19 @@
         <v>7.5</v>
       </c>
       <c r="AF140" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG140" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH140" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI140" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AJ140" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141">
@@ -18213,13 +18223,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H147" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I147" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J147" t="n">
         <v>1.05</v>
@@ -18228,16 +18238,16 @@
         <v>11</v>
       </c>
       <c r="L147" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M147" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N147" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O147" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P147" t="n">
         <v>1.4</v>
@@ -18246,16 +18256,16 @@
         <v>2.75</v>
       </c>
       <c r="R147" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S147" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T147" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V147" t="n">
         <v>10</v>
@@ -18270,10 +18280,10 @@
         <v>29</v>
       </c>
       <c r="Z147" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA147" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB147" t="n">
         <v>13</v>
@@ -18285,19 +18295,19 @@
         <v>201</v>
       </c>
       <c r="AE147" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF147" t="n">
         <v>13</v>
       </c>
       <c r="AG147" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH147" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI147" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ147" t="n">
         <v>29</v>
@@ -18338,82 +18348,82 @@
         <v>2.2</v>
       </c>
       <c r="H148" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J148" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K148" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L148" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M148" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N148" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O148" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P148" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q148" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R148" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S148" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U148" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V148" t="n">
         <v>9.5</v>
       </c>
       <c r="W148" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X148" t="n">
         <v>15</v>
       </c>
       <c r="Y148" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z148" t="n">
         <v>21</v>
       </c>
-      <c r="Z148" t="n">
-        <v>17</v>
-      </c>
       <c r="AA148" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB148" t="n">
         <v>11</v>
       </c>
       <c r="AC148" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD148" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE148" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF148" t="n">
         <v>19</v>
       </c>
       <c r="AG148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH148" t="n">
         <v>34</v>
@@ -18422,7 +18432,7 @@
         <v>21</v>
       </c>
       <c r="AJ148" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
@@ -18457,7 +18467,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H149" t="n">
         <v>3</v>
@@ -18466,40 +18476,40 @@
         <v>3.6</v>
       </c>
       <c r="J149" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K149" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L149" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M149" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N149" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O149" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="P149" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R149" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S149" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T149" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U149" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V149" t="n">
         <v>9.5</v>
@@ -18508,19 +18518,19 @@
         <v>21</v>
       </c>
       <c r="X149" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y149" t="n">
         <v>34</v>
       </c>
       <c r="Z149" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA149" t="n">
         <v>6</v>
       </c>
       <c r="AB149" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC149" t="n">
         <v>51</v>
@@ -18529,7 +18539,7 @@
         <v>301</v>
       </c>
       <c r="AE149" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF149" t="n">
         <v>17</v>
@@ -18541,7 +18551,7 @@
         <v>41</v>
       </c>
       <c r="AI149" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ149" t="n">
         <v>41</v>
@@ -18588,10 +18598,10 @@
         <v>5</v>
       </c>
       <c r="J150" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K150" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L150" t="n">
         <v>1.4</v>
@@ -18618,7 +18628,7 @@
         <v>1.67</v>
       </c>
       <c r="T150" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U150" t="n">
         <v>7.5</v>
@@ -18627,7 +18637,7 @@
         <v>9</v>
       </c>
       <c r="W150" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X150" t="n">
         <v>17</v>
@@ -18701,13 +18711,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>8</v>
       </c>
       <c r="I151" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J151" t="n">
         <v>1.02</v>
@@ -18734,13 +18744,13 @@
         <v>3.5</v>
       </c>
       <c r="R151" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S151" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T151" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U151" t="n">
         <v>6</v>
@@ -18749,7 +18759,7 @@
         <v>10</v>
       </c>
       <c r="W151" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X151" t="n">
         <v>12</v>
@@ -18767,25 +18777,25 @@
         <v>34</v>
       </c>
       <c r="AC151" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD151" t="n">
         <v>101</v>
       </c>
       <c r="AE151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF151" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG151" t="n">
         <v>26</v>
       </c>
       <c r="AH151" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI151" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ151" t="n">
         <v>67</v>
@@ -18823,19 +18833,19 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H152" t="n">
         <v>3</v>
       </c>
       <c r="I152" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J152" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K152" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L152" t="n">
         <v>1.44</v>
@@ -18856,13 +18866,13 @@
         <v>2.38</v>
       </c>
       <c r="R152" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S152" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T152" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U152" t="n">
         <v>11</v>
@@ -18907,7 +18917,7 @@
         <v>29</v>
       </c>
       <c r="AI152" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ152" t="n">
         <v>41</v>
@@ -19258,7 +19268,7 @@
         <v>51</v>
       </c>
       <c r="AD155" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE155" t="n">
         <v>9</v>
@@ -19317,13 +19327,13 @@
         <v>2.9</v>
       </c>
       <c r="I156" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J156" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K156" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L156" t="n">
         <v>1.5</v>
@@ -19344,22 +19354,22 @@
         <v>2.25</v>
       </c>
       <c r="R156" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S156" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T156" t="n">
         <v>6</v>
       </c>
       <c r="U156" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V156" t="n">
         <v>10</v>
       </c>
       <c r="W156" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X156" t="n">
         <v>21</v>
@@ -19383,13 +19393,13 @@
         <v>900</v>
       </c>
       <c r="AE156" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG156" t="n">
         <v>15</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>13</v>
       </c>
       <c r="AH156" t="n">
         <v>41</v>
@@ -19433,19 +19443,19 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H157" t="n">
         <v>3</v>
       </c>
       <c r="I157" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="J157" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K157" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L157" t="n">
         <v>1.44</v>
@@ -19454,10 +19464,10 @@
         <v>2.63</v>
       </c>
       <c r="N157" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="O157" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P157" t="n">
         <v>1.53</v>
@@ -19466,25 +19476,25 @@
         <v>2.38</v>
       </c>
       <c r="R157" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S157" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T157" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U157" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V157" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W157" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X157" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y157" t="n">
         <v>41</v>
@@ -19496,7 +19506,7 @@
         <v>6</v>
       </c>
       <c r="AB157" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC157" t="n">
         <v>67</v>
@@ -19505,19 +19515,19 @@
         <v>800</v>
       </c>
       <c r="AE157" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF157" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG157" t="n">
         <v>12</v>
       </c>
-      <c r="AG157" t="n">
-        <v>11</v>
-      </c>
       <c r="AH157" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI157" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ157" t="n">
         <v>41</v>
@@ -19555,13 +19565,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="H158" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I158" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="J158" t="n">
         <v>1.07</v>
@@ -19576,10 +19586,10 @@
         <v>3</v>
       </c>
       <c r="N158" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O158" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P158" t="n">
         <v>1.5</v>
@@ -19588,58 +19598,58 @@
         <v>2.5</v>
       </c>
       <c r="R158" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S158" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T158" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U158" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="V158" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W158" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="X158" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y158" t="n">
         <v>34</v>
       </c>
       <c r="Z158" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA158" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC158" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD158" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AE158" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF158" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AG158" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH158" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI158" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ158" t="n">
         <v>41</v>
@@ -19677,90 +19687,94 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H159" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I159" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>2.4</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K159" t="n">
+        <v>8</v>
+      </c>
       <c r="L159" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M159" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N159" t="n">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="O159" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P159" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q159" t="n">
         <v>2.5</v>
       </c>
       <c r="R159" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S159" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="T159" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="U159" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="V159" t="n">
+        <v>11</v>
+      </c>
+      <c r="W159" t="n">
+        <v>29</v>
+      </c>
+      <c r="X159" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z159" t="n">
         <v>8</v>
       </c>
-      <c r="W159" t="n">
+      <c r="AA159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH159" t="n">
         <v>23</v>
       </c>
-      <c r="X159" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y159" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z159" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA159" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB159" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC159" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD159" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE159" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF159" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG159" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AH159" t="n">
-        <v>24</v>
-      </c>
       <c r="AI159" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ159" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
@@ -19795,13 +19809,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H160" t="n">
         <v>3</v>
       </c>
       <c r="I160" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J160" t="n">
         <v>1.1</v>
@@ -19846,7 +19860,7 @@
         <v>21</v>
       </c>
       <c r="X160" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y160" t="n">
         <v>41</v>
@@ -19855,19 +19869,19 @@
         <v>6.5</v>
       </c>
       <c r="AA160" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB160" t="n">
         <v>19</v>
       </c>
       <c r="AC160" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD160" t="n">
         <v>101</v>
       </c>
       <c r="AE160" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF160" t="n">
         <v>15</v>
@@ -20039,13 +20053,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H162" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I162" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J162" t="n">
         <v>1.06</v>
@@ -20060,10 +20074,10 @@
         <v>3.4</v>
       </c>
       <c r="N162" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O162" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P162" t="n">
         <v>1.44</v>
@@ -20081,10 +20095,10 @@
         <v>7.5</v>
       </c>
       <c r="U162" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V162" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W162" t="n">
         <v>21</v>
@@ -20111,13 +20125,13 @@
         <v>251</v>
       </c>
       <c r="AE162" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF162" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH162" t="n">
         <v>34</v>
@@ -20182,10 +20196,10 @@
         <v>3.25</v>
       </c>
       <c r="N163" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O163" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P163" t="n">
         <v>1.44</v>
@@ -20194,10 +20208,10 @@
         <v>2.63</v>
       </c>
       <c r="R163" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S163" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T163" t="n">
         <v>8.5</v>
@@ -20230,7 +20244,7 @@
         <v>51</v>
       </c>
       <c r="AD163" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE163" t="n">
         <v>8</v>
@@ -20248,7 +20262,7 @@
         <v>21</v>
       </c>
       <c r="AJ163" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164">
@@ -20289,7 +20303,7 @@
         <v>3.6</v>
       </c>
       <c r="I164" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J164" t="n">
         <v>1.06</v>
@@ -20340,7 +20354,7 @@
         <v>29</v>
       </c>
       <c r="Z164" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA164" t="n">
         <v>7</v>
@@ -20417,7 +20431,7 @@
         <v>1.04</v>
       </c>
       <c r="K165" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L165" t="n">
         <v>1.25</v>
@@ -20426,10 +20440,10 @@
         <v>3.75</v>
       </c>
       <c r="N165" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O165" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P165" t="n">
         <v>1.36</v>
@@ -20447,7 +20461,7 @@
         <v>9</v>
       </c>
       <c r="U165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V165" t="n">
         <v>9</v>
@@ -20527,13 +20541,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H166" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I166" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J166" t="n">
         <v>1.03</v>
@@ -20554,31 +20568,31 @@
         <v>2.2</v>
       </c>
       <c r="P166" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q166" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R166" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S166" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T166" t="n">
         <v>9.5</v>
       </c>
       <c r="U166" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V166" t="n">
         <v>8.5</v>
       </c>
       <c r="W166" t="n">
+        <v>17</v>
+      </c>
+      <c r="X166" t="n">
         <v>15</v>
-      </c>
-      <c r="X166" t="n">
-        <v>13</v>
       </c>
       <c r="Y166" t="n">
         <v>21</v>
@@ -20587,7 +20601,7 @@
         <v>15</v>
       </c>
       <c r="AA166" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB166" t="n">
         <v>13</v>
@@ -20599,7 +20613,7 @@
         <v>151</v>
       </c>
       <c r="AE166" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF166" t="n">
         <v>21</v>
@@ -20611,7 +20625,7 @@
         <v>41</v>
       </c>
       <c r="AI166" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ166" t="n">
         <v>29</v>
@@ -20649,13 +20663,13 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H167" t="n">
         <v>3.4</v>
       </c>
       <c r="I167" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J167" t="n">
         <v>1.04</v>
@@ -20664,16 +20678,16 @@
         <v>13</v>
       </c>
       <c r="L167" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M167" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N167" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O167" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P167" t="n">
         <v>1.33</v>
@@ -20682,10 +20696,10 @@
         <v>3.25</v>
       </c>
       <c r="R167" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S167" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T167" t="n">
         <v>12</v>
@@ -20694,19 +20708,19 @@
         <v>17</v>
       </c>
       <c r="V167" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W167" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X167" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y167" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z167" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA167" t="n">
         <v>6.5</v>
@@ -20718,16 +20732,16 @@
         <v>41</v>
       </c>
       <c r="AD167" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE167" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG167" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AF167" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG167" t="n">
-        <v>9</v>
       </c>
       <c r="AH167" t="n">
         <v>21</v>
@@ -20774,16 +20788,16 @@
         <v>2.8</v>
       </c>
       <c r="H168" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I168" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J168" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K168" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L168" t="n">
         <v>1.25</v>
@@ -20792,25 +20806,25 @@
         <v>3.75</v>
       </c>
       <c r="N168" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O168" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P168" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R168" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S168" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U168" t="n">
         <v>15</v>
@@ -20828,13 +20842,13 @@
         <v>29</v>
       </c>
       <c r="Z168" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA168" t="n">
         <v>6.5</v>
       </c>
       <c r="AB168" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC168" t="n">
         <v>41</v>
@@ -20843,10 +20857,10 @@
         <v>151</v>
       </c>
       <c r="AE168" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF168" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG168" t="n">
         <v>9.5</v>
@@ -21015,94 +21029,94 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H170" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="I170" t="n">
-        <v>1.82</v>
+        <v>2.62</v>
       </c>
       <c r="J170" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K170" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L170" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M170" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="N170" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="O170" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="P170" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q170" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R170" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S170" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="T170" t="n">
-        <v>14.5</v>
+        <v>11.25</v>
       </c>
       <c r="U170" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="V170" t="n">
-        <v>12.5</v>
+        <v>9.25</v>
       </c>
       <c r="W170" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="X170" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Y170" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Z170" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA170" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB170" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC170" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD170" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE170" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AF170" t="n">
-        <v>10.75</v>
+        <v>15.5</v>
       </c>
       <c r="AG170" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH170" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AI170" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AJ170" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
@@ -21137,70 +21151,70 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H171" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I171" t="n">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="J171" t="n">
         <v>1.03</v>
       </c>
       <c r="K171" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L171" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="M171" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="N171" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O171" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="P171" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="Q171" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="R171" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S171" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="T171" t="n">
         <v>10.5</v>
       </c>
       <c r="U171" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V171" t="n">
         <v>8.25</v>
       </c>
       <c r="W171" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="X171" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB171" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Y171" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z171" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA171" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AB171" t="n">
-        <v>12</v>
       </c>
       <c r="AC171" t="n">
         <v>40</v>
@@ -21209,22 +21223,22 @@
         <v>200</v>
       </c>
       <c r="AE171" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF171" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AG171" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH171" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AI171" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ171" t="n">
         <v>32</v>
-      </c>
-      <c r="AJ171" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="172">
@@ -21259,13 +21273,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H172" t="n">
         <v>4.5</v>
       </c>
       <c r="I172" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J172" t="n">
         <v>1.02</v>
@@ -21274,61 +21288,61 @@
         <v>21</v>
       </c>
       <c r="L172" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M172" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N172" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O172" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P172" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q172" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R172" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S172" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T172" t="n">
+        <v>12</v>
+      </c>
+      <c r="U172" t="n">
         <v>11</v>
       </c>
-      <c r="U172" t="n">
-        <v>9.5</v>
-      </c>
       <c r="V172" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X172" t="n">
         <v>11</v>
       </c>
       <c r="Y172" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z172" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA172" t="n">
         <v>9.5</v>
       </c>
       <c r="AB172" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC172" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD172" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE172" t="n">
         <v>21</v>
@@ -21346,7 +21360,7 @@
         <v>34</v>
       </c>
       <c r="AJ172" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173">
@@ -21396,16 +21410,16 @@
         <v>17</v>
       </c>
       <c r="L173" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M173" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N173" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O173" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P173" t="n">
         <v>1.29</v>
@@ -21503,7 +21517,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H174" t="n">
         <v>4.5</v>
@@ -21518,16 +21532,16 @@
         <v>19</v>
       </c>
       <c r="L174" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M174" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N174" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O174" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P174" t="n">
         <v>1.25</v>
@@ -21560,7 +21574,7 @@
         <v>41</v>
       </c>
       <c r="Z174" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA174" t="n">
         <v>9</v>
@@ -21572,25 +21586,25 @@
         <v>41</v>
       </c>
       <c r="AD174" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE174" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF174" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG174" t="n">
         <v>8.5</v>
       </c>
       <c r="AH174" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI174" t="n">
         <v>11</v>
       </c>
       <c r="AJ174" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175">
@@ -21625,13 +21639,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H175" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I175" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J175" t="n">
         <v>1.04</v>
@@ -21676,7 +21690,7 @@
         <v>17</v>
       </c>
       <c r="X175" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y175" t="n">
         <v>21</v>
@@ -21700,7 +21714,7 @@
         <v>15</v>
       </c>
       <c r="AF175" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG175" t="n">
         <v>13</v>
@@ -21747,70 +21761,70 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H176" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="I176" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K176" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q176" t="n">
         <v>2.1</v>
       </c>
-      <c r="J176" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K176" t="n">
-        <v>6</v>
-      </c>
-      <c r="L176" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M176" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="N176" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O176" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P176" t="n">
+      <c r="R176" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S176" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q176" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R176" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S176" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T176" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U176" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V176" t="n">
         <v>13.5</v>
       </c>
       <c r="W176" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X176" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y176" t="n">
         <v>65</v>
       </c>
       <c r="Z176" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="AA176" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB176" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC176" t="n">
         <v>150</v>
@@ -21819,22 +21833,22 @@
         <v>101</v>
       </c>
       <c r="AE176" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AF176" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG176" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH176" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI176" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ176" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177">
@@ -21908,22 +21922,22 @@
         <v>1.5</v>
       </c>
       <c r="T177" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="U177" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V177" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="W177" t="n">
         <v>55</v>
       </c>
       <c r="X177" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y177" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z177" t="n">
         <v>4.3</v>
@@ -21932,7 +21946,7 @@
         <v>5.6</v>
       </c>
       <c r="AB177" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC177" t="n">
         <v>175</v>
@@ -21941,22 +21955,22 @@
         <v>101</v>
       </c>
       <c r="AE177" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AF177" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG177" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH177" t="n">
         <v>27</v>
       </c>
       <c r="AI177" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ177" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178">
@@ -21991,60 +22005,60 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="H178" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M178" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N178" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O178" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P178" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q178" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R178" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S178" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T178" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="U178" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="V178" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W178" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X178" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y178" t="n">
         <v>26</v>
       </c>
       <c r="Z178" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA178" t="n">
         <v>6.2</v>
@@ -22053,28 +22067,28 @@
         <v>13</v>
       </c>
       <c r="AC178" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD178" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE178" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF178" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG178" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH178" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI178" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ178" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179">
@@ -22109,19 +22123,19 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="H179" t="n">
         <v>3.1</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J179" t="n">
         <v>1.08</v>
       </c>
       <c r="K179" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L179" t="n">
         <v>1.44</v>
@@ -22148,16 +22162,16 @@
         <v>1.73</v>
       </c>
       <c r="T179" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U179" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W179" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X179" t="n">
         <v>23</v>
@@ -22166,7 +22180,7 @@
         <v>41</v>
       </c>
       <c r="Z179" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA179" t="n">
         <v>6</v>
@@ -22181,19 +22195,19 @@
         <v>1000</v>
       </c>
       <c r="AE179" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF179" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG179" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH179" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI179" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ179" t="n">
         <v>41</v>
@@ -22231,19 +22245,19 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="H180" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I180" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="J180" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K180" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L180" t="n">
         <v>1.36</v>
@@ -22264,61 +22278,61 @@
         <v>2.63</v>
       </c>
       <c r="R180" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S180" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T180" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U180" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V180" t="n">
         <v>9</v>
       </c>
       <c r="W180" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X180" t="n">
         <v>15</v>
       </c>
       <c r="Y180" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA180" t="n">
         <v>8</v>
       </c>
-      <c r="AA180" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB180" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC180" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD180" t="n">
         <v>101</v>
       </c>
       <c r="AE180" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF180" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG180" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AH180" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI180" t="n">
         <v>51</v>
       </c>
       <c r="AJ180" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181">
@@ -22475,13 +22489,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="H182" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I182" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J182" t="n">
         <v>1.03</v>
@@ -22502,10 +22516,10 @@
         <v>2.25</v>
       </c>
       <c r="P182" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q182" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R182" t="n">
         <v>1.57</v>
@@ -22517,25 +22531,25 @@
         <v>10</v>
       </c>
       <c r="U182" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V182" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W182" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X182" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y182" t="n">
         <v>21</v>
       </c>
       <c r="Z182" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA182" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB182" t="n">
         <v>12</v>
@@ -22547,19 +22561,19 @@
         <v>126</v>
       </c>
       <c r="AE182" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG182" t="n">
         <v>13</v>
       </c>
-      <c r="AF182" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG182" t="n">
-        <v>12</v>
-      </c>
       <c r="AH182" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI182" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ182" t="n">
         <v>29</v>
@@ -22597,13 +22611,13 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H183" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I183" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J183" t="n">
         <v>1.03</v>
@@ -22618,10 +22632,10 @@
         <v>5.5</v>
       </c>
       <c r="N183" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O183" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P183" t="n">
         <v>1.29</v>
@@ -22642,10 +22656,10 @@
         <v>19</v>
       </c>
       <c r="V183" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W183" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X183" t="n">
         <v>21</v>
@@ -22663,7 +22677,7 @@
         <v>11</v>
       </c>
       <c r="AC183" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD183" t="n">
         <v>101</v>
@@ -22672,19 +22686,19 @@
         <v>12</v>
       </c>
       <c r="AF183" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG183" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH183" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI183" t="n">
         <v>15</v>
       </c>
       <c r="AJ183" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184">
@@ -22719,13 +22733,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H184" t="n">
         <v>3.3</v>
       </c>
       <c r="I184" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J184" t="n">
         <v>1.05</v>
@@ -22740,10 +22754,10 @@
         <v>3.75</v>
       </c>
       <c r="N184" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O184" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P184" t="n">
         <v>1.4</v>
@@ -22770,7 +22784,7 @@
         <v>29</v>
       </c>
       <c r="X184" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y184" t="n">
         <v>29</v>
@@ -22782,7 +22796,7 @@
         <v>6.5</v>
       </c>
       <c r="AB184" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC184" t="n">
         <v>41</v>
@@ -22791,10 +22805,10 @@
         <v>151</v>
       </c>
       <c r="AE184" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF184" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG184" t="n">
         <v>9.5</v>
@@ -22963,90 +22977,90 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="H186" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="I186" t="n">
-        <v>4.55</v>
+        <v>6.2</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P186" t="n">
         <v>1.47</v>
       </c>
-      <c r="M186" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="N186" t="n">
+      <c r="Q186" t="n">
         <v>2.32</v>
       </c>
-      <c r="O186" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P186" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q186" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R186" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="S186" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T186" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="U186" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="V186" t="n">
         <v>8.5</v>
       </c>
       <c r="W186" t="n">
-        <v>17.5</v>
+        <v>11.75</v>
       </c>
       <c r="X186" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y186" t="n">
         <v>37</v>
       </c>
       <c r="Z186" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AA186" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB186" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AC186" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AD186" t="n">
         <v>101</v>
       </c>
       <c r="AE186" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AF186" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AG186" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AH186" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI186" t="n">
         <v>90</v>
       </c>
-      <c r="AI186" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ186" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187">
@@ -23081,13 +23095,13 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="H187" t="n">
         <v>2.8</v>
       </c>
       <c r="I187" t="n">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="J187" t="n">
         <v>1.11</v>
@@ -23099,19 +23113,19 @@
         <v>1.47</v>
       </c>
       <c r="M187" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N187" t="n">
         <v>2.32</v>
       </c>
-      <c r="N187" t="n">
-        <v>2.37</v>
-      </c>
       <c r="O187" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P187" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q187" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R187" t="n">
         <v>1.93</v>
@@ -23120,22 +23134,22 @@
         <v>1.7</v>
       </c>
       <c r="T187" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="U187" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="V187" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="W187" t="n">
+        <v>32</v>
+      </c>
+      <c r="X187" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y187" t="n">
         <v>40</v>
-      </c>
-      <c r="X187" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y187" t="n">
-        <v>45</v>
       </c>
       <c r="Z187" t="n">
         <v>6.4</v>
@@ -23144,7 +23158,7 @@
         <v>5.6</v>
       </c>
       <c r="AB187" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC187" t="n">
         <v>100</v>
@@ -23153,19 +23167,19 @@
         <v>800</v>
       </c>
       <c r="AE187" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AF187" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AG187" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AH187" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AI187" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ187" t="n">
         <v>45</v>
@@ -23447,94 +23461,94 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I190" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.85</v>
       </c>
       <c r="J190" t="n">
         <v>1.05</v>
       </c>
       <c r="K190" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L190" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M190" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="N190" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O190" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="P190" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q190" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R190" t="n">
         <v>1.65</v>
       </c>
       <c r="S190" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T190" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U190" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V190" t="n">
         <v>8.25</v>
       </c>
       <c r="W190" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="X190" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y190" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z190" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA190" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AB190" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC190" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD190" t="n">
         <v>350</v>
       </c>
       <c r="AE190" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF190" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG190" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH190" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI190" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ190" t="n">
         <v>32</v>
-      </c>
-      <c r="AJ190" t="n">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M2" t="n">
         <v>5.5</v>
@@ -674,37 +674,37 @@
         <v>2.75</v>
       </c>
       <c r="P2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -716,19 +716,19 @@
         <v>81</v>
       </c>
       <c r="AD2" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>34</v>
       </c>
       <c r="AH2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI2" t="n">
         <v>81</v>
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="O3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -802,43 +802,43 @@
         <v>3.75</v>
       </c>
       <c r="R3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.8</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE3" t="n">
         <v>29</v>
@@ -847,16 +847,16 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI3" t="n">
         <v>67</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -906,16 +906,16 @@
         <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -939,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
@@ -975,7 +975,7 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
         <v>1.22</v>
@@ -1034,10 +1034,10 @@
         <v>4.33</v>
       </c>
       <c r="N5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P5" t="n">
         <v>1.33</v>
@@ -1046,31 +1046,31 @@
         <v>3.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
         <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
         <v>9</v>
       </c>
       <c r="W5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>8.5</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1168,28 +1168,28 @@
         <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
         <v>13</v>
       </c>
       <c r="U6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V6" t="n">
         <v>12</v>
       </c>
       <c r="W6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="n">
         <v>26</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>29</v>
       </c>
       <c r="Z6" t="n">
         <v>15</v>
@@ -1201,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD6" t="n">
         <v>126</v>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>9</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>1.06</v>
@@ -1278,10 +1278,10 @@
         <v>3.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O7" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1299,7 +1299,7 @@
         <v>7.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1308,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>26</v>
@@ -1329,13 +1329,13 @@
         <v>251</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1516,10 +1516,10 @@
         <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N9" t="n">
         <v>1.62</v>
@@ -1540,13 +1540,13 @@
         <v>2.25</v>
       </c>
       <c r="T9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U9" t="n">
         <v>23</v>
       </c>
       <c r="V9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W9" t="n">
         <v>41</v>
@@ -1567,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD9" t="n">
         <v>126</v>
@@ -1576,13 +1576,13 @@
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>8.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -1623,31 +1623,31 @@
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N10" t="n">
         <v>1.95</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.04</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1671,19 +1671,19 @@
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1692,13 +1692,13 @@
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1748,43 +1748,43 @@
         <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O11" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
         <v>8</v>
@@ -1796,34 +1796,34 @@
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>26</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>51</v>
@@ -1870,10 +1870,10 @@
         <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J12" t="n">
         <v>1.13</v>
@@ -1882,16 +1882,16 @@
         <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="N12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
         <v>1.62</v>
@@ -1924,13 +1924,13 @@
         <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>81</v>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
         <v>4.5</v>
@@ -2037,7 +2037,7 @@
         <v>8.5</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
@@ -2058,13 +2058,13 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>15</v>
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2150,10 +2150,10 @@
         <v>1.95</v>
       </c>
       <c r="T14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V14" t="n">
         <v>11</v>
@@ -2174,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
@@ -2192,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>21</v>
@@ -2233,67 +2233,67 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="O15" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.8</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V15" t="n">
         <v>10</v>
       </c>
       <c r="W15" t="n">
+        <v>26</v>
+      </c>
+      <c r="X15" t="n">
         <v>23</v>
       </c>
-      <c r="X15" t="n">
-        <v>21</v>
-      </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
@@ -2302,13 +2302,13 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -2317,10 +2317,10 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2358,10 +2358,10 @@
         <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="J16" t="n">
         <v>1.04</v>
@@ -2421,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD16" t="n">
         <v>201</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -2516,7 +2516,7 @@
         <v>2.25</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U17" t="n">
         <v>12</v>
@@ -2531,7 +2531,7 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
         <v>13</v>
@@ -2546,10 +2546,10 @@
         <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
@@ -2564,7 +2564,7 @@
         <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
         <v>4.75</v>
@@ -2626,19 +2626,19 @@
         <v>1.57</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U18" t="n">
         <v>8</v>
@@ -2650,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I19" t="n">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="J19" t="n">
         <v>1.14</v>
@@ -2736,16 +2736,16 @@
         <v>5.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N19" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
         <v>1.67</v>
@@ -2754,25 +2754,25 @@
         <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
         <v>51</v>
@@ -2781,7 +2781,7 @@
         <v>5.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -2793,19 +2793,19 @@
         <v>501</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>41</v>
@@ -2843,25 +2843,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N20" t="n">
         <v>2.88</v>
@@ -2870,37 +2870,37 @@
         <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T20" t="n">
         <v>5</v>
       </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V20" t="n">
         <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2909,22 +2909,22 @@
         <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="n">
         <v>41</v>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H21" t="n">
         <v>4.1</v>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H22" t="n">
         <v>3.8</v>
@@ -3096,22 +3096,22 @@
         <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -3215,7 +3215,7 @@
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J23" t="n">
         <v>1.13</v>
@@ -3340,13 +3340,13 @@
         <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K24" t="n">
         <v>5.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M24" t="n">
         <v>2.1</v>
@@ -3462,13 +3462,13 @@
         <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K25" t="n">
         <v>5.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M25" t="n">
         <v>2.1</v>
@@ -3575,22 +3575,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H26" t="n">
         <v>2.63</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M26" t="n">
         <v>2.1</v>
@@ -3614,7 +3614,7 @@
         <v>1.5</v>
       </c>
       <c r="T26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U26" t="n">
         <v>11</v>
@@ -3626,7 +3626,7 @@
         <v>29</v>
       </c>
       <c r="X26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
         <v>51</v>
@@ -3706,16 +3706,16 @@
         <v>3.3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="K27" t="n">
         <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="M27" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N27" t="n">
         <v>3.6</v>
@@ -3828,13 +3828,13 @@
         <v>3.8</v>
       </c>
       <c r="J28" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K28" t="n">
         <v>5.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M28" t="n">
         <v>2.1</v>
@@ -3950,13 +3950,13 @@
         <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K29" t="n">
         <v>5.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M29" t="n">
         <v>2.2</v>
@@ -4072,13 +4072,13 @@
         <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K30" t="n">
         <v>6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M30" t="n">
         <v>2.1</v>
@@ -4194,13 +4194,13 @@
         <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K31" t="n">
         <v>5.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M31" t="n">
         <v>2.1</v>
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4328,16 +4328,16 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O32" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R32" t="n">
         <v>1.73</v>
@@ -4349,13 +4349,13 @@
         <v>8</v>
       </c>
       <c r="U32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -4364,10 +4364,10 @@
         <v>23</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
@@ -4379,22 +4379,22 @@
         <v>201</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="n">
         <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -4435,7 +4435,7 @@
         <v>4.33</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J33" t="n">
         <v>1.02</v>
@@ -4501,7 +4501,7 @@
         <v>126</v>
       </c>
       <c r="AE33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
         <v>26</v>
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
         <v>2.15</v>
@@ -4694,16 +4694,16 @@
         <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O35" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R35" t="n">
         <v>1.5</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J36" t="n">
         <v>1.03</v>
@@ -4816,16 +4816,16 @@
         <v>4.33</v>
       </c>
       <c r="N36" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O36" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R36" t="n">
         <v>1.53</v>
@@ -4870,10 +4870,10 @@
         <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>29</v>
@@ -4917,19 +4917,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I37" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J37" t="n">
         <v>1.06</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.3</v>
@@ -4938,10 +4938,10 @@
         <v>3.5</v>
       </c>
       <c r="N37" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="O37" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="P37" t="n">
         <v>1.4</v>
@@ -4956,16 +4956,16 @@
         <v>1.75</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V37" t="n">
         <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
@@ -4992,10 +4992,10 @@
         <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH37" t="n">
         <v>67</v>
@@ -5048,10 +5048,10 @@
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
         <v>1.36</v>
@@ -5060,10 +5060,10 @@
         <v>3.2</v>
       </c>
       <c r="N38" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P38" t="n">
         <v>1.44</v>
@@ -5161,79 +5161,79 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>4.75</v>
       </c>
       <c r="J39" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M39" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="N39" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O39" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA39" t="n">
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="n">
         <v>501</v>
       </c>
       <c r="AE39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF39" t="n">
         <v>21</v>
@@ -5286,7 +5286,7 @@
         <v>1.95</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I40" t="n">
         <v>4.5</v>
@@ -5304,10 +5304,10 @@
         <v>2.63</v>
       </c>
       <c r="N40" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P40" t="n">
         <v>1.57</v>
@@ -5316,10 +5316,10 @@
         <v>2.25</v>
       </c>
       <c r="R40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T40" t="n">
         <v>5.5</v>
@@ -5349,13 +5349,13 @@
         <v>19</v>
       </c>
       <c r="AC40" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD40" t="n">
         <v>501</v>
       </c>
       <c r="AE40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF40" t="n">
         <v>21</v>
@@ -5405,19 +5405,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L41" t="n">
         <v>1.44</v>
@@ -5426,10 +5426,10 @@
         <v>2.75</v>
       </c>
       <c r="N41" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P41" t="n">
         <v>1.53</v>
@@ -5438,10 +5438,10 @@
         <v>2.38</v>
       </c>
       <c r="R41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T41" t="n">
         <v>7.5</v>
@@ -5450,19 +5450,19 @@
         <v>13</v>
       </c>
       <c r="V41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W41" t="n">
+        <v>34</v>
+      </c>
+      <c r="X41" t="n">
         <v>29</v>
-      </c>
-      <c r="X41" t="n">
-        <v>26</v>
       </c>
       <c r="Y41" t="n">
         <v>41</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA41" t="n">
         <v>6</v>
@@ -5471,22 +5471,22 @@
         <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD41" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
         <v>23</v>
@@ -5527,55 +5527,55 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M42" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S42" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T42" t="n">
         <v>5.5</v>
       </c>
       <c r="U42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V42" t="n">
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -5584,13 +5584,13 @@
         <v>34</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC42" t="n">
         <v>81</v>
@@ -5599,13 +5599,13 @@
         <v>501</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF42" t="n">
         <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH42" t="n">
         <v>81</v>
@@ -5614,7 +5614,7 @@
         <v>51</v>
       </c>
       <c r="AJ42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
@@ -5655,13 +5655,13 @@
         <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.33</v>
@@ -5682,16 +5682,16 @@
         <v>2.63</v>
       </c>
       <c r="R43" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
         <v>1.8</v>
       </c>
       <c r="T43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V43" t="n">
         <v>9</v>
@@ -5706,28 +5706,28 @@
         <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA43" t="n">
         <v>6.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
         <v>51</v>
       </c>
       <c r="AD43" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
         <v>41</v>
@@ -5804,10 +5804,10 @@
         <v>2.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T44" t="n">
         <v>7.5</v>
@@ -5929,7 +5929,7 @@
         <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T45" t="n">
         <v>6.5</v>
@@ -6015,13 +6015,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I46" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
         <v>1.07</v>
@@ -6030,16 +6030,16 @@
         <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N46" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O46" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P46" t="n">
         <v>1.44</v>
@@ -6048,22 +6048,22 @@
         <v>2.63</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S46" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T46" t="n">
         <v>6</v>
       </c>
       <c r="U46" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V46" t="n">
         <v>8.5</v>
       </c>
       <c r="W46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X46" t="n">
         <v>15</v>
@@ -6072,34 +6072,34 @@
         <v>29</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD46" t="n">
         <v>351</v>
       </c>
       <c r="AE46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH46" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI46" t="n">
         <v>51</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>41</v>
       </c>
       <c r="AJ46" t="n">
         <v>51</v>
@@ -6173,7 +6173,7 @@
         <v>2.5</v>
       </c>
       <c r="S47" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T47" t="n">
         <v>5</v>
@@ -6625,19 +6625,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H51" t="n">
         <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J51" t="n">
         <v>1.07</v>
       </c>
       <c r="K51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
         <v>1.4</v>
@@ -6646,10 +6646,10 @@
         <v>2.75</v>
       </c>
       <c r="N51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O51" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P51" t="n">
         <v>1.5</v>
@@ -6658,10 +6658,10 @@
         <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -6682,7 +6682,7 @@
         <v>34</v>
       </c>
       <c r="Z51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA51" t="n">
         <v>6.5</v>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H52" t="n">
         <v>3.75</v>
@@ -6768,10 +6768,10 @@
         <v>2.75</v>
       </c>
       <c r="N52" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O52" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P52" t="n">
         <v>1.5</v>
@@ -6807,7 +6807,7 @@
         <v>8</v>
       </c>
       <c r="AA52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB52" t="n">
         <v>21</v>
@@ -6893,13 +6893,13 @@
         <v>2.1</v>
       </c>
       <c r="O53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P53" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R53" t="n">
         <v>2.25</v>
@@ -7244,16 +7244,16 @@
         <v>3.7</v>
       </c>
       <c r="J56" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K56" t="n">
         <v>6</v>
       </c>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M56" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="N56" t="n">
         <v>2.2</v>
@@ -7283,7 +7283,7 @@
         <v>8.75</v>
       </c>
       <c r="W56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
@@ -7357,19 +7357,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H57" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I57" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L57" t="n">
         <v>1.39</v>
@@ -7378,73 +7378,73 @@
         <v>2.8</v>
       </c>
       <c r="N57" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P57" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R57" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S57" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T57" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U57" t="n">
         <v>40</v>
       </c>
       <c r="V57" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W57" t="n">
+        <v>175</v>
+      </c>
+      <c r="X57" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC57" t="n">
         <v>150</v>
-      </c>
-      <c r="X57" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>120</v>
       </c>
       <c r="AD57" t="n">
         <v>101</v>
       </c>
       <c r="AE57" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AF57" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AG57" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AI57" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ57" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
         <v>3.6</v>
@@ -7490,75 +7490,75 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M58" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="N58" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O58" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S58" t="n">
-        <v>2.11</v>
+        <v>2.19</v>
       </c>
       <c r="T58" t="n">
         <v>6.9</v>
       </c>
       <c r="U58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V58" t="n">
         <v>7</v>
       </c>
       <c r="W58" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="X58" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AA58" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AB58" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AD58" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AE58" t="n">
         <v>10.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH58" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="n">
         <v>24</v>
       </c>
       <c r="AJ58" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
@@ -7596,10 +7596,10 @@
         <v>3.65</v>
       </c>
       <c r="H59" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -7618,16 +7618,16 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S59" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="T59" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U59" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V59" t="n">
         <v>10.25</v>
@@ -7636,19 +7636,19 @@
         <v>40</v>
       </c>
       <c r="X59" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y59" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z59" t="n">
         <v>10.75</v>
       </c>
       <c r="AA59" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB59" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC59" t="n">
         <v>40</v>
@@ -7666,10 +7666,10 @@
         <v>7</v>
       </c>
       <c r="AH59" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ59" t="n">
         <v>18.5</v>
@@ -7707,13 +7707,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H60" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J60" t="n">
         <v>1.05</v>
@@ -7728,10 +7728,10 @@
         <v>3.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O60" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P60" t="n">
         <v>1.4</v>
@@ -7752,49 +7752,49 @@
         <v>11</v>
       </c>
       <c r="V60" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W60" t="n">
         <v>21</v>
       </c>
       <c r="X60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA60" t="n">
         <v>6.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD60" t="n">
         <v>201</v>
       </c>
       <c r="AE60" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG60" t="n">
         <v>11</v>
       </c>
       <c r="AH60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI60" t="n">
         <v>23</v>
       </c>
       <c r="AJ60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -7829,13 +7829,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
@@ -7862,16 +7862,16 @@
         <v>3.25</v>
       </c>
       <c r="R61" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S61" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="T61" t="n">
         <v>12</v>
       </c>
       <c r="U61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V61" t="n">
         <v>11</v>
@@ -7883,7 +7883,7 @@
         <v>21</v>
       </c>
       <c r="Y61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z61" t="n">
         <v>15</v>
@@ -7972,10 +7972,10 @@
         <v>3.75</v>
       </c>
       <c r="N62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O62" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
         <v>1.36</v>
@@ -7984,13 +7984,13 @@
         <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="S62" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U62" t="n">
         <v>17</v>
@@ -8014,7 +8014,7 @@
         <v>6.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC62" t="n">
         <v>41</v>
@@ -8026,7 +8026,7 @@
         <v>9</v>
       </c>
       <c r="AF62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG62" t="n">
         <v>9</v>
@@ -8309,13 +8309,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H65" t="n">
         <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J65" t="n">
         <v>1.1</v>
@@ -8324,58 +8324,58 @@
         <v>6.2</v>
       </c>
       <c r="L65" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="M65" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="N65" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="P65" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="R65" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S65" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="T65" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="U65" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="V65" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W65" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X65" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y65" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Z65" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA65" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB65" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC65" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="AD65" t="n">
         <v>101</v>
@@ -8384,19 +8384,19 @@
         <v>9.25</v>
       </c>
       <c r="AF65" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG65" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AH65" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AI65" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ65" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -8564,16 +8564,16 @@
         <v>13</v>
       </c>
       <c r="L67" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M67" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N67" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="O67" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="P67" t="n">
         <v>1.33</v>
@@ -8680,10 +8680,10 @@
         <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L68" t="n">
         <v>1.3</v>
@@ -9159,13 +9159,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H72" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="I72" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -9173,76 +9173,76 @@
         <v>1.11</v>
       </c>
       <c r="M72" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="N72" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="O72" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="P72" t="n">
         <v>1.22</v>
       </c>
       <c r="Q72" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="R72" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S72" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="T72" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="U72" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="V72" t="n">
         <v>8.5</v>
       </c>
       <c r="W72" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="X72" t="n">
         <v>9.75</v>
       </c>
       <c r="Y72" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA72" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB72" t="n">
         <v>14.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD72" t="n">
         <v>200</v>
       </c>
       <c r="AE72" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AF72" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AG72" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH72" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AI72" t="n">
         <v>70</v>
       </c>
       <c r="AJ72" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73">
@@ -9277,21 +9277,21 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="H73" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I73" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M73" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N73" t="n">
         <v>1.7</v>
@@ -9306,61 +9306,61 @@
         <v>2.55</v>
       </c>
       <c r="R73" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S73" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T73" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U73" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V73" t="n">
         <v>9.25</v>
       </c>
       <c r="W73" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X73" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y73" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z73" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB73" t="n">
         <v>11.25</v>
       </c>
-      <c r="AA73" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>12</v>
-      </c>
       <c r="AC73" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD73" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE73" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF73" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG73" t="n">
         <v>9.75</v>
       </c>
       <c r="AH73" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ73" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -9395,19 +9395,19 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H74" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J74" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L74" t="n">
         <v>1.4</v>
@@ -9422,10 +9422,10 @@
         <v>1.57</v>
       </c>
       <c r="P74" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R74" t="n">
         <v>2</v>
@@ -9437,13 +9437,13 @@
         <v>6.5</v>
       </c>
       <c r="U74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W74" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X74" t="n">
         <v>21</v>
@@ -9452,7 +9452,7 @@
         <v>34</v>
       </c>
       <c r="Z74" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA74" t="n">
         <v>6</v>
@@ -9461,7 +9461,7 @@
         <v>17</v>
       </c>
       <c r="AC74" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD74" t="n">
         <v>401</v>
@@ -9470,16 +9470,16 @@
         <v>8.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI74" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ74" t="n">
         <v>41</v>
@@ -9517,13 +9517,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H75" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I75" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J75" t="n">
         <v>1.05</v>
@@ -9538,10 +9538,10 @@
         <v>3.5</v>
       </c>
       <c r="N75" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O75" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P75" t="n">
         <v>1.4</v>
@@ -9550,10 +9550,10 @@
         <v>2.75</v>
       </c>
       <c r="R75" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S75" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -9565,7 +9565,7 @@
         <v>8.5</v>
       </c>
       <c r="W75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X75" t="n">
         <v>13</v>
@@ -9577,7 +9577,7 @@
         <v>10</v>
       </c>
       <c r="AA75" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB75" t="n">
         <v>17</v>
@@ -9589,16 +9589,16 @@
         <v>301</v>
       </c>
       <c r="AE75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH75" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI75" t="n">
         <v>41</v>
@@ -9642,7 +9642,7 @@
         <v>4.1</v>
       </c>
       <c r="H76" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I76" t="n">
         <v>1.75</v>
@@ -9654,34 +9654,34 @@
         <v>13</v>
       </c>
       <c r="L76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M76" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N76" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O76" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="P76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q76" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R76" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T76" t="n">
         <v>13</v>
       </c>
       <c r="U76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V76" t="n">
         <v>13</v>
@@ -9696,7 +9696,7 @@
         <v>34</v>
       </c>
       <c r="Z76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA76" t="n">
         <v>7.5</v>
@@ -9761,43 +9761,43 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H77" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J77" t="n">
         <v>1.09</v>
       </c>
       <c r="K77" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="L77" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M77" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="N77" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="O77" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P77" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R77" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S77" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="T77" t="n">
         <v>8.5</v>
@@ -9818,37 +9818,37 @@
         <v>45</v>
       </c>
       <c r="Z77" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AA77" t="n">
         <v>6</v>
       </c>
       <c r="AB77" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC77" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD77" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE77" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AF77" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG77" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH77" t="n">
         <v>21</v>
       </c>
       <c r="AI77" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AJ77" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
@@ -9883,94 +9883,94 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H78" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I78" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="J78" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="K78" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="L78" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O78" t="n">
         <v>1.55</v>
       </c>
-      <c r="M78" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="N78" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.45</v>
-      </c>
       <c r="P78" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R78" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="S78" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="T78" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="U78" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="V78" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="W78" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X78" t="n">
         <v>80</v>
       </c>
       <c r="Y78" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z78" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AA78" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AB78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC78" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD78" t="n">
         <v>101</v>
       </c>
       <c r="AE78" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="AF78" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AG78" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH78" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ78" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
@@ -10005,94 +10005,94 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="H79" t="n">
         <v>2.77</v>
       </c>
       <c r="I79" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K79" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L79" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="M79" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="N79" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="O79" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P79" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R79" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S79" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T79" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="U79" t="n">
-        <v>11.5</v>
+        <v>9.75</v>
       </c>
       <c r="V79" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W79" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X79" t="n">
         <v>27</v>
       </c>
       <c r="Y79" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Z79" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AA79" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB79" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AC79" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AD79" t="n">
         <v>101</v>
       </c>
       <c r="AE79" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AF79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG79" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AH79" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="n">
         <v>37</v>
       </c>
-      <c r="AI79" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ79" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
@@ -10127,19 +10127,19 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="H80" t="n">
         <v>3.15</v>
       </c>
       <c r="I80" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="J80" t="n">
         <v>1.09</v>
       </c>
       <c r="K80" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L80" t="n">
         <v>1.42</v>
@@ -10148,7 +10148,7 @@
         <v>2.67</v>
       </c>
       <c r="N80" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O80" t="n">
         <v>1.6</v>
@@ -10160,61 +10160,61 @@
         <v>2.37</v>
       </c>
       <c r="R80" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S80" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T80" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="U80" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="V80" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="W80" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="X80" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y80" t="n">
         <v>50</v>
       </c>
-      <c r="Y80" t="n">
-        <v>65</v>
-      </c>
       <c r="Z80" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA80" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC80" t="n">
         <v>100</v>
       </c>
       <c r="AD80" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE80" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AF80" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AG80" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI80" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
@@ -10249,13 +10249,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="H81" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="I81" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="J81" t="n">
         <v>1.12</v>
@@ -10288,22 +10288,22 @@
         <v>1.72</v>
       </c>
       <c r="T81" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="U81" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="V81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W81" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X81" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y81" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z81" t="n">
         <v>5.4</v>
@@ -10321,19 +10321,19 @@
         <v>900</v>
       </c>
       <c r="AE81" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AF81" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG81" t="n">
         <v>10</v>
       </c>
-      <c r="AG81" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH81" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI81" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ81" t="n">
         <v>40</v>
@@ -10371,28 +10371,28 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I82" t="n">
-        <v>4.35</v>
+        <v>5.1</v>
       </c>
       <c r="J82" t="n">
         <v>1.11</v>
       </c>
       <c r="K82" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L82" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M82" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="N82" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O82" t="n">
         <v>1.5</v>
@@ -10410,28 +10410,28 @@
         <v>1.57</v>
       </c>
       <c r="T82" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="U82" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="V82" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W82" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="X82" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y82" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z82" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA82" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB82" t="n">
         <v>21</v>
@@ -10443,22 +10443,22 @@
         <v>101</v>
       </c>
       <c r="AE82" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="AF82" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AG82" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH82" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ82" t="n">
         <v>80</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="83">
@@ -10499,37 +10499,37 @@
         <v>3.1</v>
       </c>
       <c r="I83" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J83" t="n">
         <v>1.08</v>
       </c>
       <c r="K83" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L83" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M83" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="N83" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O83" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P83" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R83" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S83" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T83" t="n">
         <v>9.25</v>
@@ -10544,13 +10544,13 @@
         <v>45</v>
       </c>
       <c r="X83" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y83" t="n">
         <v>40</v>
       </c>
       <c r="Z83" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA83" t="n">
         <v>6.1</v>
@@ -10562,22 +10562,22 @@
         <v>75</v>
       </c>
       <c r="AD83" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE83" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF83" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG83" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH83" t="n">
         <v>20</v>
       </c>
       <c r="AI83" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ83" t="n">
         <v>32</v>
@@ -10615,91 +10615,91 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H84" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J84" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K84" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L84" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M84" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="N84" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O84" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P84" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="R84" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S84" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T84" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U84" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="V84" t="n">
         <v>8.25</v>
       </c>
       <c r="W84" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="X84" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y84" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z84" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA84" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AB84" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC84" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD84" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE84" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AF84" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG84" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH84" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ84" t="n">
         <v>60</v>
@@ -10737,19 +10737,19 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="H85" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I85" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J85" t="n">
         <v>1.11</v>
       </c>
       <c r="K85" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L85" t="n">
         <v>1.47</v>
@@ -10770,37 +10770,37 @@
         <v>2.25</v>
       </c>
       <c r="R85" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S85" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T85" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U85" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="V85" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W85" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X85" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y85" t="n">
         <v>37</v>
       </c>
       <c r="Z85" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA85" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC85" t="n">
         <v>90</v>
@@ -10809,19 +10809,19 @@
         <v>900</v>
       </c>
       <c r="AE85" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF85" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG85" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH85" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI85" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ85" t="n">
         <v>50</v>
@@ -10859,13 +10859,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
         <v>3.25</v>
       </c>
       <c r="I86" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="J86" t="n">
         <v>1.07</v>
@@ -10889,7 +10889,7 @@
         <v>1.42</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R86" t="n">
         <v>1.87</v>
@@ -10898,22 +10898,22 @@
         <v>1.85</v>
       </c>
       <c r="T86" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="U86" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="V86" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W86" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X86" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y86" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z86" t="n">
         <v>6.8</v>
@@ -10931,19 +10931,19 @@
         <v>700</v>
       </c>
       <c r="AE86" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH86" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI86" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ86" t="n">
         <v>35</v>
@@ -10999,7 +10999,7 @@
         <v>1.26</v>
       </c>
       <c r="M87" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N87" t="n">
         <v>1.75</v>
@@ -11008,7 +11008,7 @@
         <v>1.95</v>
       </c>
       <c r="P87" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q87" t="n">
         <v>2.8</v>
@@ -11020,16 +11020,16 @@
         <v>2</v>
       </c>
       <c r="T87" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U87" t="n">
         <v>8.5</v>
       </c>
       <c r="V87" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X87" t="n">
         <v>13</v>
@@ -11044,7 +11044,7 @@
         <v>7</v>
       </c>
       <c r="AB87" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC87" t="n">
         <v>60</v>
@@ -11053,7 +11053,7 @@
         <v>450</v>
       </c>
       <c r="AE87" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF87" t="n">
         <v>27</v>
@@ -11065,10 +11065,10 @@
         <v>80</v>
       </c>
       <c r="AI87" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ87" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -11103,13 +11103,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I88" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="J88" t="n">
         <v>1.09</v>
@@ -11121,10 +11121,10 @@
         <v>1.4</v>
       </c>
       <c r="M88" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="N88" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O88" t="n">
         <v>1.62</v>
@@ -11136,25 +11136,25 @@
         <v>2.37</v>
       </c>
       <c r="R88" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S88" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="T88" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="U88" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="V88" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W88" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X88" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y88" t="n">
         <v>32</v>
@@ -11163,34 +11163,34 @@
         <v>6.1</v>
       </c>
       <c r="AA88" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB88" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC88" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH88" t="n">
         <v>80</v>
       </c>
-      <c r="AD88" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH88" t="n">
+      <c r="AI88" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ88" t="n">
         <v>60</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="89">
@@ -11225,70 +11225,70 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H89" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I89" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J89" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K89" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L89" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M89" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="N89" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="O89" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P89" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R89" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S89" t="n">
         <v>1.57</v>
       </c>
       <c r="T89" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="U89" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="V89" t="n">
         <v>8.75</v>
       </c>
       <c r="W89" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="X89" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y89" t="n">
         <v>40</v>
       </c>
       <c r="Z89" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AA89" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AB89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC89" t="n">
         <v>150</v>
@@ -11297,22 +11297,22 @@
         <v>1000</v>
       </c>
       <c r="AE89" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF89" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG89" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AH89" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ89" t="n">
         <v>100</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="90">
@@ -12445,13 +12445,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H99" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -12462,66 +12462,66 @@
         <v>3.95</v>
       </c>
       <c r="N99" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O99" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="S99" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T99" t="n">
+        <v>14</v>
+      </c>
+      <c r="U99" t="n">
+        <v>28</v>
+      </c>
+      <c r="V99" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>80</v>
+      </c>
+      <c r="X99" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="n">
         <v>12.5</v>
       </c>
-      <c r="U99" t="n">
-        <v>25</v>
-      </c>
-      <c r="V99" t="n">
-        <v>13</v>
-      </c>
-      <c r="W99" t="n">
-        <v>65</v>
-      </c>
-      <c r="X99" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>12</v>
-      </c>
       <c r="AA99" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AB99" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC99" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD99" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE99" t="n">
         <v>6.3</v>
       </c>
       <c r="AF99" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AG99" t="n">
         <v>6.9</v>
       </c>
       <c r="AH99" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI99" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ99" t="n">
         <v>19</v>
@@ -12559,13 +12559,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H100" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="I100" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -12586,55 +12586,55 @@
         <v>1.62</v>
       </c>
       <c r="T100" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="U100" t="n">
+        <v>250</v>
+      </c>
+      <c r="V100" t="n">
+        <v>65</v>
+      </c>
+      <c r="W100" t="n">
+        <v>600</v>
+      </c>
+      <c r="X100" t="n">
+        <v>350</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>175</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC100" t="n">
         <v>120</v>
-      </c>
-      <c r="V100" t="n">
-        <v>45</v>
-      </c>
-      <c r="W100" t="n">
-        <v>500</v>
-      </c>
-      <c r="X100" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>110</v>
       </c>
       <c r="AD100" t="n">
         <v>101</v>
       </c>
       <c r="AE100" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF100" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG100" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH100" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AI100" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ100" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
@@ -12669,23 +12669,23 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I101" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="O101" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
@@ -12741,13 +12741,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8.25</v>
+        <v>18</v>
       </c>
       <c r="H102" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="I102" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -12766,61 +12766,61 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="n">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="S102" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="T102" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="U102" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="V102" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="W102" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="X102" t="n">
+        <v>250</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC102" t="n">
         <v>60</v>
       </c>
-      <c r="Y102" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>35</v>
-      </c>
       <c r="AD102" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AE102" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF102" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI102" t="n">
         <v>8.75</v>
       </c>
-      <c r="AG102" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AJ102" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
@@ -12986,22 +12986,22 @@
         <v>3.4</v>
       </c>
       <c r="J104" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L104" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O104" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P104" t="n">
         <v>1.36</v>
@@ -13010,10 +13010,10 @@
         <v>3</v>
       </c>
       <c r="R104" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S104" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T104" t="n">
         <v>9</v>
@@ -13025,7 +13025,7 @@
         <v>9</v>
       </c>
       <c r="W104" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X104" t="n">
         <v>17</v>
@@ -13040,7 +13040,7 @@
         <v>6.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC104" t="n">
         <v>41</v>
@@ -13061,7 +13061,7 @@
         <v>34</v>
       </c>
       <c r="AI104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ104" t="n">
         <v>29</v>
@@ -13099,13 +13099,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H105" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J105" t="n">
         <v>1.11</v>
@@ -13141,7 +13141,7 @@
         <v>7.5</v>
       </c>
       <c r="U105" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V105" t="n">
         <v>15</v>
@@ -13162,28 +13162,28 @@
         <v>6.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC105" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD105" t="n">
         <v>101</v>
       </c>
       <c r="AE105" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG105" t="n">
         <v>10</v>
       </c>
       <c r="AH105" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI105" t="n">
         <v>21</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>23</v>
       </c>
       <c r="AJ105" t="n">
         <v>41</v>
@@ -13221,19 +13221,19 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H106" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="J106" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K106" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L106" t="n">
         <v>1.5</v>
@@ -13248,40 +13248,40 @@
         <v>1.48</v>
       </c>
       <c r="P106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S106" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q106" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R106" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S106" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T106" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U106" t="n">
+        <v>19</v>
+      </c>
+      <c r="V106" t="n">
         <v>15</v>
-      </c>
-      <c r="V106" t="n">
-        <v>13</v>
       </c>
       <c r="W106" t="n">
         <v>41</v>
       </c>
       <c r="X106" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y106" t="n">
         <v>51</v>
       </c>
       <c r="Z106" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA106" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB106" t="n">
         <v>21</v>
@@ -13296,16 +13296,16 @@
         <v>5.5</v>
       </c>
       <c r="AF106" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG106" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH106" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI106" t="n">
         <v>21</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>23</v>
       </c>
       <c r="AJ106" t="n">
         <v>41</v>
@@ -13343,7 +13343,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>3.4</v>
@@ -13358,28 +13358,28 @@
         <v>9</v>
       </c>
       <c r="L107" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M107" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N107" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O107" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P107" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R107" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S107" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T107" t="n">
         <v>6</v>
@@ -13394,13 +13394,13 @@
         <v>13</v>
       </c>
       <c r="X107" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y107" t="n">
         <v>34</v>
       </c>
       <c r="Z107" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA107" t="n">
         <v>7</v>
@@ -13415,13 +13415,13 @@
         <v>1250</v>
       </c>
       <c r="AE107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF107" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG107" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH107" t="n">
         <v>51</v>
@@ -13590,40 +13590,40 @@
         <v>1.45</v>
       </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I109" t="n">
         <v>7</v>
       </c>
       <c r="J109" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K109" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L109" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M109" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N109" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O109" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P109" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q109" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R109" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S109" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T109" t="n">
         <v>8</v>
@@ -13641,10 +13641,10 @@
         <v>12</v>
       </c>
       <c r="Y109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA109" t="n">
         <v>8</v>
@@ -13656,10 +13656,10 @@
         <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF109" t="n">
         <v>41</v>
@@ -13674,7 +13674,7 @@
         <v>51</v>
       </c>
       <c r="AJ109" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110">
@@ -13709,10 +13709,10 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I110" t="n">
         <v>3.5</v>
@@ -13730,7 +13730,7 @@
         <v>3</v>
       </c>
       <c r="N110" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O110" t="n">
         <v>1.67</v>
@@ -13742,7 +13742,7 @@
         <v>2.63</v>
       </c>
       <c r="R110" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S110" t="n">
         <v>1.8</v>
@@ -13754,7 +13754,7 @@
         <v>9.5</v>
       </c>
       <c r="V110" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W110" t="n">
         <v>19</v>
@@ -13769,16 +13769,16 @@
         <v>8.5</v>
       </c>
       <c r="AA110" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC110" t="n">
         <v>51</v>
       </c>
       <c r="AD110" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE110" t="n">
         <v>9.5</v>
@@ -13831,46 +13831,46 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H111" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I111" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J111" t="n">
         <v>1.03</v>
       </c>
       <c r="K111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L111" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M111" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N111" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="O111" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="P111" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q111" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R111" t="n">
         <v>1.8</v>
       </c>
       <c r="S111" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T111" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U111" t="n">
         <v>7.5</v>
@@ -13879,7 +13879,7 @@
         <v>8.5</v>
       </c>
       <c r="W111" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X111" t="n">
         <v>11</v>
@@ -13891,34 +13891,34 @@
         <v>15</v>
       </c>
       <c r="AA111" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC111" t="n">
         <v>51</v>
       </c>
       <c r="AD111" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE111" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF111" t="n">
         <v>41</v>
       </c>
       <c r="AG111" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH111" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI111" t="n">
         <v>51</v>
       </c>
       <c r="AJ111" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112">
@@ -13953,46 +13953,46 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H112" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J112" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K112" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L112" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M112" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N112" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O112" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="P112" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R112" t="n">
         <v>1.8</v>
       </c>
       <c r="S112" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T112" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U112" t="n">
         <v>8</v>
@@ -14007,13 +14007,13 @@
         <v>15</v>
       </c>
       <c r="Y112" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z112" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB112" t="n">
         <v>15</v>
@@ -14025,10 +14025,10 @@
         <v>251</v>
       </c>
       <c r="AE112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF112" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG112" t="n">
         <v>17</v>
@@ -14084,13 +14084,13 @@
         <v>2.38</v>
       </c>
       <c r="J113" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K113" t="n">
         <v>9</v>
       </c>
       <c r="L113" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M113" t="n">
         <v>3.25</v>
@@ -14197,7 +14197,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H114" t="n">
         <v>3.6</v>
@@ -14206,10 +14206,10 @@
         <v>1.95</v>
       </c>
       <c r="J114" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L114" t="n">
         <v>1.2</v>
@@ -14218,10 +14218,10 @@
         <v>4.33</v>
       </c>
       <c r="N114" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O114" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P114" t="n">
         <v>1.33</v>
@@ -14230,7 +14230,7 @@
         <v>3.25</v>
       </c>
       <c r="R114" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S114" t="n">
         <v>2.2</v>
@@ -14269,10 +14269,10 @@
         <v>151</v>
       </c>
       <c r="AE114" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG114" t="n">
         <v>8.5</v>
@@ -14340,7 +14340,7 @@
         <v>4.5</v>
       </c>
       <c r="N115" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O115" t="n">
         <v>2.25</v>
@@ -14352,7 +14352,7 @@
         <v>3.4</v>
       </c>
       <c r="R115" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S115" t="n">
         <v>2.25</v>
@@ -14584,10 +14584,10 @@
         <v>3.75</v>
       </c>
       <c r="N117" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O117" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="P117" t="n">
         <v>1.36</v>
@@ -14596,10 +14596,10 @@
         <v>3</v>
       </c>
       <c r="R117" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S117" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T117" t="n">
         <v>15</v>
@@ -14685,43 +14685,43 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H118" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J118" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K118" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L118" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M118" t="n">
         <v>3.5</v>
       </c>
       <c r="N118" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O118" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P118" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q118" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R118" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S118" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -14739,10 +14739,10 @@
         <v>13</v>
       </c>
       <c r="Y118" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA118" t="n">
         <v>8</v>
@@ -14757,10 +14757,10 @@
         <v>301</v>
       </c>
       <c r="AE118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF118" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG118" t="n">
         <v>15</v>
@@ -14807,31 +14807,31 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H119" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I119" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J119" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L119" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M119" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N119" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O119" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P119" t="n">
         <v>1.4</v>
@@ -14846,13 +14846,13 @@
         <v>1.8</v>
       </c>
       <c r="T119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W119" t="n">
         <v>51</v>
@@ -14867,7 +14867,7 @@
         <v>10</v>
       </c>
       <c r="AA119" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB119" t="n">
         <v>17</v>
@@ -14879,7 +14879,7 @@
         <v>301</v>
       </c>
       <c r="AE119" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF119" t="n">
         <v>7.5</v>
@@ -14888,10 +14888,10 @@
         <v>8.5</v>
       </c>
       <c r="AH119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ119" t="n">
         <v>29</v>
@@ -14929,31 +14929,31 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H120" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I120" t="n">
         <v>2.55</v>
       </c>
       <c r="J120" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K120" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L120" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M120" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="N120" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O120" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P120" t="n">
         <v>1.53</v>
@@ -14986,7 +14986,7 @@
         <v>41</v>
       </c>
       <c r="Z120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA120" t="n">
         <v>6</v>
@@ -14995,16 +14995,16 @@
         <v>17</v>
       </c>
       <c r="AC120" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD120" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE120" t="n">
         <v>7</v>
       </c>
       <c r="AF120" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG120" t="n">
         <v>10</v>
@@ -15051,28 +15051,28 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H121" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I121" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J121" t="n">
         <v>1.01</v>
       </c>
       <c r="K121" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L121" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M121" t="n">
         <v>7</v>
       </c>
       <c r="N121" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O121" t="n">
         <v>3.1</v>
@@ -15084,10 +15084,10 @@
         <v>4.33</v>
       </c>
       <c r="R121" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S121" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T121" t="n">
         <v>10</v>
@@ -15105,10 +15105,10 @@
         <v>11</v>
       </c>
       <c r="Y121" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z121" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA121" t="n">
         <v>15</v>
@@ -15117,10 +15117,10 @@
         <v>29</v>
       </c>
       <c r="AC121" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD121" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE121" t="n">
         <v>41</v>
@@ -15132,10 +15132,10 @@
         <v>41</v>
       </c>
       <c r="AH121" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AI121" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ121" t="n">
         <v>81</v>
@@ -15188,34 +15188,34 @@
         <v>15</v>
       </c>
       <c r="L122" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M122" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N122" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O122" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P122" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q122" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R122" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S122" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T122" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U122" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V122" t="n">
         <v>8.5</v>
@@ -15230,19 +15230,19 @@
         <v>23</v>
       </c>
       <c r="Z122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA122" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC122" t="n">
         <v>51</v>
       </c>
       <c r="AD122" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE122" t="n">
         <v>21</v>
@@ -15251,7 +15251,7 @@
         <v>41</v>
       </c>
       <c r="AG122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH122" t="n">
         <v>81</v>
@@ -15260,7 +15260,7 @@
         <v>51</v>
       </c>
       <c r="AJ122" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123">
@@ -15298,43 +15298,43 @@
         <v>2.3</v>
       </c>
       <c r="H123" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I123" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J123" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M123" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N123" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O123" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="P123" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R123" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S123" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T123" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U123" t="n">
         <v>10</v>
@@ -15346,28 +15346,28 @@
         <v>21</v>
       </c>
       <c r="X123" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y123" t="n">
         <v>34</v>
       </c>
       <c r="Z123" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA123" t="n">
         <v>6</v>
       </c>
       <c r="AB123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC123" t="n">
         <v>51</v>
       </c>
       <c r="AD123" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE123" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF123" t="n">
         <v>15</v>
@@ -15539,13 +15539,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>3.2</v>
       </c>
       <c r="I125" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J125" t="n">
         <v>1.06</v>
@@ -15572,13 +15572,13 @@
         <v>2.63</v>
       </c>
       <c r="R125" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S125" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T125" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U125" t="n">
         <v>11</v>
@@ -15599,7 +15599,7 @@
         <v>9</v>
       </c>
       <c r="AA125" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB125" t="n">
         <v>15</v>
@@ -15608,7 +15608,7 @@
         <v>51</v>
       </c>
       <c r="AD125" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE125" t="n">
         <v>9</v>
@@ -15623,7 +15623,7 @@
         <v>29</v>
       </c>
       <c r="AI125" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ125" t="n">
         <v>34</v>
@@ -15661,13 +15661,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H126" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I126" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J126" t="n">
         <v>1.05</v>
@@ -15682,10 +15682,10 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O126" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P126" t="n">
         <v>1.4</v>
@@ -15694,31 +15694,31 @@
         <v>2.75</v>
       </c>
       <c r="R126" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S126" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T126" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U126" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V126" t="n">
         <v>8.5</v>
       </c>
       <c r="W126" t="n">
+        <v>12</v>
+      </c>
+      <c r="X126" t="n">
         <v>13</v>
       </c>
-      <c r="X126" t="n">
-        <v>15</v>
-      </c>
       <c r="Y126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA126" t="n">
         <v>7.5</v>
@@ -15730,10 +15730,10 @@
         <v>51</v>
       </c>
       <c r="AD126" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF126" t="n">
         <v>23</v>
@@ -15783,7 +15783,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H127" t="n">
         <v>3.3</v>
@@ -15792,10 +15792,10 @@
         <v>2.3</v>
       </c>
       <c r="J127" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K127" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L127" t="n">
         <v>1.25</v>
@@ -15804,7 +15804,7 @@
         <v>3.75</v>
       </c>
       <c r="N127" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O127" t="n">
         <v>2</v>
@@ -15822,7 +15822,7 @@
         <v>2.1</v>
       </c>
       <c r="T127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U127" t="n">
         <v>15</v>
@@ -15855,7 +15855,7 @@
         <v>151</v>
       </c>
       <c r="AE127" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF127" t="n">
         <v>12</v>
@@ -15908,43 +15908,43 @@
         <v>2.9</v>
       </c>
       <c r="H128" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J128" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L128" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M128" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="N128" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O128" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P128" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R128" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S128" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T128" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U128" t="n">
         <v>13</v>
@@ -15959,40 +15959,40 @@
         <v>26</v>
       </c>
       <c r="Y128" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA128" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB128" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC128" t="n">
         <v>51</v>
       </c>
       <c r="AD128" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE128" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF128" t="n">
         <v>12</v>
       </c>
       <c r="AG128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH128" t="n">
         <v>26</v>
       </c>
       <c r="AI128" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ128" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
@@ -16149,13 +16149,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="H130" t="n">
         <v>3.75</v>
       </c>
       <c r="I130" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
@@ -16182,10 +16182,10 @@
         <v>3.4</v>
       </c>
       <c r="R130" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S130" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T130" t="n">
         <v>12</v>
@@ -16194,16 +16194,16 @@
         <v>15</v>
       </c>
       <c r="V130" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W130" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y130" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z130" t="n">
         <v>17</v>
@@ -16224,19 +16224,19 @@
         <v>12</v>
       </c>
       <c r="AF130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG130" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH130" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ130" t="n">
         <v>23</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="131">
@@ -16271,13 +16271,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H131" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I131" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J131" t="n">
         <v>1.03</v>
@@ -16298,10 +16298,10 @@
         <v>2.3</v>
       </c>
       <c r="P131" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q131" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R131" t="n">
         <v>1.75</v>
@@ -16319,13 +16319,13 @@
         <v>8.5</v>
       </c>
       <c r="W131" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X131" t="n">
         <v>11</v>
       </c>
       <c r="Y131" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z131" t="n">
         <v>15</v>
@@ -16343,13 +16343,13 @@
         <v>201</v>
       </c>
       <c r="AE131" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF131" t="n">
         <v>34</v>
       </c>
       <c r="AG131" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH131" t="n">
         <v>67</v>
@@ -16393,13 +16393,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="H132" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I132" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="J132" t="n">
         <v>1.06</v>
@@ -16426,61 +16426,61 @@
         <v>2.7</v>
       </c>
       <c r="R132" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S132" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="T132" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="U132" t="n">
-        <v>8.75</v>
+        <v>7.4</v>
       </c>
       <c r="V132" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W132" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="X132" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y132" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z132" t="n">
         <v>7.4</v>
       </c>
       <c r="AA132" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AB132" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AC132" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD132" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE132" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AF132" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AG132" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AH132" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AI132" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ132" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133">
@@ -16515,19 +16515,19 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I133" t="n">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="J133" t="n">
         <v>1.07</v>
       </c>
       <c r="K133" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L133" t="n">
         <v>1.34</v>
@@ -16542,67 +16542,67 @@
         <v>1.72</v>
       </c>
       <c r="P133" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q133" t="n">
         <v>2.57</v>
       </c>
       <c r="R133" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S133" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T133" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="U133" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="V133" t="n">
         <v>8.25</v>
       </c>
       <c r="W133" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="X133" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y133" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z133" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA133" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AB133" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG133" t="n">
         <v>17</v>
       </c>
-      <c r="AC133" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF133" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG133" t="n">
-        <v>15</v>
-      </c>
       <c r="AH133" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI133" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AJ133" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134">
@@ -16640,10 +16640,10 @@
         <v>1.7</v>
       </c>
       <c r="H134" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I134" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="J134" t="n">
         <v>1.04</v>
@@ -16685,7 +16685,7 @@
         <v>8</v>
       </c>
       <c r="W134" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X134" t="n">
         <v>12.5</v>
@@ -16792,7 +16792,7 @@
         <v>2.92</v>
       </c>
       <c r="R135" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S135" t="n">
         <v>1.6</v>
@@ -16881,10 +16881,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H136" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I136" t="n">
         <v>3.05</v>
@@ -16893,7 +16893,7 @@
         <v>1.1</v>
       </c>
       <c r="K136" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L136" t="n">
         <v>1.42</v>
@@ -16914,19 +16914,19 @@
         <v>2.57</v>
       </c>
       <c r="R136" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S136" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T136" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U136" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V136" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W136" t="n">
         <v>32</v>
@@ -16938,16 +16938,16 @@
         <v>37</v>
       </c>
       <c r="Z136" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA136" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB136" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC136" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD136" t="n">
         <v>800</v>
@@ -17134,22 +17134,22 @@
         <v>5</v>
       </c>
       <c r="J138" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K138" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="L138" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M138" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N138" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O138" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P138" t="n">
         <v>1.4</v>
@@ -17158,16 +17158,16 @@
         <v>2.75</v>
       </c>
       <c r="R138" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S138" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T138" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="U138" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="V138" t="n">
         <v>8.25</v>
@@ -17182,25 +17182,25 @@
         <v>28</v>
       </c>
       <c r="Z138" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA138" t="n">
         <v>7.6</v>
       </c>
       <c r="AB138" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC138" t="n">
         <v>90</v>
       </c>
       <c r="AD138" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE138" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF138" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG138" t="n">
         <v>16.5</v>
@@ -17247,13 +17247,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H139" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I139" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J139" t="n">
         <v>1.03</v>
@@ -17265,7 +17265,7 @@
         <v>1.19</v>
       </c>
       <c r="M139" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="N139" t="n">
         <v>1.57</v>
@@ -17274,28 +17274,28 @@
         <v>2.25</v>
       </c>
       <c r="P139" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Q139" t="n">
         <v>3.2</v>
       </c>
       <c r="R139" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S139" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T139" t="n">
         <v>8.25</v>
       </c>
       <c r="U139" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="V139" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W139" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="X139" t="n">
         <v>11</v>
@@ -17313,25 +17313,25 @@
         <v>16</v>
       </c>
       <c r="AC139" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD139" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE139" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF139" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG139" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH139" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI139" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ139" t="n">
         <v>50</v>
@@ -17369,19 +17369,19 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H140" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J140" t="n">
         <v>1.06</v>
       </c>
       <c r="K140" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L140" t="n">
         <v>1.3</v>
@@ -17393,25 +17393,25 @@
         <v>1.9</v>
       </c>
       <c r="O140" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P140" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="R140" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S140" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T140" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="U140" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="V140" t="n">
         <v>12</v>
@@ -17426,22 +17426,22 @@
         <v>37</v>
       </c>
       <c r="Z140" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA140" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB140" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC140" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD140" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE140" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF140" t="n">
         <v>9.75</v>
@@ -17450,10 +17450,10 @@
         <v>8.5</v>
       </c>
       <c r="AH140" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI140" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ140" t="n">
         <v>26</v>
@@ -18223,31 +18223,31 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="H147" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I147" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="J147" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K147" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L147" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M147" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N147" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="O147" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="P147" t="n">
         <v>1.4</v>
@@ -18256,34 +18256,34 @@
         <v>2.75</v>
       </c>
       <c r="R147" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S147" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T147" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U147" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W147" t="n">
+        <v>29</v>
+      </c>
+      <c r="X147" t="n">
         <v>23</v>
       </c>
-      <c r="X147" t="n">
-        <v>21</v>
-      </c>
       <c r="Y147" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z147" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA147" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB147" t="n">
         <v>13</v>
@@ -18295,16 +18295,16 @@
         <v>201</v>
       </c>
       <c r="AE147" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG147" t="n">
         <v>10</v>
       </c>
       <c r="AH147" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI147" t="n">
         <v>21</v>
@@ -18348,82 +18348,82 @@
         <v>2.2</v>
       </c>
       <c r="H148" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I148" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J148" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K148" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L148" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M148" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N148" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="O148" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P148" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q148" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R148" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S148" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="T148" t="n">
+        <v>12</v>
+      </c>
+      <c r="U148" t="n">
         <v>13</v>
-      </c>
-      <c r="U148" t="n">
-        <v>15</v>
       </c>
       <c r="V148" t="n">
         <v>9.5</v>
       </c>
       <c r="W148" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X148" t="n">
         <v>15</v>
       </c>
       <c r="Y148" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z148" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA148" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB148" t="n">
         <v>11</v>
       </c>
       <c r="AC148" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD148" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE148" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF148" t="n">
         <v>19</v>
       </c>
       <c r="AG148" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH148" t="n">
         <v>34</v>
@@ -18432,7 +18432,7 @@
         <v>21</v>
       </c>
       <c r="AJ148" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
@@ -18470,7 +18470,7 @@
         <v>2.2</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I149" t="n">
         <v>3.6</v>
@@ -18503,16 +18503,16 @@
         <v>2</v>
       </c>
       <c r="S149" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T149" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U149" t="n">
         <v>9.5</v>
       </c>
       <c r="V149" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W149" t="n">
         <v>21</v>
@@ -18521,10 +18521,10 @@
         <v>21</v>
       </c>
       <c r="Y149" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z149" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA149" t="n">
         <v>6</v>
@@ -18533,13 +18533,13 @@
         <v>17</v>
       </c>
       <c r="AC149" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD149" t="n">
         <v>301</v>
       </c>
       <c r="AE149" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF149" t="n">
         <v>17</v>
@@ -18589,10 +18589,10 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H150" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I150" t="n">
         <v>5</v>
@@ -18625,7 +18625,7 @@
         <v>2.1</v>
       </c>
       <c r="S150" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T150" t="n">
         <v>6</v>
@@ -18637,7 +18637,7 @@
         <v>9</v>
       </c>
       <c r="W150" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X150" t="n">
         <v>17</v>
@@ -18649,10 +18649,10 @@
         <v>7</v>
       </c>
       <c r="AA150" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC150" t="n">
         <v>67</v>
@@ -18714,16 +18714,16 @@
         <v>1.2</v>
       </c>
       <c r="H151" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I151" t="n">
         <v>10</v>
       </c>
       <c r="J151" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K151" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L151" t="n">
         <v>1.18</v>
@@ -18744,7 +18744,7 @@
         <v>3.5</v>
       </c>
       <c r="R151" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="S151" t="n">
         <v>1.5</v>
@@ -18759,7 +18759,7 @@
         <v>10</v>
       </c>
       <c r="W151" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X151" t="n">
         <v>12</v>
@@ -18777,7 +18777,7 @@
         <v>34</v>
       </c>
       <c r="AC151" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD151" t="n">
         <v>101</v>
@@ -18789,7 +18789,7 @@
         <v>51</v>
       </c>
       <c r="AG151" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH151" t="n">
         <v>151</v>
@@ -18970,10 +18970,10 @@
         <v>6.5</v>
       </c>
       <c r="L153" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M153" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N153" t="n">
         <v>2.5</v>
@@ -18982,7 +18982,7 @@
         <v>1.5</v>
       </c>
       <c r="P153" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q153" t="n">
         <v>2.25</v>
@@ -19104,7 +19104,7 @@
         <v>1.8</v>
       </c>
       <c r="P154" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q154" t="n">
         <v>2.75</v>
@@ -19226,10 +19226,10 @@
         <v>1.83</v>
       </c>
       <c r="P155" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R155" t="n">
         <v>1.8</v>
@@ -19321,19 +19321,19 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H156" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I156" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J156" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K156" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L156" t="n">
         <v>1.5</v>
@@ -19348,7 +19348,7 @@
         <v>1.5</v>
       </c>
       <c r="P156" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q156" t="n">
         <v>2.25</v>
@@ -19360,16 +19360,16 @@
         <v>1.62</v>
       </c>
       <c r="T156" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U156" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V156" t="n">
         <v>10</v>
       </c>
       <c r="W156" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X156" t="n">
         <v>21</v>
@@ -19381,13 +19381,13 @@
         <v>6.5</v>
       </c>
       <c r="AA156" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB156" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC156" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD156" t="n">
         <v>900</v>
@@ -19396,7 +19396,7 @@
         <v>8.5</v>
       </c>
       <c r="AF156" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG156" t="n">
         <v>15</v>
@@ -19405,10 +19405,10 @@
         <v>41</v>
       </c>
       <c r="AI156" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ156" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157">
@@ -20053,13 +20053,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H162" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I162" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J162" t="n">
         <v>1.06</v>
@@ -20074,10 +20074,10 @@
         <v>3.4</v>
       </c>
       <c r="N162" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O162" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P162" t="n">
         <v>1.44</v>
@@ -20095,10 +20095,10 @@
         <v>7.5</v>
       </c>
       <c r="U162" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V162" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W162" t="n">
         <v>21</v>
@@ -20125,13 +20125,13 @@
         <v>251</v>
       </c>
       <c r="AE162" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF162" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG162" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH162" t="n">
         <v>34</v>
@@ -20175,19 +20175,19 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I163" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J163" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K163" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L163" t="n">
         <v>1.33</v>
@@ -20208,10 +20208,10 @@
         <v>2.63</v>
       </c>
       <c r="R163" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S163" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T163" t="n">
         <v>8.5</v>
@@ -20220,10 +20220,10 @@
         <v>13</v>
       </c>
       <c r="V163" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W163" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X163" t="n">
         <v>23</v>
@@ -20244,7 +20244,7 @@
         <v>51</v>
       </c>
       <c r="AD163" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE163" t="n">
         <v>8</v>
@@ -20256,13 +20256,13 @@
         <v>10</v>
       </c>
       <c r="AH163" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI163" t="n">
         <v>21</v>
       </c>
       <c r="AJ163" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164">
@@ -20297,19 +20297,19 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H164" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I164" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J164" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K164" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L164" t="n">
         <v>1.33</v>
@@ -20339,7 +20339,7 @@
         <v>6.5</v>
       </c>
       <c r="U164" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V164" t="n">
         <v>8.5</v>
@@ -20354,10 +20354,10 @@
         <v>29</v>
       </c>
       <c r="Z164" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA164" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB164" t="n">
         <v>17</v>
@@ -20378,10 +20378,10 @@
         <v>15</v>
       </c>
       <c r="AH164" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI164" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ164" t="n">
         <v>41</v>
@@ -20431,7 +20431,7 @@
         <v>1.04</v>
       </c>
       <c r="K165" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L165" t="n">
         <v>1.25</v>
@@ -20440,10 +20440,10 @@
         <v>3.75</v>
       </c>
       <c r="N165" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O165" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="P165" t="n">
         <v>1.36</v>
@@ -20541,13 +20541,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H166" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I166" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J166" t="n">
         <v>1.03</v>
@@ -20568,10 +20568,10 @@
         <v>2.2</v>
       </c>
       <c r="P166" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q166" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R166" t="n">
         <v>1.57</v>
@@ -20586,10 +20586,10 @@
         <v>11</v>
       </c>
       <c r="V166" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W166" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X166" t="n">
         <v>15</v>
@@ -20604,13 +20604,13 @@
         <v>7</v>
       </c>
       <c r="AB166" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC166" t="n">
         <v>41</v>
       </c>
       <c r="AD166" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE166" t="n">
         <v>13</v>
@@ -20619,7 +20619,7 @@
         <v>21</v>
       </c>
       <c r="AG166" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH166" t="n">
         <v>41</v>
@@ -20669,7 +20669,7 @@
         <v>3.4</v>
       </c>
       <c r="I167" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J167" t="n">
         <v>1.04</v>
@@ -20678,16 +20678,16 @@
         <v>13</v>
       </c>
       <c r="L167" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M167" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N167" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O167" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P167" t="n">
         <v>1.33</v>
@@ -20785,13 +20785,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H168" t="n">
         <v>3.4</v>
       </c>
       <c r="I168" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J168" t="n">
         <v>1.04</v>
@@ -20806,10 +20806,10 @@
         <v>3.75</v>
       </c>
       <c r="N168" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O168" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P168" t="n">
         <v>1.36</v>
@@ -20848,7 +20848,7 @@
         <v>6.5</v>
       </c>
       <c r="AB168" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC168" t="n">
         <v>41</v>
@@ -20860,7 +20860,7 @@
         <v>9.5</v>
       </c>
       <c r="AF168" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG168" t="n">
         <v>9.5</v>
@@ -20907,13 +20907,13 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H169" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I169" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J169" t="n">
         <v>1.06</v>
@@ -20937,40 +20937,40 @@
         <v>1.42</v>
       </c>
       <c r="Q169" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R169" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S169" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T169" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U169" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V169" t="n">
         <v>9.5</v>
       </c>
       <c r="W169" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X169" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y169" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z169" t="n">
         <v>7.2</v>
       </c>
       <c r="AA169" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB169" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC169" t="n">
         <v>55</v>
@@ -20979,22 +20979,22 @@
         <v>400</v>
       </c>
       <c r="AE169" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF169" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG169" t="n">
         <v>9.75</v>
       </c>
       <c r="AH169" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI169" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ169" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
@@ -21029,13 +21029,13 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="H170" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I170" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="J170" t="n">
         <v>1.04</v>
@@ -21047,67 +21047,67 @@
         <v>1.2</v>
       </c>
       <c r="M170" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="N170" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O170" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="P170" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q170" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R170" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S170" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T170" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="U170" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="V170" t="n">
         <v>9.25</v>
       </c>
       <c r="W170" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X170" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y170" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z170" t="n">
         <v>8.5</v>
       </c>
       <c r="AA170" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AB170" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC170" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD170" t="n">
         <v>200</v>
       </c>
       <c r="AE170" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AF170" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AG170" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH170" t="n">
         <v>32</v>
@@ -21151,37 +21151,37 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I171" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="J171" t="n">
         <v>1.03</v>
       </c>
       <c r="K171" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="L171" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M171" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="N171" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O171" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="P171" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="Q171" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R171" t="n">
         <v>1.52</v>
@@ -21190,31 +21190,31 @@
         <v>2.37</v>
       </c>
       <c r="T171" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="U171" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="V171" t="n">
         <v>8.25</v>
       </c>
       <c r="W171" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X171" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y171" t="n">
         <v>17.5</v>
       </c>
       <c r="Z171" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA171" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB171" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC171" t="n">
         <v>40</v>
@@ -21223,16 +21223,16 @@
         <v>200</v>
       </c>
       <c r="AE171" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF171" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AG171" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH171" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI171" t="n">
         <v>37</v>
@@ -21273,13 +21273,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="H172" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I172" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J172" t="n">
         <v>1.02</v>
@@ -21306,10 +21306,10 @@
         <v>4</v>
       </c>
       <c r="R172" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S172" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T172" t="n">
         <v>12</v>
@@ -21321,10 +21321,10 @@
         <v>9</v>
       </c>
       <c r="W172" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X172" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y172" t="n">
         <v>17</v>
@@ -21348,16 +21348,16 @@
         <v>21</v>
       </c>
       <c r="AF172" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG172" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH172" t="n">
         <v>51</v>
       </c>
       <c r="AI172" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ172" t="n">
         <v>29</v>
@@ -21395,37 +21395,37 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I173" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J173" t="n">
         <v>1.03</v>
       </c>
       <c r="K173" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L173" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M173" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N173" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O173" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P173" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q173" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R173" t="n">
         <v>1.5</v>
@@ -21437,13 +21437,13 @@
         <v>11</v>
       </c>
       <c r="U173" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V173" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W173" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X173" t="n">
         <v>15</v>
@@ -21452,10 +21452,10 @@
         <v>21</v>
       </c>
       <c r="Z173" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA173" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB173" t="n">
         <v>11</v>
@@ -21467,22 +21467,22 @@
         <v>101</v>
       </c>
       <c r="AE173" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF173" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG173" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH173" t="n">
         <v>34</v>
       </c>
       <c r="AI173" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ173" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ173" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="174">
@@ -21517,13 +21517,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H174" t="n">
         <v>4.5</v>
       </c>
       <c r="I174" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J174" t="n">
         <v>1.02</v>
@@ -21550,7 +21550,7 @@
         <v>3.75</v>
       </c>
       <c r="R174" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S174" t="n">
         <v>2.2</v>
@@ -21562,10 +21562,10 @@
         <v>34</v>
       </c>
       <c r="V174" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W174" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X174" t="n">
         <v>41</v>
@@ -21574,7 +21574,7 @@
         <v>41</v>
       </c>
       <c r="Z174" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA174" t="n">
         <v>9</v>
@@ -21586,19 +21586,19 @@
         <v>41</v>
       </c>
       <c r="AD174" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE174" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF174" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG174" t="n">
         <v>8.5</v>
       </c>
       <c r="AH174" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI174" t="n">
         <v>11</v>
@@ -21639,13 +21639,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H175" t="n">
         <v>3.4</v>
       </c>
       <c r="I175" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J175" t="n">
         <v>1.04</v>
@@ -21654,16 +21654,16 @@
         <v>13</v>
       </c>
       <c r="L175" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M175" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N175" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O175" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P175" t="n">
         <v>1.33</v>
@@ -21672,7 +21672,7 @@
         <v>3.25</v>
       </c>
       <c r="R175" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S175" t="n">
         <v>2.2</v>
@@ -21693,13 +21693,13 @@
         <v>15</v>
       </c>
       <c r="Y175" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA175" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB175" t="n">
         <v>12</v>
@@ -21711,7 +21711,7 @@
         <v>151</v>
       </c>
       <c r="AE175" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF175" t="n">
         <v>21</v>
@@ -21883,19 +21883,19 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="H177" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="I177" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="J177" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="K177" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="L177" t="n">
         <v>1.65</v>
@@ -21904,7 +21904,7 @@
         <v>1.98</v>
       </c>
       <c r="N177" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="O177" t="n">
         <v>1.31</v>
@@ -21916,40 +21916,40 @@
         <v>1.98</v>
       </c>
       <c r="R177" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="S177" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T177" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="U177" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V177" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W177" t="n">
+        <v>70</v>
+      </c>
+      <c r="X177" t="n">
         <v>55</v>
       </c>
-      <c r="X177" t="n">
-        <v>45</v>
-      </c>
       <c r="Y177" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z177" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AA177" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AB177" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC177" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD177" t="n">
         <v>101</v>
@@ -21961,16 +21961,16 @@
         <v>9.75</v>
       </c>
       <c r="AG177" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH177" t="n">
         <v>27</v>
       </c>
       <c r="AI177" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ177" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178">
@@ -22005,24 +22005,24 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="H178" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I178" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M178" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="N178" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O178" t="n">
         <v>1.75</v>
@@ -22040,31 +22040,31 @@
         <v>1.93</v>
       </c>
       <c r="T178" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="U178" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="V178" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W178" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X178" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y178" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z178" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA178" t="n">
         <v>6.2</v>
       </c>
       <c r="AB178" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC178" t="n">
         <v>60</v>
@@ -22073,22 +22073,22 @@
         <v>450</v>
       </c>
       <c r="AE178" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AF178" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AG178" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH178" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI178" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ178" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="179">
@@ -22123,19 +22123,19 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="H179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I179" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>2.63</v>
       </c>
       <c r="J179" t="n">
         <v>1.08</v>
       </c>
       <c r="K179" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L179" t="n">
         <v>1.44</v>
@@ -22147,7 +22147,7 @@
         <v>2.35</v>
       </c>
       <c r="O179" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P179" t="n">
         <v>1.53</v>
@@ -22162,22 +22162,22 @@
         <v>1.73</v>
       </c>
       <c r="T179" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U179" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V179" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W179" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X179" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y179" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z179" t="n">
         <v>7.5</v>
@@ -22195,19 +22195,19 @@
         <v>1000</v>
       </c>
       <c r="AE179" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF179" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG179" t="n">
         <v>12</v>
       </c>
-      <c r="AG179" t="n">
-        <v>11</v>
-      </c>
       <c r="AH179" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI179" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ179" t="n">
         <v>41</v>
@@ -22254,22 +22254,22 @@
         <v>5.75</v>
       </c>
       <c r="J180" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K180" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L180" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M180" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N180" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O180" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P180" t="n">
         <v>1.44</v>
@@ -22388,10 +22388,10 @@
         <v>3.5</v>
       </c>
       <c r="N181" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O181" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P181" t="n">
         <v>1.4</v>
@@ -22489,13 +22489,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H182" t="n">
         <v>3.75</v>
       </c>
       <c r="I182" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J182" t="n">
         <v>1.03</v>
@@ -22510,7 +22510,7 @@
         <v>4.5</v>
       </c>
       <c r="N182" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O182" t="n">
         <v>2.25</v>
@@ -22611,19 +22611,19 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H183" t="n">
         <v>3.7</v>
       </c>
       <c r="I183" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J183" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K183" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L183" t="n">
         <v>1.14</v>
@@ -22632,16 +22632,16 @@
         <v>5.5</v>
       </c>
       <c r="N183" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O183" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P183" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q183" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R183" t="n">
         <v>1.44</v>
@@ -22650,10 +22650,10 @@
         <v>2.63</v>
       </c>
       <c r="T183" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U183" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V183" t="n">
         <v>12</v>
@@ -22668,7 +22668,7 @@
         <v>23</v>
       </c>
       <c r="Z183" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA183" t="n">
         <v>7.5</v>
@@ -22677,10 +22677,10 @@
         <v>11</v>
       </c>
       <c r="AC183" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD183" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE183" t="n">
         <v>12</v>
@@ -22733,13 +22733,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="H184" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I184" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J184" t="n">
         <v>1.05</v>
@@ -22754,10 +22754,10 @@
         <v>3.75</v>
       </c>
       <c r="N184" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O184" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P184" t="n">
         <v>1.4</v>
@@ -22772,22 +22772,22 @@
         <v>2.1</v>
       </c>
       <c r="T184" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U184" t="n">
+        <v>13</v>
+      </c>
+      <c r="V184" t="n">
         <v>10</v>
       </c>
-      <c r="U184" t="n">
-        <v>15</v>
-      </c>
-      <c r="V184" t="n">
-        <v>11</v>
-      </c>
       <c r="W184" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X184" t="n">
         <v>21</v>
       </c>
       <c r="Y184" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z184" t="n">
         <v>11</v>
@@ -22805,22 +22805,22 @@
         <v>151</v>
       </c>
       <c r="AE184" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF184" t="n">
         <v>13</v>
       </c>
       <c r="AG184" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH184" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI184" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ184" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185">
@@ -23095,13 +23095,13 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="H187" t="n">
         <v>2.8</v>
       </c>
       <c r="I187" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="J187" t="n">
         <v>1.11</v>
@@ -23113,10 +23113,10 @@
         <v>1.47</v>
       </c>
       <c r="M187" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N187" t="n">
         <v>2.35</v>
-      </c>
-      <c r="N187" t="n">
-        <v>2.32</v>
       </c>
       <c r="O187" t="n">
         <v>1.47</v>
@@ -23134,16 +23134,16 @@
         <v>1.7</v>
       </c>
       <c r="T187" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="U187" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="V187" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W187" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X187" t="n">
         <v>26</v>
@@ -23155,7 +23155,7 @@
         <v>6.4</v>
       </c>
       <c r="AA187" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB187" t="n">
         <v>16</v>
@@ -23167,16 +23167,16 @@
         <v>800</v>
       </c>
       <c r="AE187" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AF187" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG187" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH187" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI187" t="n">
         <v>30</v>
@@ -23339,13 +23339,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H189" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I189" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J189" t="n">
         <v>1.04</v>
@@ -23384,13 +23384,13 @@
         <v>9.25</v>
       </c>
       <c r="V189" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W189" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="X189" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y189" t="n">
         <v>22</v>
@@ -23402,7 +23402,7 @@
         <v>7.2</v>
       </c>
       <c r="AB189" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC189" t="n">
         <v>50</v>
@@ -23411,22 +23411,22 @@
         <v>350</v>
       </c>
       <c r="AE189" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG189" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF189" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG189" t="n">
-        <v>13</v>
-      </c>
       <c r="AH189" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI189" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ189" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190">
@@ -23461,31 +23461,31 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H190" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I190" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="J190" t="n">
         <v>1.05</v>
       </c>
       <c r="K190" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L190" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M190" t="n">
         <v>3.6</v>
       </c>
       <c r="N190" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O190" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P190" t="n">
         <v>1.36</v>
@@ -23497,58 +23497,58 @@
         <v>1.65</v>
       </c>
       <c r="S190" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T190" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="U190" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="V190" t="n">
         <v>8.25</v>
       </c>
       <c r="W190" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="X190" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y190" t="n">
         <v>23</v>
       </c>
       <c r="Z190" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA190" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB190" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC190" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD190" t="n">
         <v>350</v>
       </c>
       <c r="AE190" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF190" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG190" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH190" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI190" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ190" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H2" t="n">
         <v>7.5</v>
@@ -656,16 +656,16 @@
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
         <v>1.44</v>
@@ -769,22 +769,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
         <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -796,10 +796,10 @@
         <v>2.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R3" t="n">
         <v>1.95</v>
@@ -826,10 +826,10 @@
         <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
@@ -838,7 +838,7 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE3" t="n">
         <v>29</v>
@@ -853,7 +853,7 @@
         <v>151</v>
       </c>
       <c r="AI3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -924,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -939,19 +939,19 @@
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB4" t="n">
         <v>15</v>
@@ -963,19 +963,19 @@
         <v>201</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
         <v>5</v>
@@ -1028,34 +1028,34 @@
         <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V5" t="n">
         <v>9</v>
@@ -1067,13 +1067,13 @@
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1082,13 +1082,13 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1174,16 +1174,16 @@
         <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V6" t="n">
         <v>12</v>
       </c>
       <c r="W6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
@@ -1195,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB6" t="n">
         <v>12</v>
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>9</v>
@@ -1263,7 +1263,7 @@
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>1.06</v>
@@ -1272,16 +1272,16 @@
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="O7" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1296,7 +1296,7 @@
         <v>1.95</v>
       </c>
       <c r="T7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
         <v>9</v>
@@ -1314,7 +1314,7 @@
         <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6.5</v>
@@ -1329,13 +1329,13 @@
         <v>251</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -1379,37 +1379,37 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M8" t="n">
         <v>3.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.4</v>
-      </c>
       <c r="N8" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="O8" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R8" t="n">
         <v>1.8</v>
@@ -1418,13 +1418,13 @@
         <v>1.95</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
         <v>41</v>
@@ -1436,10 +1436,10 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
@@ -1454,19 +1454,19 @@
         <v>7.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1516,10 +1516,10 @@
         <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
         <v>1.62</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
@@ -1754,22 +1754,22 @@
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="O11" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
         <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -2010,16 +2010,16 @@
         <v>3.4</v>
       </c>
       <c r="N13" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R13" t="n">
         <v>1.95</v>
@@ -2061,10 +2061,10 @@
         <v>351</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
         <v>15</v>
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2150,10 +2150,10 @@
         <v>1.95</v>
       </c>
       <c r="T14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V14" t="n">
         <v>11</v>
@@ -2162,7 +2162,7 @@
         <v>29</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
         <v>34</v>
@@ -2186,19 +2186,19 @@
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -2355,49 +2355,49 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T16" t="n">
         <v>13</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>15</v>
-      </c>
       <c r="U16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V16" t="n">
         <v>15</v>
@@ -2412,10 +2412,10 @@
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2424,13 +2424,13 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF16" t="n">
         <v>8</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG16" t="n">
         <v>8.5</v>
@@ -2442,7 +2442,7 @@
         <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -2480,46 +2480,46 @@
         <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
         <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
@@ -2528,16 +2528,16 @@
         <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2552,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
@@ -2724,10 +2724,10 @@
         <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
         <v>1.14</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
         <v>1.62</v>
@@ -2882,16 +2882,16 @@
         <v>1.53</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V20" t="n">
         <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -2915,7 +2915,7 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="n">
         <v>17</v>
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
         <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -2986,10 +2986,10 @@
         <v>2.63</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -3016,7 +3016,7 @@
         <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3049,7 +3049,7 @@
         <v>101</v>
       </c>
       <c r="AI21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="n">
         <v>81</v>
@@ -3087,49 +3087,49 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N22" t="n">
         <v>2.05</v>
       </c>
       <c r="O22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.75</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V22" t="n">
         <v>8.5</v>
@@ -3138,28 +3138,28 @@
         <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA22" t="n">
         <v>7.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
         <v>67</v>
       </c>
       <c r="AD22" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
         <v>29</v>
@@ -3171,7 +3171,7 @@
         <v>67</v>
       </c>
       <c r="AI22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="n">
         <v>51</v>
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="J23" t="n">
         <v>1.13</v>
@@ -3269,7 +3269,7 @@
         <v>6</v>
       </c>
       <c r="AA23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
@@ -3290,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
@@ -3331,37 +3331,37 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K24" t="n">
         <v>5.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M24" t="n">
         <v>2.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>2.63</v>
@@ -3379,7 +3379,7 @@
         <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X24" t="n">
         <v>23</v>
@@ -3388,10 +3388,10 @@
         <v>51</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
         <v>26</v>
@@ -3456,19 +3456,19 @@
         <v>1.95</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="K25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M25" t="n">
         <v>2.1</v>
@@ -3584,13 +3584,13 @@
         <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="n">
         <v>2.1</v>
@@ -3706,16 +3706,16 @@
         <v>3.3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="K27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="M27" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="N27" t="n">
         <v>3.6</v>
@@ -3828,16 +3828,16 @@
         <v>3.8</v>
       </c>
       <c r="J28" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K28" t="n">
         <v>5.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N28" t="n">
         <v>3.1</v>
@@ -3950,13 +3950,13 @@
         <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K29" t="n">
         <v>5.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M29" t="n">
         <v>2.2</v>
@@ -4072,13 +4072,13 @@
         <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K30" t="n">
         <v>6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M30" t="n">
         <v>2.1</v>
@@ -4194,16 +4194,16 @@
         <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K31" t="n">
         <v>5.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="M31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N31" t="n">
         <v>3.1</v>
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I33" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="J33" t="n">
         <v>1.02</v>
@@ -4444,16 +4444,16 @@
         <v>19</v>
       </c>
       <c r="L33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N33" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O33" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P33" t="n">
         <v>1.25</v>
@@ -4462,37 +4462,37 @@
         <v>3.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V33" t="n">
         <v>8.5</v>
       </c>
       <c r="W33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
         <v>19</v>
       </c>
       <c r="Z33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC33" t="n">
         <v>41</v>
@@ -4501,22 +4501,22 @@
         <v>126</v>
       </c>
       <c r="AE33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG33" t="n">
         <v>17</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
       </c>
       <c r="AI33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4566,16 +4566,16 @@
         <v>13</v>
       </c>
       <c r="L34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N34" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O34" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4593,13 +4593,13 @@
         <v>9</v>
       </c>
       <c r="U34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X34" t="n">
         <v>15</v>
@@ -4626,16 +4626,16 @@
         <v>13</v>
       </c>
       <c r="AF34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
         <v>29</v>
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
         <v>2.15</v>
@@ -4688,10 +4688,10 @@
         <v>17</v>
       </c>
       <c r="L35" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N35" t="n">
         <v>1.53</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J36" t="n">
         <v>1.03</v>
@@ -4828,22 +4828,22 @@
         <v>3.25</v>
       </c>
       <c r="R36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S36" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V36" t="n">
         <v>9.5</v>
       </c>
       <c r="W36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
@@ -4852,7 +4852,7 @@
         <v>23</v>
       </c>
       <c r="Z36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
         <v>7</v>
@@ -4870,10 +4870,10 @@
         <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
         <v>29</v>
@@ -4882,7 +4882,7 @@
         <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -4929,7 +4929,7 @@
         <v>1.06</v>
       </c>
       <c r="K37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
         <v>1.3</v>
@@ -5039,19 +5039,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
         <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J38" t="n">
         <v>1.07</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.36</v>
@@ -5072,10 +5072,10 @@
         <v>2.63</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T38" t="n">
         <v>10</v>
@@ -5108,10 +5108,10 @@
         <v>51</v>
       </c>
       <c r="AD38" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF38" t="n">
         <v>9</v>
@@ -5176,10 +5176,10 @@
         <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N39" t="n">
         <v>2.7</v>
@@ -5289,7 +5289,7 @@
         <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J40" t="n">
         <v>1.11</v>
@@ -5316,10 +5316,10 @@
         <v>2.25</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T40" t="n">
         <v>5.5</v>
@@ -5331,7 +5331,7 @@
         <v>9.5</v>
       </c>
       <c r="W40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X40" t="n">
         <v>19</v>
@@ -5349,7 +5349,7 @@
         <v>19</v>
       </c>
       <c r="AC40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="n">
         <v>501</v>
@@ -5361,7 +5361,7 @@
         <v>21</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH40" t="n">
         <v>51</v>
@@ -5405,79 +5405,79 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
         <v>2.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O41" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U41" t="n">
         <v>13</v>
       </c>
       <c r="V41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y41" t="n">
         <v>41</v>
       </c>
       <c r="Z41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA41" t="n">
         <v>6</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE41" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF41" t="n">
         <v>11</v>
@@ -5489,10 +5489,10 @@
         <v>23</v>
       </c>
       <c r="AI41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
         <v>1.08</v>
@@ -5560,22 +5560,22 @@
         <v>2.5</v>
       </c>
       <c r="R42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S42" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T42" t="n">
         <v>5.5</v>
       </c>
       <c r="U42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V42" t="n">
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -5584,7 +5584,7 @@
         <v>34</v>
       </c>
       <c r="Z42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA42" t="n">
         <v>7.5</v>
@@ -5614,7 +5614,7 @@
         <v>51</v>
       </c>
       <c r="AJ42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43">
@@ -5658,10 +5658,10 @@
         <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K43" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
         <v>1.33</v>
@@ -5670,10 +5670,10 @@
         <v>3.25</v>
       </c>
       <c r="N43" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P43" t="n">
         <v>1.44</v>
@@ -5682,10 +5682,10 @@
         <v>2.63</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -5783,13 +5783,13 @@
         <v>1.08</v>
       </c>
       <c r="K44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N44" t="n">
         <v>2.25</v>
@@ -5804,10 +5804,10 @@
         <v>2.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T44" t="n">
         <v>7.5</v>
@@ -5899,13 +5899,13 @@
         <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L45" t="n">
         <v>1.53</v>
@@ -5929,7 +5929,7 @@
         <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T45" t="n">
         <v>6.5</v>
@@ -5950,7 +5950,7 @@
         <v>41</v>
       </c>
       <c r="Z45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA45" t="n">
         <v>6</v>
@@ -5977,7 +5977,7 @@
         <v>26</v>
       </c>
       <c r="AI45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ45" t="n">
         <v>41</v>
@@ -6146,10 +6146,10 @@
         <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L47" t="n">
         <v>1.5</v>
@@ -6170,10 +6170,10 @@
         <v>2.25</v>
       </c>
       <c r="R47" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S47" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T47" t="n">
         <v>5</v>
@@ -6212,7 +6212,7 @@
         <v>11</v>
       </c>
       <c r="AF47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG47" t="n">
         <v>21</v>
@@ -6381,13 +6381,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H49" t="n">
         <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J49" t="n">
         <v>1.08</v>
@@ -6414,10 +6414,10 @@
         <v>2.5</v>
       </c>
       <c r="R49" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -6426,7 +6426,7 @@
         <v>10</v>
       </c>
       <c r="V49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W49" t="n">
         <v>21</v>
@@ -6444,7 +6444,7 @@
         <v>6</v>
       </c>
       <c r="AB49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC49" t="n">
         <v>51</v>
@@ -6453,7 +6453,7 @@
         <v>351</v>
       </c>
       <c r="AE49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF49" t="n">
         <v>15</v>
@@ -6625,13 +6625,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J51" t="n">
         <v>1.07</v>
@@ -6646,10 +6646,10 @@
         <v>2.75</v>
       </c>
       <c r="N51" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O51" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P51" t="n">
         <v>1.5</v>
@@ -6667,16 +6667,16 @@
         <v>7</v>
       </c>
       <c r="U51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V51" t="n">
         <v>10</v>
       </c>
       <c r="W51" t="n">
+        <v>26</v>
+      </c>
+      <c r="X51" t="n">
         <v>23</v>
-      </c>
-      <c r="X51" t="n">
-        <v>21</v>
       </c>
       <c r="Y51" t="n">
         <v>34</v>
@@ -6691,7 +6691,7 @@
         <v>17</v>
       </c>
       <c r="AC51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD51" t="n">
         <v>800</v>
@@ -6700,19 +6700,19 @@
         <v>7.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG51" t="n">
         <v>11</v>
       </c>
       <c r="AH51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
         <v>1.07</v>
@@ -6780,22 +6780,22 @@
         <v>2.5</v>
       </c>
       <c r="R52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T52" t="n">
         <v>5.5</v>
       </c>
       <c r="U52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V52" t="n">
         <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X52" t="n">
         <v>17</v>
@@ -6807,10 +6807,10 @@
         <v>8</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC52" t="n">
         <v>81</v>
@@ -6819,13 +6819,13 @@
         <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH52" t="n">
         <v>51</v>
@@ -6869,7 +6869,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H53" t="n">
         <v>4</v>
@@ -6878,28 +6878,28 @@
         <v>1.5</v>
       </c>
       <c r="J53" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M53" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
         <v>2.1</v>
       </c>
       <c r="O53" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P53" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R53" t="n">
         <v>2.25</v>
@@ -7235,82 +7235,82 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H56" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J56" t="n">
         <v>1.1</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L56" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M56" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="N56" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P56" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R56" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="S56" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T56" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U56" t="n">
         <v>9.5</v>
       </c>
       <c r="V56" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W56" t="n">
         <v>21</v>
       </c>
       <c r="X56" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z56" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AA56" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB56" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD56" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AE56" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AF56" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG56" t="n">
         <v>12.5</v>
@@ -7319,10 +7319,10 @@
         <v>55</v>
       </c>
       <c r="AI56" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -7357,25 +7357,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H57" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I57" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L57" t="n">
         <v>1.39</v>
       </c>
       <c r="M57" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N57" t="n">
         <v>2.15</v>
@@ -7414,7 +7414,7 @@
         <v>100</v>
       </c>
       <c r="Z57" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA57" t="n">
         <v>7.4</v>
@@ -7429,7 +7429,7 @@
         <v>101</v>
       </c>
       <c r="AE57" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AF57" t="n">
         <v>5.9</v>
@@ -7444,7 +7444,7 @@
         <v>14.5</v>
       </c>
       <c r="AJ57" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
@@ -7593,86 +7593,86 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M59" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N59" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O59" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S59" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T59" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="U59" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="V59" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="W59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="X59" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z59" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB59" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD59" t="n">
         <v>250</v>
       </c>
       <c r="AE59" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AF59" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AG59" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AH59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI59" t="n">
         <v>13.5</v>
       </c>
-      <c r="AI59" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ59" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +7829,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
@@ -7844,16 +7844,16 @@
         <v>15</v>
       </c>
       <c r="L61" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M61" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O61" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P61" t="n">
         <v>1.33</v>
@@ -7862,25 +7862,25 @@
         <v>3.25</v>
       </c>
       <c r="R61" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S61" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U61" t="n">
         <v>15</v>
       </c>
       <c r="V61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y61" t="n">
         <v>23</v>
@@ -7904,16 +7904,16 @@
         <v>11</v>
       </c>
       <c r="AF61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH61" t="n">
         <v>23</v>
       </c>
       <c r="AI61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ61" t="n">
         <v>23</v>
@@ -7972,10 +7972,10 @@
         <v>3.75</v>
       </c>
       <c r="N62" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P62" t="n">
         <v>1.36</v>
@@ -7984,7 +7984,7 @@
         <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S62" t="n">
         <v>2.2</v>
@@ -8677,25 +8677,25 @@
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L68" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M68" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N68" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O68" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P68" t="n">
         <v>1.44</v>
@@ -8749,7 +8749,7 @@
         <v>15</v>
       </c>
       <c r="AG68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH68" t="n">
         <v>34</v>
@@ -8793,94 +8793,94 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I69" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="J69" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K69" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="L69" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="N69" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="O69" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q69" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="R69" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S69" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="T69" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="U69" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="V69" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="W69" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="X69" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y69" t="n">
         <v>26</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AA69" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AB69" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC69" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD69" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE69" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF69" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH69" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -9037,52 +9037,52 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H71" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="I71" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J71" t="n">
         <v>1.03</v>
       </c>
       <c r="K71" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="L71" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N71" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="O71" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="P71" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q71" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="R71" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S71" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="T71" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U71" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V71" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="W71" t="n">
         <v>90</v>
@@ -9094,37 +9094,37 @@
         <v>35</v>
       </c>
       <c r="Z71" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB71" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC71" t="n">
         <v>40</v>
       </c>
       <c r="AD71" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE71" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF71" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG71" t="n">
         <v>8.25</v>
       </c>
       <c r="AH71" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI71" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ71" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
@@ -9520,10 +9520,10 @@
         <v>1.57</v>
       </c>
       <c r="H75" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I75" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J75" t="n">
         <v>1.05</v>
@@ -9538,10 +9538,10 @@
         <v>3.5</v>
       </c>
       <c r="N75" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O75" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P75" t="n">
         <v>1.4</v>
@@ -9550,10 +9550,10 @@
         <v>2.75</v>
       </c>
       <c r="R75" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S75" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -9577,7 +9577,7 @@
         <v>10</v>
       </c>
       <c r="AA75" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB75" t="n">
         <v>17</v>
@@ -9595,10 +9595,10 @@
         <v>29</v>
       </c>
       <c r="AG75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH75" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI75" t="n">
         <v>41</v>
@@ -9639,13 +9639,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
         <v>3.9</v>
       </c>
       <c r="I76" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J76" t="n">
         <v>1.04</v>
@@ -9660,10 +9660,10 @@
         <v>4</v>
       </c>
       <c r="N76" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O76" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P76" t="n">
         <v>1.33</v>
@@ -9672,10 +9672,10 @@
         <v>3.25</v>
       </c>
       <c r="R76" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S76" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T76" t="n">
         <v>13</v>
@@ -9690,7 +9690,7 @@
         <v>41</v>
       </c>
       <c r="X76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y76" t="n">
         <v>34</v>
@@ -9702,19 +9702,19 @@
         <v>7.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC76" t="n">
         <v>41</v>
       </c>
       <c r="AD76" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE76" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG76" t="n">
         <v>8.5</v>
@@ -9726,7 +9726,7 @@
         <v>13</v>
       </c>
       <c r="AJ76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
@@ -9761,13 +9761,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I77" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J77" t="n">
         <v>1.09</v>
@@ -9800,19 +9800,19 @@
         <v>1.78</v>
       </c>
       <c r="T77" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U77" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V77" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W77" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X77" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y77" t="n">
         <v>45</v>
@@ -9830,22 +9830,22 @@
         <v>90</v>
       </c>
       <c r="AD77" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE77" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AF77" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG77" t="n">
         <v>9</v>
       </c>
       <c r="AH77" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI77" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ77" t="n">
         <v>35</v>
@@ -9883,73 +9883,73 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H78" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I78" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J78" t="n">
         <v>1.09</v>
       </c>
       <c r="K78" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L78" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M78" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="N78" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="O78" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P78" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R78" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S78" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T78" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="U78" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W78" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X78" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y78" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Z78" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AA78" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AB78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC78" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD78" t="n">
         <v>101</v>
@@ -9958,16 +9958,16 @@
         <v>4.9</v>
       </c>
       <c r="AF78" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AG78" t="n">
         <v>9</v>
       </c>
       <c r="AH78" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI78" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ78" t="n">
         <v>45</v>
@@ -10005,10 +10005,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="H79" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="I79" t="n">
         <v>3.2</v>
@@ -10017,7 +10017,7 @@
         <v>1.14</v>
       </c>
       <c r="K79" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L79" t="n">
         <v>1.6</v>
@@ -10032,43 +10032,43 @@
         <v>1.4</v>
       </c>
       <c r="P79" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R79" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S79" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T79" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="U79" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="V79" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W79" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X79" t="n">
         <v>27</v>
       </c>
       <c r="Y79" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z79" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AA79" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC79" t="n">
         <v>150</v>
@@ -10077,7 +10077,7 @@
         <v>101</v>
       </c>
       <c r="AE79" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AF79" t="n">
         <v>15</v>
@@ -10089,7 +10089,7 @@
         <v>45</v>
       </c>
       <c r="AI79" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ79" t="n">
         <v>60</v>
@@ -10249,19 +10249,19 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="H81" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I81" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J81" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K81" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L81" t="n">
         <v>1.5</v>
@@ -10279,7 +10279,7 @@
         <v>1.6</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R81" t="n">
         <v>2</v>
@@ -10288,28 +10288,28 @@
         <v>1.72</v>
       </c>
       <c r="T81" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="U81" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V81" t="n">
         <v>11</v>
       </c>
       <c r="W81" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X81" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y81" t="n">
         <v>45</v>
       </c>
       <c r="Z81" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA81" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB81" t="n">
         <v>16</v>
@@ -10321,19 +10321,19 @@
         <v>900</v>
       </c>
       <c r="AE81" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AF81" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG81" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH81" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI81" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ81" t="n">
         <v>40</v>
@@ -10371,31 +10371,31 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H82" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I82" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J82" t="n">
         <v>1.11</v>
       </c>
       <c r="K82" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O82" t="n">
         <v>1.47</v>
-      </c>
-      <c r="M82" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N82" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1.5</v>
       </c>
       <c r="P82" t="n">
         <v>1.57</v>
@@ -10404,37 +10404,37 @@
         <v>2.25</v>
       </c>
       <c r="R82" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S82" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T82" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="U82" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="V82" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W82" t="n">
         <v>13</v>
       </c>
       <c r="X82" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z82" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA82" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB82" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC82" t="n">
         <v>150</v>
@@ -10443,22 +10443,22 @@
         <v>101</v>
       </c>
       <c r="AE82" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AF82" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG82" t="n">
         <v>18</v>
       </c>
       <c r="AH82" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI82" t="n">
         <v>70</v>
       </c>
       <c r="AJ82" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
@@ -10493,13 +10493,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I83" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="J83" t="n">
         <v>1.08</v>
@@ -10523,7 +10523,7 @@
         <v>1.39</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R83" t="n">
         <v>1.83</v>
@@ -10532,28 +10532,28 @@
         <v>1.87</v>
       </c>
       <c r="T83" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U83" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="V83" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="W83" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X83" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y83" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z83" t="n">
         <v>6.6</v>
       </c>
       <c r="AA83" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB83" t="n">
         <v>15</v>
@@ -10565,19 +10565,19 @@
         <v>600</v>
       </c>
       <c r="AE83" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF83" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG83" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH83" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI83" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ83" t="n">
         <v>32</v>
@@ -10615,13 +10615,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H84" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I84" t="n">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="J84" t="n">
         <v>1.07</v>
@@ -10630,13 +10630,13 @@
         <v>7</v>
       </c>
       <c r="L84" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M84" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O84" t="n">
         <v>1.75</v>
@@ -10645,40 +10645,40 @@
         <v>1.44</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R84" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S84" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T84" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U84" t="n">
         <v>7.5</v>
       </c>
       <c r="V84" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W84" t="n">
         <v>13</v>
       </c>
       <c r="X84" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z84" t="n">
         <v>7</v>
       </c>
       <c r="AA84" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB84" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC84" t="n">
         <v>90</v>
@@ -10687,22 +10687,22 @@
         <v>800</v>
       </c>
       <c r="AE84" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF84" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG84" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AI84" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ84" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85">
@@ -10737,94 +10737,94 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="H85" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="I85" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="J85" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K85" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="L85" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="M85" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="N85" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="O85" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="P85" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R85" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S85" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="T85" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U85" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="V85" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="W85" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X85" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z85" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AA85" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB85" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC85" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD85" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG85" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH85" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI85" t="n">
         <v>37</v>
       </c>
       <c r="AJ85" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
@@ -10859,13 +10859,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="H86" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>2.45</v>
+        <v>2.67</v>
       </c>
       <c r="J86" t="n">
         <v>1.07</v>
@@ -10877,7 +10877,7 @@
         <v>1.36</v>
       </c>
       <c r="M86" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="N86" t="n">
         <v>2.05</v>
@@ -10892,28 +10892,28 @@
         <v>2.67</v>
       </c>
       <c r="R86" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S86" t="n">
         <v>1.85</v>
       </c>
       <c r="T86" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="U86" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="V86" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="W86" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y86" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z86" t="n">
         <v>6.8</v>
@@ -10931,22 +10931,22 @@
         <v>700</v>
       </c>
       <c r="AE86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF86" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG86" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH86" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI86" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ86" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87">
@@ -10981,94 +10981,94 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H87" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I87" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="J87" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K87" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="L87" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M87" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="N87" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="O87" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="P87" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="R87" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S87" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T87" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="U87" t="n">
         <v>8.5</v>
       </c>
       <c r="V87" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W87" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="X87" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y87" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z87" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA87" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AB87" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD87" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AE87" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF87" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG87" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH87" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88">
@@ -11103,55 +11103,55 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H88" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I88" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="J88" t="n">
         <v>1.09</v>
       </c>
       <c r="K88" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="L88" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M88" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="N88" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O88" t="n">
         <v>1.62</v>
       </c>
       <c r="P88" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R88" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S88" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="T88" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U88" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="V88" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W88" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="X88" t="n">
         <v>16</v>
@@ -11160,28 +11160,28 @@
         <v>32</v>
       </c>
       <c r="Z88" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB88" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD88" t="n">
         <v>900</v>
       </c>
       <c r="AE88" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AF88" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG88" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH88" t="n">
         <v>80</v>
@@ -11190,7 +11190,7 @@
         <v>50</v>
       </c>
       <c r="AJ88" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89">
@@ -11225,67 +11225,67 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I89" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J89" t="n">
         <v>1.1</v>
       </c>
       <c r="K89" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L89" t="n">
         <v>1.45</v>
       </c>
       <c r="M89" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="N89" t="n">
         <v>2.32</v>
       </c>
       <c r="O89" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P89" t="n">
         <v>1.53</v>
       </c>
-      <c r="P89" t="n">
+      <c r="Q89" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S89" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q89" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R89" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="S89" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T89" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="U89" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="V89" t="n">
         <v>8.75</v>
       </c>
       <c r="W89" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y89" t="n">
         <v>40</v>
       </c>
       <c r="Z89" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA89" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB89" t="n">
         <v>23</v>
@@ -11297,7 +11297,7 @@
         <v>1000</v>
       </c>
       <c r="AE89" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF89" t="n">
         <v>32</v>
@@ -11312,7 +11312,7 @@
         <v>80</v>
       </c>
       <c r="AJ89" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
@@ -12575,15 +12575,15 @@
         <v>1.31</v>
       </c>
       <c r="O100" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S100" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="T100" t="n">
         <v>65</v>
@@ -12744,10 +12744,10 @@
         <v>18</v>
       </c>
       <c r="H102" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I102" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -12766,19 +12766,19 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="S102" t="n">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="T102" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="U102" t="n">
         <v>250</v>
       </c>
       <c r="V102" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="W102" t="n">
         <v>500</v>
@@ -12793,34 +12793,34 @@
         <v>32</v>
       </c>
       <c r="AA102" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB102" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC102" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD102" t="n">
         <v>250</v>
       </c>
       <c r="AE102" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF102" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG102" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH102" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI102" t="n">
         <v>8.75</v>
       </c>
       <c r="AJ102" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="103">
@@ -12977,7 +12977,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>3.5</v>
@@ -12986,13 +12986,13 @@
         <v>3.4</v>
       </c>
       <c r="J104" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K104" t="n">
         <v>12</v>
       </c>
       <c r="L104" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
@@ -13028,7 +13028,7 @@
         <v>19</v>
       </c>
       <c r="X104" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y104" t="n">
         <v>23</v>
@@ -13099,13 +13099,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I105" t="n">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="J105" t="n">
         <v>1.11</v>
@@ -13114,16 +13114,16 @@
         <v>6.5</v>
       </c>
       <c r="L105" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M105" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N105" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O105" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P105" t="n">
         <v>1.62</v>
@@ -13132,58 +13132,58 @@
         <v>2.2</v>
       </c>
       <c r="R105" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S105" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T105" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="U105" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="V105" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W105" t="n">
+        <v>26</v>
+      </c>
+      <c r="X105" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y105" t="n">
         <v>41</v>
-      </c>
-      <c r="X105" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>51</v>
       </c>
       <c r="Z105" t="n">
         <v>6</v>
       </c>
       <c r="AA105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE105" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB105" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>5</v>
-      </c>
       <c r="AF105" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG105" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH105" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AI105" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ105" t="n">
         <v>41</v>
@@ -13346,16 +13346,16 @@
         <v>1.7</v>
       </c>
       <c r="H107" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I107" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J107" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L107" t="n">
         <v>1.36</v>
@@ -13364,10 +13364,10 @@
         <v>3</v>
       </c>
       <c r="N107" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O107" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P107" t="n">
         <v>1.44</v>
@@ -13388,7 +13388,7 @@
         <v>7.5</v>
       </c>
       <c r="V107" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W107" t="n">
         <v>13</v>
@@ -13415,7 +13415,7 @@
         <v>1250</v>
       </c>
       <c r="AE107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF107" t="n">
         <v>23</v>
@@ -13486,10 +13486,10 @@
         <v>2.63</v>
       </c>
       <c r="N108" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O108" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P108" t="n">
         <v>1.53</v>
@@ -13596,10 +13596,10 @@
         <v>7</v>
       </c>
       <c r="J109" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L109" t="n">
         <v>1.18</v>
@@ -13608,10 +13608,10 @@
         <v>4.5</v>
       </c>
       <c r="N109" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O109" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P109" t="n">
         <v>1.3</v>
@@ -13733,7 +13733,7 @@
         <v>2.1</v>
       </c>
       <c r="O110" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P110" t="n">
         <v>1.44</v>
@@ -13742,10 +13742,10 @@
         <v>2.63</v>
       </c>
       <c r="R110" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S110" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -13831,13 +13831,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H111" t="n">
         <v>4.75</v>
       </c>
       <c r="I111" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J111" t="n">
         <v>1.03</v>
@@ -13852,10 +13852,10 @@
         <v>5</v>
       </c>
       <c r="N111" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O111" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P111" t="n">
         <v>1.29</v>
@@ -13864,10 +13864,10 @@
         <v>3.5</v>
       </c>
       <c r="R111" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S111" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T111" t="n">
         <v>8.5</v>
@@ -13891,7 +13891,7 @@
         <v>15</v>
       </c>
       <c r="AA111" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB111" t="n">
         <v>19</v>
@@ -13900,7 +13900,7 @@
         <v>51</v>
       </c>
       <c r="AD111" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE111" t="n">
         <v>23</v>
@@ -13912,7 +13912,7 @@
         <v>23</v>
       </c>
       <c r="AH111" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI111" t="n">
         <v>51</v>
@@ -13953,19 +13953,19 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I112" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J112" t="n">
         <v>1.07</v>
       </c>
       <c r="K112" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L112" t="n">
         <v>1.3</v>
@@ -13977,7 +13977,7 @@
         <v>2.05</v>
       </c>
       <c r="O112" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P112" t="n">
         <v>1.44</v>
@@ -13986,10 +13986,10 @@
         <v>2.63</v>
       </c>
       <c r="R112" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S112" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -14022,7 +14022,7 @@
         <v>51</v>
       </c>
       <c r="AD112" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE112" t="n">
         <v>13</v>
@@ -14197,13 +14197,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H114" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I114" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="J114" t="n">
         <v>1.03</v>
@@ -14212,34 +14212,34 @@
         <v>15</v>
       </c>
       <c r="L114" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M114" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N114" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="O114" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="P114" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q114" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R114" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S114" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V114" t="n">
         <v>13</v>
@@ -14248,16 +14248,16 @@
         <v>41</v>
       </c>
       <c r="X114" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y114" t="n">
         <v>29</v>
       </c>
       <c r="Z114" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA114" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB114" t="n">
         <v>12</v>
@@ -14266,13 +14266,13 @@
         <v>41</v>
       </c>
       <c r="AD114" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE114" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG114" t="n">
         <v>8.5</v>
@@ -14281,7 +14281,7 @@
         <v>17</v>
       </c>
       <c r="AI114" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ114" t="n">
         <v>21</v>
@@ -14340,7 +14340,7 @@
         <v>4.5</v>
       </c>
       <c r="N115" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O115" t="n">
         <v>2.25</v>
@@ -14352,7 +14352,7 @@
         <v>3.4</v>
       </c>
       <c r="R115" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S115" t="n">
         <v>2.25</v>
@@ -14685,43 +14685,43 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I118" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J118" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L118" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M118" t="n">
         <v>3.5</v>
       </c>
       <c r="N118" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O118" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P118" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R118" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S118" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -14739,10 +14739,10 @@
         <v>13</v>
       </c>
       <c r="Y118" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA118" t="n">
         <v>8</v>
@@ -14807,31 +14807,31 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H119" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I119" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="J119" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L119" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M119" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N119" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O119" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P119" t="n">
         <v>1.4</v>
@@ -14840,58 +14840,58 @@
         <v>2.75</v>
       </c>
       <c r="R119" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S119" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U119" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V119" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W119" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X119" t="n">
         <v>41</v>
       </c>
       <c r="Y119" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z119" t="n">
         <v>10</v>
       </c>
       <c r="AA119" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB119" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC119" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD119" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE119" t="n">
         <v>6.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG119" t="n">
         <v>8.5</v>
       </c>
       <c r="AH119" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI119" t="n">
         <v>13</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>15</v>
       </c>
       <c r="AJ119" t="n">
         <v>29</v>
@@ -14929,31 +14929,31 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H120" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I120" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="J120" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K120" t="n">
         <v>8</v>
       </c>
       <c r="L120" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M120" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="N120" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O120" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P120" t="n">
         <v>1.53</v>
@@ -14968,25 +14968,25 @@
         <v>1.75</v>
       </c>
       <c r="T120" t="n">
+        <v>7</v>
+      </c>
+      <c r="U120" t="n">
+        <v>11</v>
+      </c>
+      <c r="V120" t="n">
+        <v>10</v>
+      </c>
+      <c r="W120" t="n">
+        <v>26</v>
+      </c>
+      <c r="X120" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z120" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U120" t="n">
-        <v>13</v>
-      </c>
-      <c r="V120" t="n">
-        <v>11</v>
-      </c>
-      <c r="W120" t="n">
-        <v>29</v>
-      </c>
-      <c r="X120" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y120" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z120" t="n">
-        <v>7</v>
       </c>
       <c r="AA120" t="n">
         <v>6</v>
@@ -14998,22 +14998,22 @@
         <v>67</v>
       </c>
       <c r="AD120" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE120" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF120" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG120" t="n">
         <v>11</v>
       </c>
-      <c r="AG120" t="n">
-        <v>10</v>
-      </c>
       <c r="AH120" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI120" t="n">
         <v>26</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>23</v>
       </c>
       <c r="AJ120" t="n">
         <v>41</v>
@@ -15063,16 +15063,16 @@
         <v>1.01</v>
       </c>
       <c r="K121" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L121" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="M121" t="n">
         <v>7</v>
       </c>
       <c r="N121" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O121" t="n">
         <v>3.1</v>
@@ -15188,16 +15188,16 @@
         <v>15</v>
       </c>
       <c r="L122" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M122" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N122" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O122" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P122" t="n">
         <v>1.3</v>
@@ -15316,10 +15316,10 @@
         <v>2.75</v>
       </c>
       <c r="N123" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O123" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P123" t="n">
         <v>1.53</v>
@@ -15661,7 +15661,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H126" t="n">
         <v>3.9</v>
@@ -15682,10 +15682,10 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O126" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P126" t="n">
         <v>1.4</v>
@@ -15783,7 +15783,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H127" t="n">
         <v>3.3</v>
@@ -15792,10 +15792,10 @@
         <v>2.3</v>
       </c>
       <c r="J127" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L127" t="n">
         <v>1.25</v>
@@ -15807,7 +15807,7 @@
         <v>1.85</v>
       </c>
       <c r="O127" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P127" t="n">
         <v>1.36</v>
@@ -15822,7 +15822,7 @@
         <v>2.1</v>
       </c>
       <c r="T127" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U127" t="n">
         <v>15</v>
@@ -15926,10 +15926,10 @@
         <v>3</v>
       </c>
       <c r="N128" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O128" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P128" t="n">
         <v>1.5</v>
@@ -16271,13 +16271,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H131" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I131" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J131" t="n">
         <v>1.03</v>
@@ -16298,10 +16298,10 @@
         <v>2.3</v>
       </c>
       <c r="P131" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q131" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R131" t="n">
         <v>1.75</v>
@@ -16319,19 +16319,19 @@
         <v>8.5</v>
       </c>
       <c r="W131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X131" t="n">
         <v>11</v>
       </c>
       <c r="Y131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z131" t="n">
         <v>15</v>
       </c>
       <c r="AA131" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB131" t="n">
         <v>17</v>
@@ -16554,7 +16554,7 @@
         <v>1.7</v>
       </c>
       <c r="T133" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U133" t="n">
         <v>6.8</v>
@@ -16578,7 +16578,7 @@
         <v>7.3</v>
       </c>
       <c r="AB133" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC133" t="n">
         <v>110</v>
@@ -16587,10 +16587,10 @@
         <v>1000</v>
       </c>
       <c r="AE133" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF133" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG133" t="n">
         <v>17</v>
@@ -16637,13 +16637,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H134" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I134" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="J134" t="n">
         <v>1.04</v>
@@ -16673,22 +16673,22 @@
         <v>1.65</v>
       </c>
       <c r="S134" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T134" t="n">
         <v>8.25</v>
       </c>
       <c r="U134" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V134" t="n">
         <v>8</v>
       </c>
       <c r="W134" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X134" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y134" t="n">
         <v>21</v>
@@ -16697,13 +16697,13 @@
         <v>8.25</v>
       </c>
       <c r="AA134" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC134" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD134" t="n">
         <v>350</v>
@@ -16712,19 +16712,19 @@
         <v>14.5</v>
       </c>
       <c r="AF134" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG134" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH134" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI134" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ134" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
@@ -16762,16 +16762,16 @@
         <v>1.3</v>
       </c>
       <c r="H135" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="I135" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="J135" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K135" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L135" t="n">
         <v>1.24</v>
@@ -16789,13 +16789,13 @@
         <v>1.36</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R135" t="n">
         <v>2.18</v>
       </c>
       <c r="S135" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T135" t="n">
         <v>6.4</v>
@@ -16804,25 +16804,25 @@
         <v>5.8</v>
       </c>
       <c r="V135" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W135" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X135" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y135" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z135" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA135" t="n">
         <v>9.75</v>
       </c>
       <c r="AB135" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC135" t="n">
         <v>150</v>
@@ -16881,25 +16881,25 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="H136" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="I136" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="J136" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K136" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L136" t="n">
         <v>1.42</v>
       </c>
       <c r="M136" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="N136" t="n">
         <v>2.25</v>
@@ -16908,67 +16908,67 @@
         <v>1.6</v>
       </c>
       <c r="P136" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="R136" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S136" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T136" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="U136" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="V136" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W136" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X136" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y136" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z136" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AA136" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB136" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC136" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD136" t="n">
         <v>800</v>
       </c>
       <c r="AE136" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF136" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG136" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH136" t="n">
         <v>45</v>
       </c>
       <c r="AI136" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ136" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
@@ -17125,13 +17125,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H138" t="n">
         <v>3.95</v>
       </c>
       <c r="I138" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J138" t="n">
         <v>1.06</v>
@@ -17164,22 +17164,22 @@
         <v>1.78</v>
       </c>
       <c r="T138" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U138" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="V138" t="n">
         <v>8.25</v>
       </c>
       <c r="W138" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X138" t="n">
         <v>13</v>
       </c>
       <c r="Y138" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z138" t="n">
         <v>7.5</v>
@@ -17200,7 +17200,7 @@
         <v>13</v>
       </c>
       <c r="AF138" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG138" t="n">
         <v>16.5</v>
@@ -17209,10 +17209,10 @@
         <v>90</v>
       </c>
       <c r="AI138" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ138" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139">
@@ -17247,94 +17247,94 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="H139" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="J139" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K139" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L139" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M139" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="N139" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O139" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P139" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q139" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="R139" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S139" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T139" t="n">
+        <v>8</v>
+      </c>
+      <c r="U139" t="n">
         <v>8.25</v>
-      </c>
-      <c r="U139" t="n">
-        <v>7.5</v>
       </c>
       <c r="V139" t="n">
         <v>8</v>
       </c>
       <c r="W139" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X139" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Y139" t="n">
         <v>22</v>
       </c>
       <c r="Z139" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA139" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AB139" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG139" t="n">
         <v>16</v>
       </c>
-      <c r="AC139" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD139" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE139" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF139" t="n">
+      <c r="AH139" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI139" t="n">
         <v>45</v>
       </c>
-      <c r="AG139" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH139" t="n">
-        <v>150</v>
-      </c>
-      <c r="AI139" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ139" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140">
@@ -17369,37 +17369,37 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H140" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I140" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J140" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K140" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L140" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M140" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N140" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O140" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P140" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R140" t="n">
         <v>1.72</v>
@@ -17408,31 +17408,31 @@
         <v>2</v>
       </c>
       <c r="T140" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U140" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V140" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W140" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X140" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y140" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z140" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA140" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB140" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC140" t="n">
         <v>60</v>
@@ -17441,7 +17441,7 @@
         <v>450</v>
       </c>
       <c r="AE140" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF140" t="n">
         <v>9.75</v>
@@ -17450,13 +17450,13 @@
         <v>8.5</v>
       </c>
       <c r="AH140" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI140" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ140" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
@@ -18345,7 +18345,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H148" t="n">
         <v>3.6</v>
@@ -18378,10 +18378,10 @@
         <v>3.5</v>
       </c>
       <c r="R148" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S148" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T148" t="n">
         <v>12</v>
@@ -18423,7 +18423,7 @@
         <v>19</v>
       </c>
       <c r="AG148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH148" t="n">
         <v>34</v>
@@ -18467,13 +18467,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>2.9</v>
       </c>
       <c r="I149" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J149" t="n">
         <v>1.1</v>
@@ -18503,13 +18503,13 @@
         <v>2</v>
       </c>
       <c r="S149" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T149" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U149" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V149" t="n">
         <v>10</v>
@@ -18527,7 +18527,7 @@
         <v>6.5</v>
       </c>
       <c r="AA149" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB149" t="n">
         <v>17</v>
@@ -18542,13 +18542,13 @@
         <v>8.5</v>
       </c>
       <c r="AF149" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG149" t="n">
         <v>13</v>
       </c>
       <c r="AH149" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI149" t="n">
         <v>34</v>
@@ -18589,19 +18589,19 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H150" t="n">
         <v>3.1</v>
       </c>
       <c r="I150" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J150" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L150" t="n">
         <v>1.4</v>
@@ -18622,16 +18622,16 @@
         <v>2.5</v>
       </c>
       <c r="R150" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S150" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="T150" t="n">
         <v>6</v>
       </c>
       <c r="U150" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V150" t="n">
         <v>9</v>
@@ -18664,10 +18664,10 @@
         <v>11</v>
       </c>
       <c r="AF150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG150" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH150" t="n">
         <v>51</v>
@@ -18744,10 +18744,10 @@
         <v>3.5</v>
       </c>
       <c r="R151" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S151" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -18955,13 +18955,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="H153" t="n">
         <v>2.9</v>
       </c>
       <c r="I153" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="J153" t="n">
         <v>1.1</v>
@@ -18970,10 +18970,10 @@
         <v>6.5</v>
       </c>
       <c r="L153" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M153" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N153" t="n">
         <v>2.5</v>
@@ -18982,7 +18982,7 @@
         <v>1.5</v>
       </c>
       <c r="P153" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q153" t="n">
         <v>2.25</v>
@@ -18994,19 +18994,19 @@
         <v>1.67</v>
       </c>
       <c r="T153" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U153" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W153" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X153" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y153" t="n">
         <v>41</v>
@@ -19027,19 +19027,19 @@
         <v>101</v>
       </c>
       <c r="AE153" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF153" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG153" t="n">
         <v>11</v>
       </c>
       <c r="AH153" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI153" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ153" t="n">
         <v>41</v>
@@ -19077,13 +19077,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H154" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I154" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J154" t="n">
         <v>1.06</v>
@@ -19092,34 +19092,34 @@
         <v>8</v>
       </c>
       <c r="L154" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M154" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N154" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O154" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P154" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R154" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S154" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T154" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U154" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V154" t="n">
         <v>12</v>
@@ -19128,13 +19128,13 @@
         <v>34</v>
       </c>
       <c r="X154" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y154" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z154" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA154" t="n">
         <v>6.5</v>
@@ -19146,19 +19146,19 @@
         <v>51</v>
       </c>
       <c r="AD154" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AE154" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF154" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG154" t="n">
         <v>9.5</v>
       </c>
       <c r="AH154" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI154" t="n">
         <v>19</v>
@@ -19199,13 +19199,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H155" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I155" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="J155" t="n">
         <v>1.05</v>
@@ -19214,49 +19214,49 @@
         <v>8.5</v>
       </c>
       <c r="L155" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M155" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N155" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O155" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P155" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="R155" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S155" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T155" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V155" t="n">
         <v>10</v>
       </c>
       <c r="W155" t="n">
+        <v>23</v>
+      </c>
+      <c r="X155" t="n">
         <v>21</v>
-      </c>
-      <c r="X155" t="n">
-        <v>19</v>
       </c>
       <c r="Y155" t="n">
         <v>29</v>
       </c>
       <c r="Z155" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA155" t="n">
         <v>6.5</v>
@@ -19265,28 +19265,28 @@
         <v>15</v>
       </c>
       <c r="AC155" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD155" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE155" t="n">
         <v>9</v>
       </c>
       <c r="AF155" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG155" t="n">
         <v>11</v>
       </c>
       <c r="AH155" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ155" t="n">
         <v>29</v>
-      </c>
-      <c r="AI155" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ155" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="156">
@@ -19345,10 +19345,10 @@
         <v>2.5</v>
       </c>
       <c r="O156" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P156" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q156" t="n">
         <v>2.25</v>
@@ -19809,13 +19809,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H160" t="n">
         <v>3</v>
       </c>
       <c r="I160" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J160" t="n">
         <v>1.1</v>
@@ -19851,13 +19851,13 @@
         <v>6</v>
       </c>
       <c r="U160" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V160" t="n">
         <v>10</v>
       </c>
       <c r="W160" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X160" t="n">
         <v>21</v>
@@ -19875,28 +19875,28 @@
         <v>19</v>
       </c>
       <c r="AC160" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD160" t="n">
         <v>101</v>
       </c>
       <c r="AE160" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF160" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG160" t="n">
         <v>15</v>
       </c>
-      <c r="AG160" t="n">
-        <v>13</v>
-      </c>
       <c r="AH160" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI160" t="n">
         <v>34</v>
       </c>
       <c r="AJ160" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161">
@@ -19931,13 +19931,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H161" t="n">
         <v>3.1</v>
       </c>
       <c r="I161" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J161" t="n">
         <v>1.07</v>
@@ -19946,16 +19946,16 @@
         <v>7.5</v>
       </c>
       <c r="L161" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M161" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N161" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O161" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P161" t="n">
         <v>1.44</v>
@@ -19970,7 +19970,7 @@
         <v>1.83</v>
       </c>
       <c r="T161" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U161" t="n">
         <v>13</v>
@@ -20012,10 +20012,10 @@
         <v>11</v>
       </c>
       <c r="AH161" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI161" t="n">
         <v>23</v>
-      </c>
-      <c r="AI161" t="n">
-        <v>21</v>
       </c>
       <c r="AJ161" t="n">
         <v>34</v>
@@ -20297,19 +20297,19 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>3.5</v>
       </c>
       <c r="I164" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J164" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K164" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L164" t="n">
         <v>1.33</v>
@@ -20339,7 +20339,7 @@
         <v>6.5</v>
       </c>
       <c r="U164" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V164" t="n">
         <v>8.5</v>
@@ -20357,7 +20357,7 @@
         <v>9</v>
       </c>
       <c r="AA164" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB164" t="n">
         <v>17</v>
@@ -20378,10 +20378,10 @@
         <v>15</v>
       </c>
       <c r="AH164" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI164" t="n">
         <v>41</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>34</v>
       </c>
       <c r="AJ164" t="n">
         <v>41</v>
@@ -20425,25 +20425,25 @@
         <v>3.4</v>
       </c>
       <c r="I165" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J165" t="n">
         <v>1.04</v>
       </c>
       <c r="K165" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L165" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M165" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N165" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O165" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="P165" t="n">
         <v>1.36</v>
@@ -20452,10 +20452,10 @@
         <v>3</v>
       </c>
       <c r="R165" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S165" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T165" t="n">
         <v>9</v>
@@ -20482,7 +20482,7 @@
         <v>6.5</v>
       </c>
       <c r="AB165" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC165" t="n">
         <v>41</v>
@@ -20491,13 +20491,13 @@
         <v>151</v>
       </c>
       <c r="AE165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF165" t="n">
         <v>17</v>
       </c>
       <c r="AG165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH165" t="n">
         <v>34</v>
@@ -20663,7 +20663,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>3.4</v>
@@ -20678,16 +20678,16 @@
         <v>13</v>
       </c>
       <c r="L167" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M167" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N167" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O167" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P167" t="n">
         <v>1.33</v>
@@ -20708,16 +20708,16 @@
         <v>17</v>
       </c>
       <c r="V167" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W167" t="n">
+        <v>34</v>
+      </c>
+      <c r="X167" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y167" t="n">
         <v>29</v>
-      </c>
-      <c r="X167" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y167" t="n">
-        <v>26</v>
       </c>
       <c r="Z167" t="n">
         <v>13</v>
@@ -20738,10 +20738,10 @@
         <v>10</v>
       </c>
       <c r="AF167" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG167" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH167" t="n">
         <v>21</v>
@@ -20785,19 +20785,19 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="H168" t="n">
         <v>3.4</v>
       </c>
       <c r="I168" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="J168" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K168" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L168" t="n">
         <v>1.25</v>
@@ -20806,10 +20806,10 @@
         <v>3.75</v>
       </c>
       <c r="N168" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O168" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P168" t="n">
         <v>1.36</v>
@@ -20824,22 +20824,22 @@
         <v>2.2</v>
       </c>
       <c r="T168" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U168" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V168" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W168" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X168" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y168" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z168" t="n">
         <v>12</v>
@@ -20848,7 +20848,7 @@
         <v>6.5</v>
       </c>
       <c r="AB168" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC168" t="n">
         <v>41</v>
@@ -20857,19 +20857,19 @@
         <v>151</v>
       </c>
       <c r="AE168" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF168" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG168" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH168" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI168" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ168" t="n">
         <v>26</v>
@@ -21517,55 +21517,55 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H174" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I174" t="n">
         <v>1.5</v>
       </c>
       <c r="J174" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K174" t="n">
+        <v>17</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M174" t="n">
+        <v>5</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O174" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T174" t="n">
         <v>19</v>
-      </c>
-      <c r="L174" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M174" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N174" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O174" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P174" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q174" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R174" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S174" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T174" t="n">
-        <v>21</v>
       </c>
       <c r="U174" t="n">
         <v>34</v>
       </c>
       <c r="V174" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W174" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X174" t="n">
         <v>41</v>
@@ -21574,10 +21574,10 @@
         <v>41</v>
       </c>
       <c r="Z174" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA174" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB174" t="n">
         <v>15</v>
@@ -21586,19 +21586,19 @@
         <v>41</v>
       </c>
       <c r="AD174" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE174" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF174" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG174" t="n">
         <v>8.5</v>
       </c>
       <c r="AH174" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI174" t="n">
         <v>11</v>
@@ -21639,13 +21639,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I175" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J175" t="n">
         <v>1.04</v>
@@ -21666,22 +21666,22 @@
         <v>2</v>
       </c>
       <c r="P175" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q175" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R175" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="S175" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T175" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U175" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V175" t="n">
         <v>8.5</v>
@@ -21696,13 +21696,13 @@
         <v>23</v>
       </c>
       <c r="Z175" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA175" t="n">
         <v>6.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC175" t="n">
         <v>41</v>
@@ -22005,13 +22005,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.27</v>
+        <v>2.65</v>
       </c>
       <c r="H178" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I178" t="n">
-        <v>2.95</v>
+        <v>2.52</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -22022,10 +22022,10 @@
         <v>2.95</v>
       </c>
       <c r="N178" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O178" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P178" t="n">
         <v>1.4</v>
@@ -22040,31 +22040,31 @@
         <v>1.93</v>
       </c>
       <c r="T178" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="U178" t="n">
-        <v>11.25</v>
+        <v>14</v>
       </c>
       <c r="V178" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="W178" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X178" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y178" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z178" t="n">
         <v>9.25</v>
       </c>
       <c r="AA178" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB178" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC178" t="n">
         <v>60</v>
@@ -22073,22 +22073,22 @@
         <v>450</v>
       </c>
       <c r="AE178" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AF178" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG178" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH178" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AI178" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AJ178" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179">
@@ -22123,19 +22123,19 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H179" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I179" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J179" t="n">
         <v>1.08</v>
       </c>
       <c r="K179" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L179" t="n">
         <v>1.44</v>
@@ -22147,7 +22147,7 @@
         <v>2.35</v>
       </c>
       <c r="O179" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P179" t="n">
         <v>1.53</v>
@@ -22171,13 +22171,13 @@
         <v>10</v>
       </c>
       <c r="W179" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X179" t="n">
         <v>21</v>
       </c>
       <c r="Y179" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z179" t="n">
         <v>7.5</v>
@@ -22245,13 +22245,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H180" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I180" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J180" t="n">
         <v>1.07</v>
@@ -22260,22 +22260,22 @@
         <v>9</v>
       </c>
       <c r="L180" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M180" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N180" t="n">
         <v>2.2</v>
       </c>
       <c r="O180" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P180" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q180" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R180" t="n">
         <v>2.25</v>
@@ -22293,7 +22293,7 @@
         <v>9</v>
       </c>
       <c r="W180" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X180" t="n">
         <v>15</v>
@@ -22302,10 +22302,10 @@
         <v>34</v>
       </c>
       <c r="Z180" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA180" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB180" t="n">
         <v>23</v>
@@ -22388,10 +22388,10 @@
         <v>3.5</v>
       </c>
       <c r="N181" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O181" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P181" t="n">
         <v>1.4</v>
@@ -22489,13 +22489,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H182" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I182" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J182" t="n">
         <v>1.03</v>
@@ -22510,7 +22510,7 @@
         <v>4.5</v>
       </c>
       <c r="N182" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O182" t="n">
         <v>2.25</v>
@@ -22522,10 +22522,10 @@
         <v>3.4</v>
       </c>
       <c r="R182" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S182" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T182" t="n">
         <v>10</v>
@@ -22540,7 +22540,7 @@
         <v>17</v>
       </c>
       <c r="X182" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y182" t="n">
         <v>21</v>
@@ -22549,13 +22549,13 @@
         <v>15</v>
       </c>
       <c r="AA182" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB182" t="n">
         <v>12</v>
       </c>
       <c r="AC182" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD182" t="n">
         <v>126</v>
@@ -22564,7 +22564,7 @@
         <v>15</v>
       </c>
       <c r="AF182" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG182" t="n">
         <v>13</v>
@@ -22573,7 +22573,7 @@
         <v>41</v>
       </c>
       <c r="AI182" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ182" t="n">
         <v>29</v>
@@ -22632,7 +22632,7 @@
         <v>5.5</v>
       </c>
       <c r="N183" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O183" t="n">
         <v>2.6</v>
@@ -22733,13 +22733,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H184" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I184" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J184" t="n">
         <v>1.05</v>
@@ -22754,10 +22754,10 @@
         <v>3.75</v>
       </c>
       <c r="N184" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O184" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="P184" t="n">
         <v>1.4</v>
@@ -22772,22 +22772,22 @@
         <v>2.1</v>
       </c>
       <c r="T184" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U184" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V184" t="n">
         <v>10</v>
       </c>
       <c r="W184" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X184" t="n">
         <v>21</v>
       </c>
       <c r="Y184" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z184" t="n">
         <v>11</v>
@@ -22805,7 +22805,7 @@
         <v>151</v>
       </c>
       <c r="AE184" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF184" t="n">
         <v>13</v>
@@ -22820,7 +22820,7 @@
         <v>21</v>
       </c>
       <c r="AJ184" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185">
@@ -23339,13 +23339,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H189" t="n">
         <v>3.6</v>
       </c>
       <c r="I189" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="J189" t="n">
         <v>1.04</v>
@@ -23369,7 +23369,7 @@
         <v>1.35</v>
       </c>
       <c r="Q189" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="R189" t="n">
         <v>1.65</v>
@@ -23393,19 +23393,19 @@
         <v>13</v>
       </c>
       <c r="Y189" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z189" t="n">
         <v>8.25</v>
       </c>
       <c r="AA189" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB189" t="n">
         <v>13.5</v>
       </c>
       <c r="AC189" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD189" t="n">
         <v>350</v>
@@ -23414,19 +23414,19 @@
         <v>14</v>
       </c>
       <c r="AF189" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG189" t="n">
         <v>13.5</v>
       </c>
       <c r="AH189" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI189" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ189" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="190">
@@ -23473,19 +23473,19 @@
         <v>1.05</v>
       </c>
       <c r="K190" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L190" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M190" t="n">
         <v>3.6</v>
       </c>
       <c r="N190" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O190" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P190" t="n">
         <v>1.36</v>
@@ -23500,10 +23500,10 @@
         <v>2.1</v>
       </c>
       <c r="T190" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U190" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V190" t="n">
         <v>8.25</v>
@@ -23512,16 +23512,16 @@
         <v>15.5</v>
       </c>
       <c r="X190" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y190" t="n">
         <v>23</v>
       </c>
       <c r="Z190" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA190" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB190" t="n">
         <v>13.5</v>
@@ -23530,13 +23530,13 @@
         <v>55</v>
       </c>
       <c r="AD190" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE190" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF190" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG190" t="n">
         <v>13</v>
@@ -23545,10 +23545,10 @@
         <v>60</v>
       </c>
       <c r="AI190" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ190" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
@@ -1016,10 +1016,10 @@
         <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1046,10 +1046,10 @@
         <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
         <v>9.5</v>
@@ -1085,7 +1085,7 @@
         <v>201</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>34</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>1.06</v>
@@ -1272,16 +1272,16 @@
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="O7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1329,13 +1329,13 @@
         <v>251</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -1394,16 +1394,16 @@
         <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="O8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1522,16 +1522,16 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
         <v>1.57</v>
@@ -1540,13 +1540,13 @@
         <v>2.25</v>
       </c>
       <c r="T9" t="n">
+        <v>17</v>
+      </c>
+      <c r="U9" t="n">
+        <v>26</v>
+      </c>
+      <c r="V9" t="n">
         <v>15</v>
-      </c>
-      <c r="U9" t="n">
-        <v>23</v>
-      </c>
-      <c r="V9" t="n">
-        <v>13</v>
       </c>
       <c r="W9" t="n">
         <v>41</v>
@@ -1555,7 +1555,7 @@
         <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
@@ -1567,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="n">
         <v>126</v>
@@ -1576,13 +1576,13 @@
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>8.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -1989,31 +1989,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2037,7 +2037,7 @@
         <v>8.5</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
@@ -2046,7 +2046,7 @@
         <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
         <v>7</v>
@@ -2067,13 +2067,13 @@
         <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
         <v>41</v>
@@ -2117,7 +2117,7 @@
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
@@ -2162,7 +2162,7 @@
         <v>29</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
         <v>34</v>
@@ -2186,7 +2186,7 @@
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2198,7 +2198,7 @@
         <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2480,7 +2480,7 @@
         <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
         <v>3.3</v>
@@ -2552,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>12</v>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2620,10 +2620,10 @@
         <v>2.75</v>
       </c>
       <c r="N18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2632,13 +2632,13 @@
         <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U18" t="n">
         <v>8</v>
@@ -2662,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
         <v>67</v>
@@ -2721,70 +2721,70 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P19" t="n">
         <v>1.62</v>
       </c>
-      <c r="M19" t="n">
+      <c r="Q19" t="n">
         <v>2.2</v>
       </c>
-      <c r="N19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>2.1</v>
       </c>
-      <c r="R19" t="n">
-        <v>2.25</v>
-      </c>
       <c r="S19" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="T19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U19" t="n">
         <v>13</v>
       </c>
       <c r="V19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W19" t="n">
         <v>34</v>
       </c>
       <c r="X19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA19" t="n">
         <v>5.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
         <v>81</v>
@@ -2805,7 +2805,7 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>41</v>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -2852,40 +2852,40 @@
         <v>3.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.62</v>
       </c>
-      <c r="M20" t="n">
+      <c r="Q20" t="n">
         <v>2.2</v>
       </c>
-      <c r="N20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="T20" t="n">
         <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V20" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2909,13 +2909,13 @@
         <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
         <v>17</v>
@@ -2965,55 +2965,55 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
         <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N21" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V21" t="n">
+        <v>9</v>
+      </c>
+      <c r="W21" t="n">
         <v>9.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>9</v>
       </c>
       <c r="X21" t="n">
         <v>15</v>
@@ -3022,16 +3022,16 @@
         <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD21" t="n">
         <v>101</v>
@@ -3040,19 +3040,19 @@
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="n">
         <v>67</v>
       </c>
       <c r="AJ21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
@@ -3114,19 +3114,19 @@
         <v>1.8</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
         <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U22" t="n">
         <v>7</v>
@@ -3135,10 +3135,10 @@
         <v>8.5</v>
       </c>
       <c r="W22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
         <v>29</v>
@@ -3147,7 +3147,7 @@
         <v>9.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="n">
         <v>19</v>
@@ -3162,13 +3162,13 @@
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -3224,16 +3224,16 @@
         <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N23" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
         <v>1.67</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.14</v>
@@ -3361,7 +3361,7 @@
         <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
         <v>2.63</v>
@@ -3370,10 +3370,10 @@
         <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V24" t="n">
         <v>11</v>
@@ -3394,10 +3394,10 @@
         <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD24" t="n">
         <v>101</v>
@@ -3409,7 +3409,7 @@
         <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
         <v>51</v>
@@ -3462,10 +3462,10 @@
         <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.67</v>
@@ -3626,7 +3626,7 @@
         <v>29</v>
       </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="n">
         <v>51</v>
@@ -3697,19 +3697,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H27" t="n">
         <v>2.7</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.8</v>
@@ -3739,7 +3739,7 @@
         <v>5</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V27" t="n">
         <v>12</v>
@@ -3748,7 +3748,7 @@
         <v>26</v>
       </c>
       <c r="X27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y27" t="n">
         <v>51</v>
@@ -3760,7 +3760,7 @@
         <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
         <v>126</v>
@@ -3769,10 +3769,10 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
         <v>15</v>
@@ -3834,10 +3834,10 @@
         <v>5.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N28" t="n">
         <v>3.1</v>
@@ -3855,7 +3855,7 @@
         <v>2.5</v>
       </c>
       <c r="S28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T28" t="n">
         <v>5</v>
@@ -3977,7 +3977,7 @@
         <v>2.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T29" t="n">
         <v>4.75</v>
@@ -4099,7 +4099,7 @@
         <v>2.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T30" t="n">
         <v>5</v>
@@ -4218,10 +4218,10 @@
         <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S31" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T31" t="n">
         <v>4.75</v>
@@ -4551,46 +4551,46 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="M34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O34" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U34" t="n">
         <v>10</v>
@@ -4602,16 +4602,16 @@
         <v>17</v>
       </c>
       <c r="X34" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z34" t="n">
         <v>15</v>
       </c>
-      <c r="Y34" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>13</v>
-      </c>
       <c r="AA34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB34" t="n">
         <v>13</v>
@@ -4620,10 +4620,10 @@
         <v>41</v>
       </c>
       <c r="AD34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
         <v>21</v>
@@ -4694,10 +4694,10 @@
         <v>5.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O35" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P35" t="n">
         <v>1.29</v>
@@ -5051,7 +5051,7 @@
         <v>1.07</v>
       </c>
       <c r="K38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
         <v>1.36</v>
@@ -5233,7 +5233,7 @@
         <v>501</v>
       </c>
       <c r="AE39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF39" t="n">
         <v>21</v>
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J41" t="n">
         <v>1.08</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J43" t="n">
         <v>1.06</v>
@@ -5670,10 +5670,10 @@
         <v>3.25</v>
       </c>
       <c r="N43" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O43" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P43" t="n">
         <v>1.44</v>
@@ -5691,13 +5691,13 @@
         <v>7</v>
       </c>
       <c r="U43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V43" t="n">
         <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X43" t="n">
         <v>17</v>
@@ -5706,7 +5706,7 @@
         <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA43" t="n">
         <v>6.5</v>
@@ -5724,10 +5724,10 @@
         <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
         <v>41</v>
@@ -5893,13 +5893,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J45" t="n">
         <v>1.13</v>
@@ -5908,10 +5908,10 @@
         <v>6</v>
       </c>
       <c r="L45" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M45" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N45" t="n">
         <v>2.7</v>
@@ -5926,22 +5926,22 @@
         <v>2.2</v>
       </c>
       <c r="R45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X45" t="n">
         <v>29</v>
@@ -5956,7 +5956,7 @@
         <v>6</v>
       </c>
       <c r="AB45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC45" t="n">
         <v>81</v>
@@ -5968,13 +5968,13 @@
         <v>6.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI45" t="n">
         <v>29</v>
@@ -6259,91 +6259,91 @@
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K48" t="n">
+        <v>9</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M48" t="n">
         <v>2.75</v>
       </c>
-      <c r="H48" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="N48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q48" t="n">
         <v>2.5</v>
       </c>
-      <c r="J48" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="R48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>11</v>
+      </c>
+      <c r="V48" t="n">
         <v>10</v>
       </c>
-      <c r="L48" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M48" t="n">
-        <v>3</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T48" t="n">
-        <v>8</v>
-      </c>
-      <c r="U48" t="n">
-        <v>13</v>
-      </c>
-      <c r="V48" t="n">
-        <v>11</v>
-      </c>
       <c r="W48" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
         <v>34</v>
       </c>
       <c r="Z48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC48" t="n">
         <v>51</v>
       </c>
       <c r="AD48" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI48" t="n">
         <v>23</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>21</v>
       </c>
       <c r="AJ48" t="n">
         <v>34</v>
@@ -6625,19 +6625,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L51" t="n">
         <v>1.4</v>
@@ -6670,7 +6670,7 @@
         <v>12</v>
       </c>
       <c r="V51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W51" t="n">
         <v>26</v>
@@ -6679,7 +6679,7 @@
         <v>23</v>
       </c>
       <c r="Y51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="n">
         <v>8</v>
@@ -6697,7 +6697,7 @@
         <v>800</v>
       </c>
       <c r="AE51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF51" t="n">
         <v>12</v>
@@ -6712,7 +6712,7 @@
         <v>23</v>
       </c>
       <c r="AJ51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
@@ -6750,43 +6750,43 @@
         <v>1.67</v>
       </c>
       <c r="H52" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N52" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P52" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R52" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T52" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U52" t="n">
         <v>6.5</v>
@@ -6801,10 +6801,10 @@
         <v>17</v>
       </c>
       <c r="Y52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA52" t="n">
         <v>7.5</v>
@@ -6813,7 +6813,7 @@
         <v>23</v>
       </c>
       <c r="AC52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -6831,7 +6831,7 @@
         <v>51</v>
       </c>
       <c r="AI52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ52" t="n">
         <v>51</v>
@@ -6869,13 +6869,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I53" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="J53" t="n">
         <v>1.07</v>
@@ -6884,16 +6884,16 @@
         <v>8.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N53" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O53" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P53" t="n">
         <v>1.44</v>
@@ -6908,7 +6908,7 @@
         <v>1.57</v>
       </c>
       <c r="T53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U53" t="n">
         <v>34</v>
@@ -6923,7 +6923,7 @@
         <v>51</v>
       </c>
       <c r="Y53" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z53" t="n">
         <v>8.5</v>
@@ -6950,7 +6950,7 @@
         <v>9</v>
       </c>
       <c r="AH53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI53" t="n">
         <v>15</v>
@@ -7357,73 +7357,73 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="H57" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I57" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="J57" t="n">
         <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L57" t="n">
         <v>1.39</v>
       </c>
       <c r="M57" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N57" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O57" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P57" t="n">
         <v>1.47</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R57" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="S57" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T57" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U57" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V57" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="W57" t="n">
+        <v>200</v>
+      </c>
+      <c r="X57" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC57" t="n">
         <v>175</v>
-      </c>
-      <c r="X57" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>150</v>
       </c>
       <c r="AD57" t="n">
         <v>101</v>
@@ -7432,16 +7432,16 @@
         <v>5.1</v>
       </c>
       <c r="AF57" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AG57" t="n">
         <v>8.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AI57" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ57" t="n">
         <v>40</v>
@@ -7951,19 +7951,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
         <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J62" t="n">
         <v>1.04</v>
       </c>
       <c r="K62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L62" t="n">
         <v>1.25</v>
@@ -7972,10 +7972,10 @@
         <v>3.75</v>
       </c>
       <c r="N62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O62" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
         <v>1.36</v>
@@ -7984,16 +7984,16 @@
         <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T62" t="n">
         <v>12</v>
       </c>
       <c r="U62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V62" t="n">
         <v>12</v>
@@ -8002,10 +8002,10 @@
         <v>34</v>
       </c>
       <c r="X62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z62" t="n">
         <v>12</v>
@@ -8014,7 +8014,7 @@
         <v>6.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC62" t="n">
         <v>41</v>
@@ -8023,16 +8023,16 @@
         <v>151</v>
       </c>
       <c r="AE62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG62" t="n">
         <v>9</v>
       </c>
       <c r="AH62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI62" t="n">
         <v>17</v>
@@ -8671,31 +8671,31 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I68" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>1.07</v>
       </c>
       <c r="K68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L68" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M68" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O68" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P68" t="n">
         <v>1.44</v>
@@ -8704,31 +8704,31 @@
         <v>2.63</v>
       </c>
       <c r="R68" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S68" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T68" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U68" t="n">
         <v>11</v>
       </c>
       <c r="V68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W68" t="n">
+        <v>23</v>
+      </c>
+      <c r="X68" t="n">
         <v>21</v>
       </c>
-      <c r="X68" t="n">
-        <v>19</v>
-      </c>
       <c r="Y68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA68" t="n">
         <v>6</v>
@@ -8740,19 +8740,19 @@
         <v>51</v>
       </c>
       <c r="AD68" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE68" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF68" t="n">
         <v>15</v>
       </c>
       <c r="AG68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI68" t="n">
         <v>26</v>
@@ -8915,67 +8915,67 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H70" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J70" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K70" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L70" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M70" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="N70" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O70" t="n">
         <v>2.32</v>
       </c>
       <c r="P70" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q70" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R70" t="n">
         <v>1.45</v>
       </c>
       <c r="S70" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="T70" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="U70" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="V70" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W70" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X70" t="n">
         <v>15.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z70" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA70" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB70" t="n">
         <v>10.5</v>
@@ -8987,10 +8987,10 @@
         <v>175</v>
       </c>
       <c r="AE70" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF70" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AG70" t="n">
         <v>10.5</v>
@@ -9002,7 +9002,7 @@
         <v>22</v>
       </c>
       <c r="AJ70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -9040,7 +9040,7 @@
         <v>4.9</v>
       </c>
       <c r="H71" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I71" t="n">
         <v>1.57</v>
@@ -9061,22 +9061,22 @@
         <v>1.47</v>
       </c>
       <c r="O71" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="P71" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="Q71" t="n">
         <v>3.45</v>
       </c>
       <c r="R71" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S71" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="T71" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U71" t="n">
         <v>35</v>
@@ -9097,7 +9097,7 @@
         <v>9.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB71" t="n">
         <v>13</v>
@@ -9109,22 +9109,22 @@
         <v>250</v>
       </c>
       <c r="AE71" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG71" t="n">
         <v>8.25</v>
       </c>
       <c r="AH71" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI71" t="n">
         <v>11</v>
       </c>
       <c r="AJ71" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="72">
@@ -9162,10 +9162,10 @@
         <v>1.37</v>
       </c>
       <c r="H72" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="I72" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -9173,19 +9173,19 @@
         <v>1.11</v>
       </c>
       <c r="M72" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="N72" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="O72" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="P72" t="n">
         <v>1.22</v>
       </c>
       <c r="Q72" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="R72" t="n">
         <v>1.52</v>
@@ -9194,55 +9194,55 @@
         <v>2.37</v>
       </c>
       <c r="T72" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="U72" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="V72" t="n">
         <v>8.5</v>
       </c>
       <c r="W72" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X72" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y72" t="n">
         <v>16.5</v>
       </c>
       <c r="Z72" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG72" t="n">
         <v>23</v>
       </c>
-      <c r="AA72" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="n">
+      <c r="AH72" t="n">
         <v>200</v>
       </c>
-      <c r="AE72" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>175</v>
-      </c>
       <c r="AI72" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ72" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
@@ -10005,70 +10005,70 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="I79" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="J79" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K79" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L79" t="n">
         <v>1.6</v>
       </c>
       <c r="M79" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N79" t="n">
         <v>2.75</v>
       </c>
       <c r="O79" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P79" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="R79" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="S79" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T79" t="n">
         <v>5.7</v>
       </c>
       <c r="U79" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V79" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="W79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X79" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y79" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z79" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AA79" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AB79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC79" t="n">
         <v>150</v>
@@ -10077,19 +10077,19 @@
         <v>101</v>
       </c>
       <c r="AE79" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AF79" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH79" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AI79" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ79" t="n">
         <v>60</v>
@@ -10740,10 +10740,10 @@
         <v>2.15</v>
       </c>
       <c r="H85" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="I85" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J85" t="n">
         <v>1.1</v>
@@ -10758,49 +10758,49 @@
         <v>2.67</v>
       </c>
       <c r="N85" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="O85" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P85" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R85" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S85" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T85" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U85" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V85" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W85" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X85" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y85" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z85" t="n">
         <v>5.9</v>
       </c>
       <c r="AA85" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB85" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC85" t="n">
         <v>80</v>
@@ -10809,19 +10809,19 @@
         <v>700</v>
       </c>
       <c r="AE85" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF85" t="n">
         <v>19</v>
       </c>
       <c r="AG85" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH85" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI85" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ85" t="n">
         <v>45</v>
@@ -10984,22 +10984,22 @@
         <v>1.75</v>
       </c>
       <c r="H87" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I87" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J87" t="n">
         <v>1.07</v>
       </c>
       <c r="K87" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L87" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M87" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N87" t="n">
         <v>1.93</v>
@@ -11008,40 +11008,40 @@
         <v>1.78</v>
       </c>
       <c r="P87" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="R87" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S87" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T87" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="U87" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V87" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W87" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X87" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z87" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA87" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB87" t="n">
         <v>14.5</v>
@@ -11053,22 +11053,22 @@
         <v>600</v>
       </c>
       <c r="AE87" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG87" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ87" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
@@ -11103,94 +11103,94 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I88" t="n">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="J88" t="n">
         <v>1.09</v>
       </c>
       <c r="K88" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="L88" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M88" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="N88" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O88" t="n">
         <v>1.62</v>
       </c>
       <c r="P88" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R88" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S88" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="T88" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="U88" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="V88" t="n">
         <v>8.5</v>
       </c>
       <c r="W88" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="X88" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y88" t="n">
         <v>32</v>
       </c>
       <c r="Z88" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AB88" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC88" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD88" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE88" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AF88" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH88" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI88" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ88" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="89">
@@ -11225,55 +11225,55 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H89" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I89" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K89" t="n">
         <v>5.7</v>
       </c>
-      <c r="J89" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K89" t="n">
-        <v>5.9</v>
-      </c>
       <c r="L89" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M89" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="N89" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="O89" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="P89" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R89" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S89" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T89" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U89" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="V89" t="n">
         <v>8.75</v>
       </c>
       <c r="W89" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="X89" t="n">
         <v>16</v>
@@ -11282,13 +11282,13 @@
         <v>40</v>
       </c>
       <c r="Z89" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AA89" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AB89" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC89" t="n">
         <v>150</v>
@@ -11297,13 +11297,13 @@
         <v>1000</v>
       </c>
       <c r="AE89" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF89" t="n">
         <v>32</v>
       </c>
       <c r="AG89" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH89" t="n">
         <v>120</v>
@@ -12989,7 +12989,7 @@
         <v>1.04</v>
       </c>
       <c r="K104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L104" t="n">
         <v>1.22</v>
@@ -12998,10 +12998,10 @@
         <v>4</v>
       </c>
       <c r="N104" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O104" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P104" t="n">
         <v>1.36</v>
@@ -13221,13 +13221,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I106" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="J106" t="n">
         <v>1.1</v>
@@ -13242,10 +13242,10 @@
         <v>2.5</v>
       </c>
       <c r="N106" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O106" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P106" t="n">
         <v>1.57</v>
@@ -13254,22 +13254,22 @@
         <v>2.25</v>
       </c>
       <c r="R106" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S106" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T106" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U106" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V106" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W106" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X106" t="n">
         <v>41</v>
@@ -13293,19 +13293,19 @@
         <v>101</v>
       </c>
       <c r="AE106" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF106" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG106" t="n">
         <v>9.5</v>
       </c>
       <c r="AH106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI106" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ106" t="n">
         <v>41</v>
@@ -13349,13 +13349,13 @@
         <v>3.5</v>
       </c>
       <c r="I107" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J107" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L107" t="n">
         <v>1.36</v>
@@ -13364,31 +13364,31 @@
         <v>3</v>
       </c>
       <c r="N107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R107" t="n">
         <v>2.1</v>
       </c>
-      <c r="O107" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P107" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R107" t="n">
-        <v>2</v>
-      </c>
       <c r="S107" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T107" t="n">
         <v>6</v>
       </c>
       <c r="U107" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V107" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W107" t="n">
         <v>13</v>
@@ -13400,7 +13400,7 @@
         <v>34</v>
       </c>
       <c r="Z107" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA107" t="n">
         <v>7</v>
@@ -13415,7 +13415,7 @@
         <v>1250</v>
       </c>
       <c r="AE107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF107" t="n">
         <v>23</v>
@@ -13465,7 +13465,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H108" t="n">
         <v>3.2</v>
@@ -13474,28 +13474,28 @@
         <v>2.45</v>
       </c>
       <c r="J108" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K108" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L108" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M108" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N108" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O108" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P108" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R108" t="n">
         <v>2.1</v>
@@ -13510,7 +13510,7 @@
         <v>13</v>
       </c>
       <c r="V108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W108" t="n">
         <v>29</v>
@@ -13587,13 +13587,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J109" t="n">
         <v>1.03</v>
@@ -13602,10 +13602,10 @@
         <v>15</v>
       </c>
       <c r="L109" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M109" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N109" t="n">
         <v>1.65</v>
@@ -13620,25 +13620,25 @@
         <v>3.4</v>
       </c>
       <c r="R109" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S109" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T109" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U109" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V109" t="n">
         <v>8.5</v>
       </c>
       <c r="W109" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y109" t="n">
         <v>23</v>
@@ -13647,7 +13647,7 @@
         <v>13</v>
       </c>
       <c r="AA109" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB109" t="n">
         <v>17</v>
@@ -13656,7 +13656,7 @@
         <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE109" t="n">
         <v>21</v>
@@ -13665,7 +13665,7 @@
         <v>41</v>
       </c>
       <c r="AG109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH109" t="n">
         <v>81</v>
@@ -13674,7 +13674,7 @@
         <v>51</v>
       </c>
       <c r="AJ109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110">
@@ -13709,19 +13709,19 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
         <v>3.2</v>
       </c>
       <c r="I110" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J110" t="n">
         <v>1.07</v>
       </c>
       <c r="K110" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L110" t="n">
         <v>1.36</v>
@@ -13730,10 +13730,10 @@
         <v>3</v>
       </c>
       <c r="N110" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O110" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P110" t="n">
         <v>1.44</v>
@@ -13751,13 +13751,13 @@
         <v>7</v>
       </c>
       <c r="U110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V110" t="n">
         <v>9.5</v>
       </c>
       <c r="W110" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X110" t="n">
         <v>19</v>
@@ -13781,16 +13781,16 @@
         <v>301</v>
       </c>
       <c r="AE110" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG110" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI110" t="n">
         <v>29</v>
@@ -13831,19 +13831,19 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I111" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="J111" t="n">
         <v>1.03</v>
       </c>
       <c r="K111" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L111" t="n">
         <v>1.17</v>
@@ -13864,58 +13864,58 @@
         <v>3.5</v>
       </c>
       <c r="R111" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S111" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T111" t="n">
+        <v>8</v>
+      </c>
+      <c r="U111" t="n">
+        <v>7</v>
+      </c>
+      <c r="V111" t="n">
+        <v>9</v>
+      </c>
+      <c r="W111" t="n">
         <v>8.5</v>
-      </c>
-      <c r="U111" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V111" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W111" t="n">
-        <v>9</v>
       </c>
       <c r="X111" t="n">
         <v>11</v>
       </c>
       <c r="Y111" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z111" t="n">
         <v>15</v>
       </c>
       <c r="AA111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC111" t="n">
         <v>51</v>
       </c>
       <c r="AD111" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE111" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF111" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG111" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH111" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI111" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ111" t="n">
         <v>51</v>
@@ -13965,19 +13965,19 @@
         <v>1.07</v>
       </c>
       <c r="K112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L112" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M112" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N112" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O112" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P112" t="n">
         <v>1.44</v>
@@ -14319,37 +14319,37 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="H115" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I115" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J115" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L115" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M115" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N115" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O115" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P115" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q115" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R115" t="n">
         <v>1.57</v>
@@ -14361,28 +14361,28 @@
         <v>9.5</v>
       </c>
       <c r="U115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V115" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W115" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y115" t="n">
         <v>21</v>
       </c>
       <c r="Z115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA115" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC115" t="n">
         <v>41</v>
@@ -14391,19 +14391,19 @@
         <v>126</v>
       </c>
       <c r="AE115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF115" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH115" t="n">
         <v>41</v>
       </c>
       <c r="AI115" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ115" t="n">
         <v>29</v>
@@ -14828,10 +14828,10 @@
         <v>3.5</v>
       </c>
       <c r="N119" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O119" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P119" t="n">
         <v>1.4</v>
@@ -15051,10 +15051,10 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H121" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I121" t="n">
         <v>19</v>
@@ -15105,13 +15105,13 @@
         <v>11</v>
       </c>
       <c r="Y121" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z121" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB121" t="n">
         <v>29</v>
@@ -15173,49 +15173,49 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="H122" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="I122" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J122" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K122" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L122" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="M122" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N122" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="O122" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="P122" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q122" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R122" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S122" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="T122" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="U122" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V122" t="n">
         <v>8.5</v>
@@ -15224,34 +15224,34 @@
         <v>9.5</v>
       </c>
       <c r="X122" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y122" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z122" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA122" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB122" t="n">
         <v>19</v>
       </c>
       <c r="AC122" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD122" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="AE122" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF122" t="n">
         <v>41</v>
       </c>
       <c r="AG122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH122" t="n">
         <v>81</v>
@@ -15295,31 +15295,31 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H123" t="n">
         <v>3.1</v>
       </c>
       <c r="I123" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J123" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K123" t="n">
         <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M123" t="n">
         <v>2.75</v>
       </c>
       <c r="N123" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O123" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P123" t="n">
         <v>1.53</v>
@@ -15340,7 +15340,7 @@
         <v>10</v>
       </c>
       <c r="V123" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W123" t="n">
         <v>21</v>
@@ -16027,19 +16027,19 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
         <v>3.1</v>
       </c>
       <c r="I129" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="J129" t="n">
         <v>1.07</v>
       </c>
       <c r="K129" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L129" t="n">
         <v>1.36</v>
@@ -16069,7 +16069,7 @@
         <v>8.5</v>
       </c>
       <c r="U129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V129" t="n">
         <v>11</v>
@@ -16078,7 +16078,7 @@
         <v>29</v>
       </c>
       <c r="X129" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y129" t="n">
         <v>34</v>
@@ -16099,19 +16099,19 @@
         <v>301</v>
       </c>
       <c r="AE129" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF129" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG129" t="n">
         <v>10</v>
       </c>
       <c r="AH129" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI129" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ129" t="n">
         <v>34</v>
@@ -16515,19 +16515,19 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="H133" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="I133" t="n">
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="J133" t="n">
         <v>1.07</v>
       </c>
       <c r="K133" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L133" t="n">
         <v>1.34</v>
@@ -16542,67 +16542,67 @@
         <v>1.72</v>
       </c>
       <c r="P133" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R133" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="S133" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T133" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="U133" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="V133" t="n">
         <v>8.25</v>
       </c>
       <c r="W133" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X133" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE133" t="n">
         <v>11.25</v>
       </c>
-      <c r="X133" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z133" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA133" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>12</v>
-      </c>
       <c r="AF133" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH133" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AI133" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ133" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134">
@@ -16762,16 +16762,16 @@
         <v>1.3</v>
       </c>
       <c r="H135" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="I135" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="J135" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K135" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L135" t="n">
         <v>1.24</v>
@@ -16786,10 +16786,10 @@
         <v>2</v>
       </c>
       <c r="P135" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R135" t="n">
         <v>2.18</v>
@@ -16807,16 +16807,16 @@
         <v>8.75</v>
       </c>
       <c r="W135" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X135" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y135" t="n">
         <v>32</v>
       </c>
       <c r="Z135" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA135" t="n">
         <v>9.75</v>
@@ -17369,13 +17369,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H140" t="n">
         <v>3.2</v>
       </c>
       <c r="I140" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J140" t="n">
         <v>1.07</v>
@@ -17390,16 +17390,16 @@
         <v>3.15</v>
       </c>
       <c r="N140" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O140" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P140" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R140" t="n">
         <v>1.72</v>
@@ -17408,16 +17408,16 @@
         <v>2</v>
       </c>
       <c r="T140" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U140" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="V140" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W140" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X140" t="n">
         <v>30</v>
@@ -17441,16 +17441,16 @@
         <v>450</v>
       </c>
       <c r="AE140" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF140" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG140" t="n">
         <v>8.5</v>
       </c>
       <c r="AH140" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI140" t="n">
         <v>17</v>
@@ -18467,13 +18467,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H149" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I149" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J149" t="n">
         <v>1.1</v>
@@ -18506,19 +18506,19 @@
         <v>1.73</v>
       </c>
       <c r="T149" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V149" t="n">
         <v>10</v>
       </c>
       <c r="W149" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X149" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y149" t="n">
         <v>41</v>
@@ -18533,25 +18533,25 @@
         <v>17</v>
       </c>
       <c r="AC149" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD149" t="n">
         <v>301</v>
       </c>
       <c r="AE149" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF149" t="n">
         <v>15</v>
       </c>
       <c r="AG149" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH149" t="n">
         <v>34</v>
       </c>
       <c r="AI149" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ149" t="n">
         <v>41</v>
@@ -18589,49 +18589,49 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I150" t="n">
         <v>4.5</v>
       </c>
       <c r="J150" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L150" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M150" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N150" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O150" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="P150" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R150" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S150" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T150" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U150" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V150" t="n">
         <v>9</v>
@@ -18643,10 +18643,10 @@
         <v>17</v>
       </c>
       <c r="Y150" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA150" t="n">
         <v>6</v>
@@ -18655,10 +18655,10 @@
         <v>17</v>
       </c>
       <c r="AC150" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD150" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AE150" t="n">
         <v>11</v>
@@ -18676,7 +18676,7 @@
         <v>41</v>
       </c>
       <c r="AJ150" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151">
@@ -18711,31 +18711,31 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H151" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J151" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K151" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L151" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M151" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N151" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O151" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P151" t="n">
         <v>1.29</v>
@@ -18744,13 +18744,13 @@
         <v>3.5</v>
       </c>
       <c r="R151" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S151" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T151" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U151" t="n">
         <v>6</v>
@@ -18759,7 +18759,7 @@
         <v>10</v>
       </c>
       <c r="W151" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X151" t="n">
         <v>12</v>
@@ -18774,16 +18774,16 @@
         <v>15</v>
       </c>
       <c r="AB151" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC151" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD151" t="n">
         <v>101</v>
       </c>
       <c r="AE151" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF151" t="n">
         <v>51</v>
@@ -19220,10 +19220,10 @@
         <v>3.5</v>
       </c>
       <c r="N155" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="O155" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P155" t="n">
         <v>1.36</v>
@@ -19327,7 +19327,7 @@
         <v>3</v>
       </c>
       <c r="I156" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J156" t="n">
         <v>1.1</v>
@@ -19345,7 +19345,7 @@
         <v>2.5</v>
       </c>
       <c r="O156" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P156" t="n">
         <v>1.57</v>
@@ -19363,7 +19363,7 @@
         <v>5.5</v>
       </c>
       <c r="U156" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V156" t="n">
         <v>10</v>
@@ -19393,7 +19393,7 @@
         <v>900</v>
       </c>
       <c r="AE156" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF156" t="n">
         <v>19</v>
@@ -19931,13 +19931,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>3.1</v>
       </c>
       <c r="I161" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J161" t="n">
         <v>1.07</v>
@@ -19952,10 +19952,10 @@
         <v>3</v>
       </c>
       <c r="N161" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O161" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P161" t="n">
         <v>1.44</v>
@@ -19970,22 +19970,22 @@
         <v>1.83</v>
       </c>
       <c r="T161" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U161" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V161" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W161" t="n">
+        <v>29</v>
+      </c>
+      <c r="X161" t="n">
         <v>26</v>
       </c>
-      <c r="X161" t="n">
-        <v>23</v>
-      </c>
       <c r="Y161" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z161" t="n">
         <v>8.5</v>
@@ -20003,19 +20003,19 @@
         <v>700</v>
       </c>
       <c r="AE161" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG161" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH161" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI161" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ161" t="n">
         <v>34</v>
@@ -22123,13 +22123,13 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="H179" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J179" t="n">
         <v>1.08</v>
@@ -22156,58 +22156,58 @@
         <v>2.38</v>
       </c>
       <c r="R179" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S179" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T179" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U179" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V179" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W179" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X179" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y179" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z179" t="n">
         <v>7.5</v>
       </c>
       <c r="AA179" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB179" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC179" t="n">
         <v>67</v>
       </c>
       <c r="AD179" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE179" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF179" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH179" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI179" t="n">
         <v>34</v>
-      </c>
-      <c r="AI179" t="n">
-        <v>29</v>
       </c>
       <c r="AJ179" t="n">
         <v>41</v>
@@ -22245,13 +22245,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H180" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I180" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J180" t="n">
         <v>1.07</v>
@@ -22287,13 +22287,13 @@
         <v>5.5</v>
       </c>
       <c r="U180" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V180" t="n">
         <v>9</v>
       </c>
       <c r="W180" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X180" t="n">
         <v>15</v>
@@ -22305,7 +22305,7 @@
         <v>8</v>
       </c>
       <c r="AA180" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB180" t="n">
         <v>23</v>
@@ -22323,7 +22323,7 @@
         <v>29</v>
       </c>
       <c r="AG180" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH180" t="n">
         <v>67</v>
@@ -22376,22 +22376,22 @@
         <v>2.2</v>
       </c>
       <c r="J181" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K181" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L181" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M181" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N181" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O181" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="P181" t="n">
         <v>1.4</v>
@@ -22489,55 +22489,55 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H182" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I182" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J182" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K182" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L182" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M182" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N182" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S182" t="n">
         <v>2.25</v>
       </c>
-      <c r="P182" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R182" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S182" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T182" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U182" t="n">
         <v>11</v>
       </c>
       <c r="V182" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W182" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X182" t="n">
         <v>15</v>
@@ -22546,7 +22546,7 @@
         <v>21</v>
       </c>
       <c r="Z182" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA182" t="n">
         <v>7</v>
@@ -22555,19 +22555,19 @@
         <v>12</v>
       </c>
       <c r="AC182" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD182" t="n">
         <v>126</v>
       </c>
       <c r="AE182" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF182" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG182" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH182" t="n">
         <v>41</v>
@@ -22611,31 +22611,31 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H183" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I183" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="n">
         <v>1.02</v>
       </c>
       <c r="K183" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L183" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M183" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N183" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O183" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P183" t="n">
         <v>1.25</v>
@@ -22644,10 +22644,10 @@
         <v>3.75</v>
       </c>
       <c r="R183" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S183" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T183" t="n">
         <v>17</v>
@@ -22656,22 +22656,22 @@
         <v>21</v>
       </c>
       <c r="V183" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W183" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X183" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y183" t="n">
         <v>23</v>
       </c>
       <c r="Z183" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA183" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB183" t="n">
         <v>11</v>
@@ -22683,7 +22683,7 @@
         <v>81</v>
       </c>
       <c r="AE183" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF183" t="n">
         <v>13</v>
@@ -22695,10 +22695,10 @@
         <v>21</v>
       </c>
       <c r="AI183" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ183" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184">
@@ -22855,91 +22855,91 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="H185" t="n">
         <v>3.45</v>
       </c>
       <c r="I185" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="J185" t="n">
         <v>1.05</v>
       </c>
       <c r="K185" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L185" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M185" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="N185" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O185" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="P185" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q185" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R185" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S185" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T185" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U185" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V185" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W185" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X185" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF185" t="n">
         <v>17</v>
       </c>
-      <c r="Y185" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z185" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA185" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB185" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC185" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD185" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE185" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF185" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AG185" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH185" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI185" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ185" t="n">
         <v>32</v>
@@ -22977,13 +22977,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H186" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I186" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -22991,10 +22991,10 @@
         <v>1.42</v>
       </c>
       <c r="M186" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="N186" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O186" t="n">
         <v>1.52</v>
@@ -23012,7 +23012,7 @@
         <v>1.57</v>
       </c>
       <c r="T186" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="U186" t="n">
         <v>6.5</v>
@@ -23021,7 +23021,7 @@
         <v>8.5</v>
       </c>
       <c r="W186" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X186" t="n">
         <v>15.5</v>
@@ -23033,25 +23033,25 @@
         <v>6.7</v>
       </c>
       <c r="AA186" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB186" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC186" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD186" t="n">
         <v>101</v>
       </c>
       <c r="AE186" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF186" t="n">
         <v>37</v>
       </c>
       <c r="AG186" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH186" t="n">
         <v>150</v>
@@ -23060,7 +23060,7 @@
         <v>90</v>
       </c>
       <c r="AJ186" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187">
@@ -23098,10 +23098,10 @@
         <v>2.6</v>
       </c>
       <c r="H187" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="I187" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J187" t="n">
         <v>1.11</v>
@@ -23110,31 +23110,31 @@
         <v>6</v>
       </c>
       <c r="L187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P187" t="n">
         <v>1.47</v>
       </c>
-      <c r="M187" t="n">
+      <c r="Q187" t="n">
         <v>2.32</v>
       </c>
-      <c r="N187" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O187" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P187" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q187" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R187" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S187" t="n">
         <v>1.7</v>
       </c>
       <c r="T187" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U187" t="n">
         <v>11.75</v>
@@ -23146,16 +23146,16 @@
         <v>30</v>
       </c>
       <c r="X187" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y187" t="n">
         <v>40</v>
       </c>
       <c r="Z187" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AA187" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB187" t="n">
         <v>16</v>
@@ -23170,16 +23170,16 @@
         <v>7</v>
       </c>
       <c r="AF187" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG187" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH187" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI187" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ187" t="n">
         <v>45</v>
@@ -23217,13 +23217,13 @@
         </is>
       </c>
       <c r="G188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H188" t="n">
         <v>2.85</v>
       </c>
-      <c r="H188" t="n">
-        <v>2.77</v>
-      </c>
       <c r="I188" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="J188" t="n">
         <v>1.11</v>
@@ -23238,49 +23238,49 @@
         <v>2.27</v>
       </c>
       <c r="N188" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O188" t="n">
         <v>1.44</v>
       </c>
       <c r="P188" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q188" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R188" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S188" t="n">
         <v>1.65</v>
       </c>
       <c r="T188" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="U188" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="V188" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W188" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X188" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y188" t="n">
         <v>50</v>
       </c>
       <c r="Z188" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AA188" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB188" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC188" t="n">
         <v>110</v>
@@ -23289,19 +23289,19 @@
         <v>101</v>
       </c>
       <c r="AE188" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AF188" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG188" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH188" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI188" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ188" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ190"/>
+  <dimension ref="A1:AJ189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1522,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.29</v>
@@ -1534,10 +1534,10 @@
         <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T9" t="n">
         <v>17</v>
@@ -1555,10 +1555,10 @@
         <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
         <v>7.5</v>
@@ -1567,16 +1567,16 @@
         <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>8.5</v>
@@ -1588,7 +1588,7 @@
         <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J14" t="n">
         <v>1.07</v>
@@ -2126,10 +2126,10 @@
         <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N14" t="n">
         <v>2.1</v>
@@ -2156,13 +2156,13 @@
         <v>15</v>
       </c>
       <c r="V14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
         <v>34</v>
@@ -2183,13 +2183,13 @@
         <v>251</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -2198,7 +2198,7 @@
         <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2632,16 +2632,16 @@
         <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2650,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
@@ -2659,10 +2659,10 @@
         <v>7</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
         <v>67</v>
@@ -2671,13 +2671,13 @@
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>51</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
         <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.13</v>
@@ -2754,10 +2754,10 @@
         <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -2766,13 +2766,13 @@
         <v>13</v>
       </c>
       <c r="V19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W19" t="n">
         <v>34</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
         <v>41</v>
@@ -2796,7 +2796,7 @@
         <v>6</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -2843,79 +2843,79 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="M20" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>8.5</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
         <v>21</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="n">
         <v>17</v>
@@ -2965,94 +2965,94 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
         <v>1.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.4</v>
       </c>
-      <c r="M21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.47</v>
-      </c>
       <c r="T21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W21" t="n">
         <v>9.5</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AD21" t="n">
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI21" t="n">
         <v>81</v>
       </c>
-      <c r="AI21" t="n">
-        <v>67</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H22" t="n">
         <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -3120,16 +3120,16 @@
         <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
         <v>6.5</v>
       </c>
       <c r="U22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V22" t="n">
         <v>8.5</v>
@@ -3150,16 +3150,16 @@
         <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
         <v>26</v>
@@ -3174,7 +3174,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.67</v>
@@ -3266,13 +3266,13 @@
         <v>51</v>
       </c>
       <c r="Z23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
         <v>101</v>
@@ -3287,7 +3287,7 @@
         <v>8</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
         <v>1.14</v>
@@ -3483,7 +3483,7 @@
         <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
         <v>2.63</v>
@@ -3492,10 +3492,10 @@
         <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V25" t="n">
         <v>11</v>
@@ -3525,7 +3525,7 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF25" t="n">
         <v>21</v>
@@ -3578,7 +3578,7 @@
         <v>2.75</v>
       </c>
       <c r="H26" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I26" t="n">
         <v>3.1</v>
@@ -3587,19 +3587,19 @@
         <v>1.17</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
         <v>1.75</v>
@@ -3620,13 +3620,13 @@
         <v>11</v>
       </c>
       <c r="V26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W26" t="n">
         <v>29</v>
       </c>
       <c r="X26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
         <v>51</v>
@@ -3697,19 +3697,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="L27" t="n">
         <v>1.8</v>
@@ -3730,31 +3730,31 @@
         <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U27" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W27" t="n">
+        <v>19</v>
+      </c>
+      <c r="X27" t="n">
         <v>26</v>
-      </c>
-      <c r="X27" t="n">
-        <v>29</v>
       </c>
       <c r="Y27" t="n">
         <v>51</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
@@ -3769,22 +3769,22 @@
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -3819,13 +3819,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>1.14</v>
@@ -3834,10 +3834,10 @@
         <v>5.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N28" t="n">
         <v>3.1</v>
@@ -3852,37 +3852,37 @@
         <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S28" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="T28" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U28" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="V28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W28" t="n">
+        <v>15</v>
+      </c>
+      <c r="X28" t="n">
         <v>21</v>
-      </c>
-      <c r="X28" t="n">
-        <v>23</v>
       </c>
       <c r="Y28" t="n">
         <v>41</v>
       </c>
       <c r="Z28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
         <v>101</v>
@@ -3891,22 +3891,22 @@
         <v>101</v>
       </c>
       <c r="AE28" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
@@ -3977,7 +3977,7 @@
         <v>2.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T29" t="n">
         <v>4.75</v>
@@ -4099,7 +4099,7 @@
         <v>2.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T30" t="n">
         <v>5</v>
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J31" t="n">
         <v>1.14</v>
@@ -4218,10 +4218,10 @@
         <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S31" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
         <v>4.75</v>
@@ -4242,25 +4242,25 @@
         <v>41</v>
       </c>
       <c r="Z31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD31" t="n">
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
         <v>19</v>
@@ -4673,13 +4673,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
@@ -4688,16 +4688,16 @@
         <v>17</v>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O35" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P35" t="n">
         <v>1.29</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J36" t="n">
         <v>1.03</v>
@@ -4834,16 +4834,16 @@
         <v>2.25</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V36" t="n">
         <v>9.5</v>
       </c>
       <c r="W36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
@@ -4852,7 +4852,7 @@
         <v>23</v>
       </c>
       <c r="Z36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA36" t="n">
         <v>7</v>
@@ -4870,10 +4870,10 @@
         <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>29</v>
@@ -4882,7 +4882,7 @@
         <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -4917,88 +4917,88 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>3.9</v>
       </c>
       <c r="I37" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N37" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="P37" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="T37" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V37" t="n">
         <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA37" t="n">
         <v>7.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="n">
         <v>51</v>
@@ -5039,13 +5039,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="J38" t="n">
         <v>1.07</v>
@@ -5054,16 +5054,16 @@
         <v>9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M38" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N38" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O38" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P38" t="n">
         <v>1.44</v>
@@ -5072,58 +5072,58 @@
         <v>2.63</v>
       </c>
       <c r="R38" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U38" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W38" t="n">
+        <v>51</v>
+      </c>
+      <c r="X38" t="n">
         <v>41</v>
-      </c>
-      <c r="X38" t="n">
-        <v>34</v>
       </c>
       <c r="Y38" t="n">
         <v>41</v>
       </c>
       <c r="Z38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
         <v>51</v>
       </c>
       <c r="AD38" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ38" t="n">
         <v>29</v>
@@ -5161,19 +5161,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J39" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.53</v>
@@ -5182,10 +5182,10 @@
         <v>2.5</v>
       </c>
       <c r="N39" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P39" t="n">
         <v>1.62</v>
@@ -5194,25 +5194,25 @@
         <v>2.2</v>
       </c>
       <c r="R39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T39" t="n">
         <v>5</v>
       </c>
       <c r="U39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V39" t="n">
         <v>9.5</v>
       </c>
       <c r="W39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
         <v>41</v>
@@ -5236,16 +5236,16 @@
         <v>9.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH39" t="n">
         <v>51</v>
       </c>
       <c r="AI39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ39" t="n">
         <v>51</v>
@@ -5283,7 +5283,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H40" t="n">
         <v>3.1</v>
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J41" t="n">
         <v>1.08</v>
@@ -5453,7 +5453,7 @@
         <v>11</v>
       </c>
       <c r="W41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X41" t="n">
         <v>26</v>
@@ -5477,7 +5477,7 @@
         <v>351</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF41" t="n">
         <v>11</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L43" t="n">
         <v>1.33</v>
@@ -5670,10 +5670,10 @@
         <v>3.25</v>
       </c>
       <c r="N43" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P43" t="n">
         <v>1.44</v>
@@ -5691,13 +5691,13 @@
         <v>7</v>
       </c>
       <c r="U43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V43" t="n">
         <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X43" t="n">
         <v>17</v>
@@ -5721,13 +5721,13 @@
         <v>301</v>
       </c>
       <c r="AE43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
         <v>41</v>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J44" t="n">
         <v>1.08</v>
       </c>
       <c r="K44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L44" t="n">
         <v>1.4</v>
@@ -5813,16 +5813,16 @@
         <v>7.5</v>
       </c>
       <c r="U44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V44" t="n">
         <v>10</v>
       </c>
       <c r="W44" t="n">
+        <v>26</v>
+      </c>
+      <c r="X44" t="n">
         <v>23</v>
-      </c>
-      <c r="X44" t="n">
-        <v>21</v>
       </c>
       <c r="Y44" t="n">
         <v>34</v>
@@ -5840,19 +5840,19 @@
         <v>51</v>
       </c>
       <c r="AD44" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI44" t="n">
         <v>26</v>
@@ -5902,16 +5902,16 @@
         <v>2.9</v>
       </c>
       <c r="J45" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M45" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N45" t="n">
         <v>2.7</v>
@@ -5926,10 +5926,10 @@
         <v>2.2</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T45" t="n">
         <v>6</v>
@@ -5944,7 +5944,7 @@
         <v>26</v>
       </c>
       <c r="X45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y45" t="n">
         <v>41</v>
@@ -6381,13 +6381,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="H49" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="J49" t="n">
         <v>1.08</v>
@@ -6420,19 +6420,19 @@
         <v>1.8</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U49" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W49" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="X49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y49" t="n">
         <v>34</v>
@@ -6444,7 +6444,7 @@
         <v>6</v>
       </c>
       <c r="AB49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC49" t="n">
         <v>51</v>
@@ -6453,22 +6453,22 @@
         <v>351</v>
       </c>
       <c r="AE49" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG49" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>34</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="50">
@@ -6625,19 +6625,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J51" t="n">
         <v>1.08</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.4</v>
@@ -6658,13 +6658,13 @@
         <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S51" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T51" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U51" t="n">
         <v>12</v>
@@ -6682,22 +6682,22 @@
         <v>41</v>
       </c>
       <c r="Z51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB51" t="n">
         <v>17</v>
       </c>
       <c r="AC51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD51" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AE51" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF51" t="n">
         <v>12</v>
@@ -6759,7 +6759,7 @@
         <v>1.08</v>
       </c>
       <c r="K52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L52" t="n">
         <v>1.44</v>
@@ -6813,7 +6813,7 @@
         <v>23</v>
       </c>
       <c r="AC52" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -6869,13 +6869,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H53" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I53" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J53" t="n">
         <v>1.07</v>
@@ -6914,7 +6914,7 @@
         <v>34</v>
       </c>
       <c r="V53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W53" t="n">
         <v>81</v>
@@ -6929,10 +6929,10 @@
         <v>8.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC53" t="n">
         <v>81</v>
@@ -9037,37 +9037,37 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.9</v>
+        <v>4.45</v>
       </c>
       <c r="H71" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I71" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="J71" t="n">
         <v>1.03</v>
       </c>
       <c r="K71" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="L71" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M71" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="N71" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O71" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="P71" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q71" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="R71" t="n">
         <v>1.52</v>
@@ -9076,40 +9076,40 @@
         <v>2.37</v>
       </c>
       <c r="T71" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="U71" t="n">
+        <v>32</v>
+      </c>
+      <c r="V71" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>75</v>
+      </c>
+      <c r="X71" t="n">
         <v>35</v>
       </c>
-      <c r="V71" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="W71" t="n">
-        <v>90</v>
-      </c>
-      <c r="X71" t="n">
-        <v>40</v>
-      </c>
       <c r="Y71" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z71" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB71" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC71" t="n">
         <v>40</v>
       </c>
       <c r="AD71" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE71" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF71" t="n">
         <v>10</v>
@@ -9118,13 +9118,13 @@
         <v>8.25</v>
       </c>
       <c r="AH71" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI71" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AJ71" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -9159,90 +9159,94 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="H72" t="n">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="I72" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>5.4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K72" t="n">
+        <v>9.75</v>
+      </c>
       <c r="L72" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="M72" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="N72" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="O72" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="P72" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="Q72" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="R72" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="S72" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="T72" t="n">
         <v>11.5</v>
       </c>
       <c r="U72" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="V72" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W72" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X72" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="Y72" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z72" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE72" t="n">
         <v>25</v>
       </c>
-      <c r="AA72" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>175</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>35</v>
-      </c>
       <c r="AF72" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AG72" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AH72" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AI72" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AJ72" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -12992,16 +12996,16 @@
         <v>13</v>
       </c>
       <c r="L104" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M104" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N104" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O104" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P104" t="n">
         <v>1.36</v>
@@ -13343,7 +13347,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H107" t="n">
         <v>3.5</v>
@@ -13364,16 +13368,16 @@
         <v>3</v>
       </c>
       <c r="N107" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O107" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P107" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R107" t="n">
         <v>2.1</v>
@@ -13831,19 +13835,19 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H111" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J111" t="n">
         <v>1.03</v>
       </c>
       <c r="K111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L111" t="n">
         <v>1.17</v>
@@ -13864,31 +13868,31 @@
         <v>3.5</v>
       </c>
       <c r="R111" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S111" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T111" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U111" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V111" t="n">
         <v>9</v>
       </c>
       <c r="W111" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X111" t="n">
         <v>11</v>
       </c>
       <c r="Y111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z111" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA111" t="n">
         <v>10</v>
@@ -13897,10 +13901,10 @@
         <v>21</v>
       </c>
       <c r="AC111" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD111" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE111" t="n">
         <v>26</v>
@@ -13909,16 +13913,16 @@
         <v>51</v>
       </c>
       <c r="AG111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH111" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI111" t="n">
         <v>67</v>
       </c>
       <c r="AJ111" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112">
@@ -13959,7 +13963,7 @@
         <v>3.1</v>
       </c>
       <c r="I112" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J112" t="n">
         <v>1.07</v>
@@ -13986,16 +13990,16 @@
         <v>2.63</v>
       </c>
       <c r="R112" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S112" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T112" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U112" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V112" t="n">
         <v>9</v>
@@ -14010,22 +14014,22 @@
         <v>29</v>
       </c>
       <c r="Z112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA112" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC112" t="n">
         <v>51</v>
       </c>
       <c r="AD112" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE112" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF112" t="n">
         <v>26</v>
@@ -14040,7 +14044,7 @@
         <v>41</v>
       </c>
       <c r="AJ112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113">
@@ -15295,22 +15299,22 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>3.1</v>
       </c>
       <c r="I123" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J123" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K123" t="n">
         <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M123" t="n">
         <v>2.75</v>
@@ -15322,10 +15326,10 @@
         <v>1.6</v>
       </c>
       <c r="P123" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R123" t="n">
         <v>1.95</v>
@@ -15337,10 +15341,10 @@
         <v>6.5</v>
       </c>
       <c r="U123" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V123" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W123" t="n">
         <v>21</v>
@@ -15367,19 +15371,19 @@
         <v>401</v>
       </c>
       <c r="AE123" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH123" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI123" t="n">
         <v>34</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>29</v>
       </c>
       <c r="AJ123" t="n">
         <v>41</v>
@@ -18711,13 +18715,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="H151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I151" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J151" t="n">
         <v>1.02</v>
@@ -18732,16 +18736,16 @@
         <v>5</v>
       </c>
       <c r="N151" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O151" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P151" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q151" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R151" t="n">
         <v>2.5</v>
@@ -18750,13 +18754,13 @@
         <v>1.5</v>
       </c>
       <c r="T151" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U151" t="n">
         <v>6</v>
       </c>
       <c r="V151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W151" t="n">
         <v>6.5</v>
@@ -18765,13 +18769,13 @@
         <v>12</v>
       </c>
       <c r="Y151" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z151" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA151" t="n">
         <v>17</v>
-      </c>
-      <c r="AA151" t="n">
-        <v>15</v>
       </c>
       <c r="AB151" t="n">
         <v>41</v>
@@ -18789,16 +18793,16 @@
         <v>51</v>
       </c>
       <c r="AG151" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH151" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI151" t="n">
         <v>81</v>
       </c>
       <c r="AJ151" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152">
@@ -20268,7 +20272,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>C4HQlxNj</t>
+          <t>vHhLAJqA</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -20288,109 +20292,109 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K164" t="n">
+        <v>12</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M164" t="n">
+        <v>4</v>
+      </c>
+      <c r="N164" t="n">
         <v>1.8</v>
       </c>
-      <c r="H164" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I164" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J164" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K164" t="n">
-        <v>10</v>
-      </c>
-      <c r="L164" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M164" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N164" t="n">
-        <v>2.05</v>
-      </c>
       <c r="O164" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="P164" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R164" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="S164" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="T164" t="n">
+        <v>9</v>
+      </c>
+      <c r="U164" t="n">
+        <v>12</v>
+      </c>
+      <c r="V164" t="n">
+        <v>9</v>
+      </c>
+      <c r="W164" t="n">
+        <v>21</v>
+      </c>
+      <c r="X164" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA164" t="n">
         <v>6.5</v>
       </c>
-      <c r="U164" t="n">
-        <v>8</v>
-      </c>
-      <c r="V164" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W164" t="n">
-        <v>15</v>
-      </c>
-      <c r="X164" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y164" t="n">
+      <c r="AB164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ164" t="n">
         <v>29</v>
-      </c>
-      <c r="Z164" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC164" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH164" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ164" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>vHhLAJqA</t>
+          <t>UR2b24AE</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -20400,86 +20404,86 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K165" t="n">
+        <v>15</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M165" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O165" t="n">
         <v>2.2</v>
       </c>
-      <c r="H165" t="n">
+      <c r="P165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q165" t="n">
         <v>3.4</v>
       </c>
-      <c r="I165" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J165" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K165" t="n">
-        <v>12</v>
-      </c>
-      <c r="L165" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M165" t="n">
-        <v>4</v>
-      </c>
-      <c r="N165" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O165" t="n">
-        <v>2</v>
-      </c>
-      <c r="P165" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>3</v>
-      </c>
       <c r="R165" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S165" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T165" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U165" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V165" t="n">
         <v>9</v>
       </c>
       <c r="W165" t="n">
+        <v>19</v>
+      </c>
+      <c r="X165" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y165" t="n">
         <v>21</v>
       </c>
-      <c r="X165" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>23</v>
-      </c>
       <c r="Z165" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA165" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB165" t="n">
         <v>12</v>
@@ -20488,22 +20492,22 @@
         <v>41</v>
       </c>
       <c r="AD165" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE165" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF165" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG165" t="n">
         <v>12</v>
       </c>
       <c r="AH165" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI165" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ165" t="n">
         <v>29</v>
@@ -20512,7 +20516,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>UR2b24AE</t>
+          <t>xh660ruR</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -20522,7 +20526,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -20532,46 +20536,46 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="H166" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I166" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="J166" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K166" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L166" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M166" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N166" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O166" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P166" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q166" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R166" t="n">
         <v>1.57</v>
@@ -20580,28 +20584,28 @@
         <v>2.25</v>
       </c>
       <c r="T166" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="U166" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="V166" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W166" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="X166" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y166" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z166" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA166" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB166" t="n">
         <v>12</v>
@@ -20613,28 +20617,28 @@
         <v>126</v>
       </c>
       <c r="AE166" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF166" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH166" t="n">
         <v>21</v>
       </c>
-      <c r="AG166" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH166" t="n">
-        <v>41</v>
-      </c>
       <c r="AI166" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AJ166" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>xh660ruR</t>
+          <t>MPsweM2l</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -20654,73 +20658,73 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="H167" t="n">
         <v>3.4</v>
       </c>
       <c r="I167" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K167" t="n">
+        <v>11</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>3</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S167" t="n">
         <v>2.2</v>
       </c>
-      <c r="J167" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K167" t="n">
+      <c r="T167" t="n">
+        <v>10</v>
+      </c>
+      <c r="U167" t="n">
         <v>13</v>
       </c>
-      <c r="L167" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M167" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N167" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O167" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P167" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R167" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S167" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T167" t="n">
+      <c r="V167" t="n">
+        <v>10</v>
+      </c>
+      <c r="W167" t="n">
+        <v>26</v>
+      </c>
+      <c r="X167" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z167" t="n">
         <v>12</v>
-      </c>
-      <c r="U167" t="n">
-        <v>17</v>
-      </c>
-      <c r="V167" t="n">
-        <v>12</v>
-      </c>
-      <c r="W167" t="n">
-        <v>34</v>
-      </c>
-      <c r="X167" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y167" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z167" t="n">
-        <v>13</v>
       </c>
       <c r="AA167" t="n">
         <v>6.5</v>
@@ -20732,31 +20736,31 @@
         <v>41</v>
       </c>
       <c r="AD167" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE167" t="n">
         <v>10</v>
       </c>
       <c r="AF167" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG167" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH167" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI167" t="n">
         <v>21</v>
       </c>
-      <c r="AI167" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ167" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MPsweM2l</t>
+          <t>tMUweDl5</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -20766,119 +20770,119 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H168" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I168" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J168" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K168" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="L168" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M168" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N168" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O168" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="P168" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q168" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="R168" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S168" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T168" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U168" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V168" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W168" t="n">
+        <v>29</v>
+      </c>
+      <c r="X168" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB168" t="n">
         <v>13</v>
       </c>
-      <c r="V168" t="n">
-        <v>10</v>
-      </c>
-      <c r="W168" t="n">
-        <v>26</v>
-      </c>
-      <c r="X168" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z168" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA168" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB168" t="n">
-        <v>12</v>
-      </c>
       <c r="AC168" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AD168" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="AE168" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF168" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG168" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH168" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI168" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ168" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>tMUweDl5</t>
+          <t>ldk3ElXr</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -20888,119 +20892,119 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Nakhon Pathom</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Port MTI FC</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="H169" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I169" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="J169" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K169" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="L169" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="M169" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="N169" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="O169" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="P169" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="Q169" t="n">
-        <v>2.67</v>
+        <v>3.05</v>
       </c>
       <c r="R169" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="S169" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="T169" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="U169" t="n">
         <v>13.5</v>
       </c>
       <c r="V169" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W169" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X169" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y169" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Z169" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AA169" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB169" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC169" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AD169" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AE169" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AF169" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG169" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH169" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI169" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AJ169" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ldk3ElXr</t>
+          <t>xQopYQAk</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -21010,7 +21014,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -21020,46 +21024,46 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Nakhon Pathom</t>
+          <t>Muang Thong Utd</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Port MTI FC</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I170" t="n">
-        <v>2.72</v>
+        <v>4.75</v>
       </c>
       <c r="J170" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K170" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="L170" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="M170" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="N170" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="O170" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="P170" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="Q170" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="R170" t="n">
         <v>1.52</v>
@@ -21068,31 +21072,31 @@
         <v>2.37</v>
       </c>
       <c r="T170" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="U170" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V170" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W170" t="n">
         <v>13.5</v>
       </c>
-      <c r="V170" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W170" t="n">
-        <v>25</v>
-      </c>
       <c r="X170" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="Y170" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Z170" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA170" t="n">
-        <v>7.1</v>
+        <v>8.75</v>
       </c>
       <c r="AB170" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC170" t="n">
         <v>40</v>
@@ -21101,28 +21105,28 @@
         <v>200</v>
       </c>
       <c r="AE170" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AF170" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AG170" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="AH170" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ170" t="n">
         <v>32</v>
-      </c>
-      <c r="AI170" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ170" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>xQopYQAk</t>
+          <t>n3BrB0mT</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -21132,119 +21136,119 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Muang Thong Utd</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H171" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I171" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J171" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K171" t="n">
+        <v>21</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O171" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>4</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S171" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T171" t="n">
+        <v>12</v>
+      </c>
+      <c r="U171" t="n">
+        <v>11</v>
+      </c>
+      <c r="V171" t="n">
+        <v>9</v>
+      </c>
+      <c r="W171" t="n">
+        <v>15</v>
+      </c>
+      <c r="X171" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA171" t="n">
         <v>9.5</v>
-      </c>
-      <c r="L171" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M171" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="N171" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="O171" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="P171" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="R171" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S171" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="T171" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="U171" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="V171" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W171" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X171" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y171" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z171" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA171" t="n">
-        <v>8.75</v>
       </c>
       <c r="AB171" t="n">
         <v>13</v>
       </c>
       <c r="AC171" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AD171" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AE171" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF171" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AG171" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH171" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AI171" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AJ171" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>n3BrB0mT</t>
+          <t>Yu5SErl4</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -21264,79 +21268,79 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.58</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="I172" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="J172" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K172" t="n">
+        <v>15</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M172" t="n">
+        <v>5</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T172" t="n">
+        <v>11</v>
+      </c>
+      <c r="U172" t="n">
+        <v>13</v>
+      </c>
+      <c r="V172" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W172" t="n">
         <v>21</v>
       </c>
-      <c r="L172" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M172" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N172" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O172" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="P172" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>4</v>
-      </c>
-      <c r="R172" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S172" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T172" t="n">
-        <v>12</v>
-      </c>
-      <c r="U172" t="n">
+      <c r="X172" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB172" t="n">
         <v>11</v>
-      </c>
-      <c r="V172" t="n">
-        <v>9</v>
-      </c>
-      <c r="W172" t="n">
-        <v>15</v>
-      </c>
-      <c r="X172" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y172" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z172" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA172" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB172" t="n">
-        <v>13</v>
       </c>
       <c r="AC172" t="n">
         <v>34</v>
@@ -21345,28 +21349,28 @@
         <v>101</v>
       </c>
       <c r="AE172" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI172" t="n">
         <v>21</v>
       </c>
-      <c r="AF172" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG172" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH172" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI172" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ172" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Yu5SErl4</t>
+          <t>pKOXh1Rp</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -21376,7 +21380,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -21386,28 +21390,28 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H173" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="J173" t="n">
         <v>1.03</v>
       </c>
       <c r="K173" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L173" t="n">
         <v>1.17</v>
@@ -21416,79 +21420,79 @@
         <v>5</v>
       </c>
       <c r="N173" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O173" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P173" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q173" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R173" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="S173" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="T173" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="U173" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="V173" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="W173" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="X173" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Y173" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="Z173" t="n">
         <v>15</v>
       </c>
       <c r="AA173" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB173" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH173" t="n">
         <v>11</v>
       </c>
-      <c r="AC173" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD173" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE173" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF173" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG173" t="n">
+      <c r="AI173" t="n">
         <v>11</v>
       </c>
-      <c r="AH173" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI173" t="n">
+      <c r="AJ173" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ173" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>pKOXh1Rp</t>
+          <t>QF1KG4Ji</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -21508,46 +21512,46 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="I174" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="J174" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K174" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L174" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M174" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N174" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="O174" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="P174" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q174" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R174" t="n">
         <v>1.67</v>
@@ -21556,31 +21560,31 @@
         <v>2.1</v>
       </c>
       <c r="T174" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="U174" t="n">
-        <v>34</v>
+        <v>9.5</v>
       </c>
       <c r="V174" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="W174" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="X174" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="Y174" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z174" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA174" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB174" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC174" t="n">
         <v>41</v>
@@ -21589,28 +21593,28 @@
         <v>151</v>
       </c>
       <c r="AE174" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF174" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AG174" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AH174" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AI174" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AJ174" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>QF1KG4Ji</t>
+          <t>4KN3flUG</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -21620,119 +21624,119 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Vorskla Poltava</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H175" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="I175" t="n">
-        <v>4</v>
+        <v>2.18</v>
       </c>
       <c r="J175" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="K175" t="n">
-        <v>13</v>
+        <v>4.45</v>
       </c>
       <c r="L175" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="M175" t="n">
-        <v>4</v>
+        <v>2.12</v>
       </c>
       <c r="N175" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="O175" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="P175" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q175" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R175" t="n">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="S175" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="T175" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U175" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="V175" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="W175" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="X175" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="Y175" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="Z175" t="n">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="AA175" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AB175" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AC175" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AD175" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE175" t="n">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="AF175" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH175" t="n">
         <v>21</v>
       </c>
-      <c r="AG175" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH175" t="n">
-        <v>41</v>
-      </c>
       <c r="AI175" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AJ175" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>4KN3flUG</t>
+          <t>6aj8I4nK</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -21742,7 +21746,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -21752,76 +21756,76 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Livyi Bereg</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H176" t="n">
-        <v>2.82</v>
+        <v>2.47</v>
       </c>
       <c r="I176" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="J176" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K176" t="n">
-        <v>4.45</v>
+        <v>3.9</v>
       </c>
       <c r="L176" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="M176" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="N176" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="O176" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="P176" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R176" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S176" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T176" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="U176" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V176" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W176" t="n">
+        <v>70</v>
+      </c>
+      <c r="X176" t="n">
         <v>55</v>
       </c>
-      <c r="X176" t="n">
-        <v>45</v>
-      </c>
       <c r="Y176" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Z176" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="AA176" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="AB176" t="n">
         <v>20</v>
@@ -21833,28 +21837,28 @@
         <v>101</v>
       </c>
       <c r="AE176" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AF176" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AG176" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH176" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AI176" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AJ176" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6aj8I4nK</t>
+          <t>dWsH15yp</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -21864,7 +21868,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -21874,109 +21878,105 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>FK Zorya Luhansk</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Veres-Rivne</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.85</v>
+        <v>2.65</v>
       </c>
       <c r="H177" t="n">
-        <v>2.47</v>
+        <v>3.15</v>
       </c>
       <c r="I177" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K177" t="n">
-        <v>3.9</v>
-      </c>
+        <v>2.52</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="M177" t="n">
-        <v>1.98</v>
+        <v>2.95</v>
       </c>
       <c r="N177" t="n">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="O177" t="n">
-        <v>1.31</v>
+        <v>1.72</v>
       </c>
       <c r="P177" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="Q177" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="R177" t="n">
-        <v>2.22</v>
+        <v>1.7</v>
       </c>
       <c r="S177" t="n">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="T177" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="U177" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="V177" t="n">
-        <v>14.5</v>
+        <v>9.75</v>
       </c>
       <c r="W177" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="X177" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="Y177" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="Z177" t="n">
-        <v>4.1</v>
+        <v>9.25</v>
       </c>
       <c r="AA177" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB177" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AC177" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AD177" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AE177" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="AF177" t="n">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG177" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH177" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI177" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AJ177" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>dWsH15yp</t>
+          <t>AsS9IweA</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -21986,115 +21986,119 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="H178" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I178" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K178" t="n">
+        <v>7.5</v>
+      </c>
       <c r="L178" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="M178" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="N178" t="n">
-        <v>1.88</v>
+        <v>2.35</v>
       </c>
       <c r="O178" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="P178" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="Q178" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="R178" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="S178" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="T178" t="n">
+        <v>6</v>
+      </c>
+      <c r="U178" t="n">
         <v>9</v>
       </c>
-      <c r="U178" t="n">
-        <v>14</v>
-      </c>
       <c r="V178" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W178" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="X178" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y178" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z178" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="AA178" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB178" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG178" t="n">
         <v>13</v>
       </c>
-      <c r="AC178" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD178" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE178" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF178" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG178" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH178" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AI178" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AJ178" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>AsS9IweA</t>
+          <t>reQHGHPM</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -22104,7 +22108,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -22114,109 +22118,109 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="J179" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K179" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M179" t="n">
+        <v>3</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P179" t="n">
         <v>1.44</v>
       </c>
-      <c r="M179" t="n">
+      <c r="Q179" t="n">
         <v>2.63</v>
       </c>
-      <c r="N179" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O179" t="n">
+      <c r="R179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S179" t="n">
         <v>1.57</v>
       </c>
-      <c r="P179" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R179" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S179" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T179" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U179" t="n">
         <v>6</v>
       </c>
-      <c r="U179" t="n">
+      <c r="V179" t="n">
         <v>9</v>
       </c>
-      <c r="V179" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W179" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="X179" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y179" t="n">
         <v>34</v>
       </c>
       <c r="Z179" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA179" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB179" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC179" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD179" t="n">
-        <v>1250</v>
+        <v>101</v>
       </c>
       <c r="AE179" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AF179" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AG179" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH179" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AI179" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AJ179" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>reQHGHPM</t>
+          <t>EFY0KaQc</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -22226,7 +22230,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -22236,109 +22240,109 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.53</v>
+        <v>3.1</v>
       </c>
       <c r="H180" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="I180" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="J180" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K180" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L180" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M180" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N180" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O180" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="P180" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q180" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R180" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="S180" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="T180" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="U180" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V180" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W180" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="X180" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y180" t="n">
         <v>34</v>
       </c>
       <c r="Z180" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE180" t="n">
         <v>8</v>
       </c>
-      <c r="AA180" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB180" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC180" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD180" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE180" t="n">
-        <v>12</v>
-      </c>
       <c r="AF180" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AG180" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH180" t="n">
         <v>21</v>
       </c>
-      <c r="AH180" t="n">
-        <v>67</v>
-      </c>
       <c r="AI180" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AJ180" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>EFY0KaQc</t>
+          <t>jRApJ4tP</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -22348,119 +22352,119 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="H181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K181" t="n">
+        <v>13</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q181" t="n">
         <v>3.25</v>
       </c>
-      <c r="I181" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K181" t="n">
-        <v>10</v>
-      </c>
-      <c r="L181" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M181" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N181" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O181" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P181" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R181" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="S181" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T181" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U181" t="n">
+        <v>11</v>
+      </c>
+      <c r="V181" t="n">
+        <v>9</v>
+      </c>
+      <c r="W181" t="n">
+        <v>19</v>
+      </c>
+      <c r="X181" t="n">
         <v>15</v>
       </c>
-      <c r="V181" t="n">
+      <c r="Y181" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB181" t="n">
         <v>12</v>
-      </c>
-      <c r="W181" t="n">
-        <v>34</v>
-      </c>
-      <c r="X181" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y181" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z181" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA181" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB181" t="n">
-        <v>13</v>
       </c>
       <c r="AC181" t="n">
         <v>41</v>
       </c>
       <c r="AD181" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AE181" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF181" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AG181" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH181" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AI181" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ181" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>jRApJ4tP</t>
+          <t>WKShNGht</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -22470,7 +22474,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -22480,109 +22484,109 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="H182" t="n">
         <v>3.6</v>
       </c>
       <c r="I182" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K182" t="n">
+        <v>17</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M182" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P182" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q182" t="n">
         <v>3.5</v>
       </c>
-      <c r="J182" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K182" t="n">
-        <v>13</v>
-      </c>
-      <c r="L182" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M182" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N182" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O182" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P182" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>3.25</v>
-      </c>
       <c r="R182" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="S182" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="T182" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="U182" t="n">
+        <v>19</v>
+      </c>
+      <c r="V182" t="n">
         <v>11</v>
       </c>
-      <c r="V182" t="n">
-        <v>9</v>
-      </c>
       <c r="W182" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X182" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y182" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z182" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA182" t="n">
         <v>7</v>
       </c>
       <c r="AB182" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE182" t="n">
         <v>12</v>
       </c>
-      <c r="AC182" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD182" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE182" t="n">
-        <v>13</v>
-      </c>
       <c r="AF182" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG182" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AH182" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AI182" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AJ182" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>WKShNGht</t>
+          <t>4YQ0LfNh</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -22592,7 +22596,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -22602,109 +22606,109 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>St. Louis City</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="H183" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I183" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="J183" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K183" t="n">
+        <v>11</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M183" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T183" t="n">
+        <v>10</v>
+      </c>
+      <c r="U183" t="n">
+        <v>15</v>
+      </c>
+      <c r="V183" t="n">
+        <v>10</v>
+      </c>
+      <c r="W183" t="n">
+        <v>29</v>
+      </c>
+      <c r="X183" t="n">
         <v>21</v>
       </c>
-      <c r="L183" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M183" t="n">
-        <v>6</v>
-      </c>
-      <c r="N183" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O183" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P183" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q183" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R183" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S183" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T183" t="n">
-        <v>17</v>
-      </c>
-      <c r="U183" t="n">
-        <v>21</v>
-      </c>
-      <c r="V183" t="n">
-        <v>13</v>
-      </c>
-      <c r="W183" t="n">
+      <c r="Y183" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC183" t="n">
         <v>41</v>
       </c>
-      <c r="X183" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y183" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z183" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA183" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB183" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC183" t="n">
-        <v>29</v>
-      </c>
       <c r="AD183" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AE183" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AF183" t="n">
         <v>13</v>
       </c>
       <c r="AG183" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH183" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI183" t="n">
         <v>21</v>
       </c>
-      <c r="AI183" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ183" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>4YQ0LfNh</t>
+          <t>AT01BXYg</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -22714,119 +22718,119 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>El Paso</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="H184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I184" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I184" t="n">
-        <v>2.6</v>
       </c>
       <c r="J184" t="n">
         <v>1.05</v>
       </c>
       <c r="K184" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L184" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M184" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="N184" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="O184" t="n">
         <v>2</v>
       </c>
       <c r="P184" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R184" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S184" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T184" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U184" t="n">
         <v>10</v>
       </c>
-      <c r="U184" t="n">
+      <c r="V184" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W184" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X184" t="n">
         <v>15</v>
       </c>
-      <c r="V184" t="n">
-        <v>10</v>
-      </c>
-      <c r="W184" t="n">
-        <v>29</v>
-      </c>
-      <c r="X184" t="n">
-        <v>21</v>
-      </c>
       <c r="Y184" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z184" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA184" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB184" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC184" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AD184" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AE184" t="n">
-        <v>9.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF184" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AG184" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH184" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AI184" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AJ184" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>AT01BXYg</t>
+          <t>6FjClkiC</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -22841,114 +22845,110 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>El Paso</t>
+          <t>Anzoategui FC</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="H185" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="I185" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J185" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K185" t="n">
-        <v>7.8</v>
-      </c>
+        <v>5.9</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="M185" t="n">
-        <v>3.45</v>
+        <v>2.42</v>
       </c>
       <c r="N185" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O185" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="P185" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="Q185" t="n">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="R185" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="S185" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="T185" t="n">
-        <v>8.25</v>
+        <v>4.9</v>
       </c>
       <c r="U185" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="V185" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W185" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X185" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB185" t="n">
         <v>19.5</v>
       </c>
-      <c r="X185" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y185" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z185" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA185" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB185" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC185" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AD185" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="AE185" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF185" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AG185" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AH185" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AI185" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AJ185" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>6FjClkiC</t>
+          <t>KIGo3l65</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -22958,7 +22958,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -22968,36 +22968,40 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Anzoategui FC</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="H186" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="I186" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>2.75</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K186" t="n">
+        <v>6</v>
+      </c>
       <c r="L186" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M186" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="N186" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="O186" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="P186" t="n">
         <v>1.47</v>
@@ -23006,67 +23010,67 @@
         <v>2.32</v>
       </c>
       <c r="R186" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="S186" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="T186" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U186" t="n">
+        <v>13</v>
+      </c>
+      <c r="V186" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W186" t="n">
+        <v>32</v>
+      </c>
+      <c r="X186" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z186" t="n">
         <v>6.5</v>
       </c>
-      <c r="V186" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W186" t="n">
-        <v>12</v>
-      </c>
-      <c r="X186" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y186" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z186" t="n">
+      <c r="AA186" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE186" t="n">
         <v>6.7</v>
       </c>
-      <c r="AA186" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB186" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC186" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD186" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE186" t="n">
+      <c r="AF186" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF186" t="n">
-        <v>37</v>
-      </c>
       <c r="AG186" t="n">
-        <v>20</v>
+        <v>10.75</v>
       </c>
       <c r="AH186" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="AI186" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AJ186" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>KIGo3l65</t>
+          <t>IgKU6W6t</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -23076,7 +23080,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -23086,22 +23090,22 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Zamora</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H187" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I187" t="n">
-        <v>2.82</v>
+        <v>2.4</v>
       </c>
       <c r="J187" t="n">
         <v>1.11</v>
@@ -23110,76 +23114,76 @@
         <v>6</v>
       </c>
       <c r="L187" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M187" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N187" t="n">
         <v>2.4</v>
       </c>
-      <c r="N187" t="n">
-        <v>2.27</v>
-      </c>
       <c r="O187" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P187" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="Q187" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="R187" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S187" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T187" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="U187" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="V187" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W187" t="n">
+        <v>40</v>
+      </c>
+      <c r="X187" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG187" t="n">
         <v>10</v>
       </c>
-      <c r="W187" t="n">
-        <v>30</v>
-      </c>
-      <c r="X187" t="n">
+      <c r="AH187" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI187" t="n">
         <v>25</v>
-      </c>
-      <c r="Y187" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z187" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA187" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB187" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC187" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD187" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE187" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF187" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG187" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH187" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI187" t="n">
-        <v>29</v>
       </c>
       <c r="AJ187" t="n">
         <v>45</v>
@@ -23188,7 +23192,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>IgKU6W6t</t>
+          <t>CCXdzybm</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -23198,119 +23202,119 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.1</v>
+        <v>1.72</v>
       </c>
       <c r="H188" t="n">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="I188" t="n">
-        <v>2.4</v>
+        <v>4.15</v>
       </c>
       <c r="J188" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="K188" t="n">
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="L188" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="M188" t="n">
-        <v>2.27</v>
+        <v>3.8</v>
       </c>
       <c r="N188" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O188" t="n">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="P188" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="Q188" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="R188" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="S188" t="n">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="T188" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U188" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V188" t="n">
+        <v>8</v>
+      </c>
+      <c r="W188" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X188" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA188" t="n">
         <v>7.3</v>
       </c>
-      <c r="U188" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="V188" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W188" t="n">
-        <v>40</v>
-      </c>
-      <c r="X188" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y188" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z188" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA188" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AB188" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC188" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AD188" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AE188" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AF188" t="n">
-        <v>10.25</v>
+        <v>26</v>
       </c>
       <c r="AG188" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AH188" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AI188" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AJ188" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CCXdzybm</t>
+          <t>82szygW7</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -23330,76 +23334,76 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Caernarfon</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="H189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K189" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M189" t="n">
         <v>3.6</v>
       </c>
-      <c r="I189" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J189" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K189" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="L189" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M189" t="n">
-        <v>3.8</v>
-      </c>
       <c r="N189" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O189" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P189" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q189" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R189" t="n">
         <v>1.65</v>
       </c>
       <c r="S189" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T189" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U189" t="n">
         <v>9.25</v>
       </c>
       <c r="V189" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W189" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X189" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y189" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z189" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA189" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AB189" t="n">
         <v>13.5</v>
@@ -23408,146 +23412,24 @@
         <v>55</v>
       </c>
       <c r="AD189" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE189" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF189" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG189" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH189" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI189" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ189" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>82szygW7</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>13/04/2025</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Penybont</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Caernarfon</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H190" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J190" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K190" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="L190" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M190" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N190" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O190" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P190" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q190" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R190" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S190" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T190" t="n">
-        <v>8</v>
-      </c>
-      <c r="U190" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="V190" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W190" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X190" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y190" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z190" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA190" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AB190" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC190" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD190" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE190" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF190" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG190" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH190" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI190" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ190" t="n">
         <v>37</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ189"/>
+  <dimension ref="A1:AJ190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.1</v>
@@ -3010,7 +3010,7 @@
         <v>5.5</v>
       </c>
       <c r="V21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
         <v>9.5</v>
@@ -3025,10 +3025,10 @@
         <v>6.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
         <v>151</v>
@@ -3087,31 +3087,31 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N22" t="n">
         <v>2.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -3120,25 +3120,25 @@
         <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V22" t="n">
         <v>8.5</v>
       </c>
       <c r="W22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>29</v>
@@ -3147,34 +3147,34 @@
         <v>9.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD22" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J36" t="n">
         <v>1.03</v>
@@ -4840,13 +4840,13 @@
         <v>13</v>
       </c>
       <c r="V36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W36" t="n">
         <v>23</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>23</v>
@@ -4867,7 +4867,7 @@
         <v>126</v>
       </c>
       <c r="AE36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF36" t="n">
         <v>15</v>
@@ -4876,10 +4876,10 @@
         <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="n">
         <v>23</v>
@@ -5283,13 +5283,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J40" t="n">
         <v>1.11</v>
@@ -5298,16 +5298,16 @@
         <v>6.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M40" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O40" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P40" t="n">
         <v>1.57</v>
@@ -5316,22 +5316,22 @@
         <v>2.25</v>
       </c>
       <c r="R40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T40" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V40" t="n">
         <v>9.5</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
         <v>19</v>
@@ -5343,10 +5343,10 @@
         <v>6.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
         <v>81</v>
@@ -5355,19 +5355,19 @@
         <v>501</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH40" t="n">
         <v>51</v>
       </c>
       <c r="AI40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ40" t="n">
         <v>51</v>
@@ -5408,10 +5408,10 @@
         <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J41" t="n">
         <v>1.08</v>
@@ -5426,10 +5426,10 @@
         <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P41" t="n">
         <v>1.5</v>
@@ -5438,13 +5438,13 @@
         <v>2.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S41" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U41" t="n">
         <v>13</v>
@@ -5453,13 +5453,13 @@
         <v>11</v>
       </c>
       <c r="W41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X41" t="n">
         <v>26</v>
       </c>
       <c r="Y41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z41" t="n">
         <v>8</v>
@@ -5474,13 +5474,13 @@
         <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG41" t="n">
         <v>10</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H42" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J42" t="n">
         <v>1.08</v>
@@ -5560,22 +5560,22 @@
         <v>2.5</v>
       </c>
       <c r="R42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S42" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T42" t="n">
         <v>5.5</v>
       </c>
       <c r="U42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V42" t="n">
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -5584,7 +5584,7 @@
         <v>34</v>
       </c>
       <c r="Z42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA42" t="n">
         <v>7.5</v>
@@ -5614,7 +5614,7 @@
         <v>51</v>
       </c>
       <c r="AJ42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
@@ -5893,13 +5893,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
         <v>1.11</v>
@@ -5965,16 +5965,16 @@
         <v>101</v>
       </c>
       <c r="AE45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG45" t="n">
         <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
         <v>29</v>
@@ -6625,64 +6625,64 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="J51" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L51" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N51" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P51" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R51" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T51" t="n">
         <v>7.5</v>
       </c>
       <c r="U51" t="n">
+        <v>13</v>
+      </c>
+      <c r="V51" t="n">
         <v>12</v>
       </c>
-      <c r="V51" t="n">
-        <v>11</v>
-      </c>
       <c r="W51" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X51" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y51" t="n">
         <v>41</v>
       </c>
       <c r="Z51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA51" t="n">
         <v>6</v>
@@ -6691,22 +6691,22 @@
         <v>17</v>
       </c>
       <c r="AC51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD51" t="n">
         <v>351</v>
       </c>
       <c r="AE51" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI51" t="n">
         <v>23</v>
@@ -6759,7 +6759,7 @@
         <v>1.08</v>
       </c>
       <c r="K52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L52" t="n">
         <v>1.44</v>
@@ -6878,10 +6878,10 @@
         <v>1.48</v>
       </c>
       <c r="J53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K53" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L53" t="n">
         <v>1.33</v>
@@ -6890,10 +6890,10 @@
         <v>3.25</v>
       </c>
       <c r="N53" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O53" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P53" t="n">
         <v>1.44</v>
@@ -12981,13 +12981,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I104" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J104" t="n">
         <v>1.04</v>
@@ -13008,16 +13008,16 @@
         <v>2.1</v>
       </c>
       <c r="P104" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q104" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R104" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S104" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T104" t="n">
         <v>9</v>
@@ -13026,7 +13026,7 @@
         <v>11</v>
       </c>
       <c r="V104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W104" t="n">
         <v>19</v>
@@ -13035,16 +13035,16 @@
         <v>15</v>
       </c>
       <c r="Y104" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z104" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB104" t="n">
         <v>12</v>
-      </c>
-      <c r="AA104" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB104" t="n">
-        <v>13</v>
       </c>
       <c r="AC104" t="n">
         <v>41</v>
@@ -13053,7 +13053,7 @@
         <v>151</v>
       </c>
       <c r="AE104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF104" t="n">
         <v>19</v>
@@ -13062,7 +13062,7 @@
         <v>12</v>
       </c>
       <c r="AH104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI104" t="n">
         <v>26</v>
@@ -13478,22 +13478,22 @@
         <v>2.45</v>
       </c>
       <c r="J108" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K108" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L108" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M108" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N108" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O108" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P108" t="n">
         <v>1.57</v>
@@ -13957,13 +13957,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H112" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J112" t="n">
         <v>1.07</v>
@@ -13990,22 +13990,22 @@
         <v>2.63</v>
       </c>
       <c r="R112" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S112" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T112" t="n">
         <v>6.5</v>
       </c>
       <c r="U112" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V112" t="n">
         <v>9</v>
       </c>
       <c r="W112" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X112" t="n">
         <v>15</v>
@@ -14017,7 +14017,7 @@
         <v>8</v>
       </c>
       <c r="AA112" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB112" t="n">
         <v>17</v>
@@ -14032,7 +14032,7 @@
         <v>12</v>
       </c>
       <c r="AF112" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG112" t="n">
         <v>17</v>
@@ -14044,7 +14044,7 @@
         <v>41</v>
       </c>
       <c r="AJ112" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113">
@@ -20272,7 +20272,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>vHhLAJqA</t>
+          <t>C4HQlxNj</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -20292,109 +20292,109 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I164" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="J164" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K164" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L164" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M164" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S164" t="n">
         <v>1.8</v>
       </c>
-      <c r="O164" t="n">
-        <v>2</v>
-      </c>
-      <c r="P164" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>3</v>
-      </c>
-      <c r="R164" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S164" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U164" t="n">
+        <v>8</v>
+      </c>
+      <c r="V164" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W164" t="n">
+        <v>15</v>
+      </c>
+      <c r="X164" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z164" t="n">
         <v>9</v>
       </c>
-      <c r="U164" t="n">
-        <v>12</v>
-      </c>
-      <c r="V164" t="n">
-        <v>9</v>
-      </c>
-      <c r="W164" t="n">
+      <c r="AA164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF164" t="n">
         <v>21</v>
       </c>
-      <c r="X164" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y164" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z164" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC164" t="n">
+      <c r="AG164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI164" t="n">
         <v>41</v>
       </c>
-      <c r="AD164" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH164" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ164" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>UR2b24AE</t>
+          <t>vHhLAJqA</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -20404,86 +20404,86 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I165" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J165" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K165" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L165" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M165" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N165" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O165" t="n">
+        <v>2</v>
+      </c>
+      <c r="P165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>3</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S165" t="n">
         <v>2.2</v>
       </c>
-      <c r="P165" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R165" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S165" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T165" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V165" t="n">
         <v>9</v>
       </c>
       <c r="W165" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X165" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y165" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z165" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA165" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB165" t="n">
         <v>12</v>
@@ -20492,22 +20492,22 @@
         <v>41</v>
       </c>
       <c r="AD165" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE165" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF165" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG165" t="n">
         <v>12</v>
       </c>
       <c r="AH165" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI165" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ165" t="n">
         <v>29</v>
@@ -20516,7 +20516,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>xh660ruR</t>
+          <t>UR2b24AE</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -20526,7 +20526,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -20536,46 +20536,46 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="H166" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K166" t="n">
+        <v>15</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M166" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q166" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I166" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J166" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K166" t="n">
-        <v>13</v>
-      </c>
-      <c r="L166" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M166" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N166" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O166" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P166" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>3.25</v>
       </c>
       <c r="R166" t="n">
         <v>1.57</v>
@@ -20584,28 +20584,28 @@
         <v>2.25</v>
       </c>
       <c r="T166" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="U166" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="V166" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="W166" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="X166" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y166" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z166" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA166" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB166" t="n">
         <v>12</v>
@@ -20617,28 +20617,28 @@
         <v>126</v>
       </c>
       <c r="AE166" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF166" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG166" t="n">
         <v>12</v>
       </c>
-      <c r="AG166" t="n">
-        <v>9</v>
-      </c>
       <c r="AH166" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AI166" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ166" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MPsweM2l</t>
+          <t>xh660ruR</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -20658,73 +20658,73 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>3.4</v>
       </c>
       <c r="I167" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="J167" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K167" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L167" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M167" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N167" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="O167" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="P167" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q167" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R167" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S167" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T167" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U167" t="n">
+        <v>17</v>
+      </c>
+      <c r="V167" t="n">
+        <v>12</v>
+      </c>
+      <c r="W167" t="n">
+        <v>34</v>
+      </c>
+      <c r="X167" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z167" t="n">
         <v>13</v>
-      </c>
-      <c r="V167" t="n">
-        <v>10</v>
-      </c>
-      <c r="W167" t="n">
-        <v>26</v>
-      </c>
-      <c r="X167" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y167" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z167" t="n">
-        <v>12</v>
       </c>
       <c r="AA167" t="n">
         <v>6.5</v>
@@ -20736,31 +20736,31 @@
         <v>41</v>
       </c>
       <c r="AD167" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE167" t="n">
         <v>10</v>
       </c>
       <c r="AF167" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG167" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH167" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI167" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ167" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>tMUweDl5</t>
+          <t>MPsweM2l</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -20770,119 +20770,119 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="H168" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I168" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J168" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K168" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="L168" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M168" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N168" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O168" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="P168" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="R168" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S168" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T168" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U168" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V168" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W168" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X168" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y168" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z168" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AA168" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB168" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC168" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD168" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AE168" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF168" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG168" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH168" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI168" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ168" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ldk3ElXr</t>
+          <t>tMUweDl5</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -20892,119 +20892,119 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Nakhon Pathom</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Port MTI FC</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="H169" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I169" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="J169" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K169" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="L169" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="M169" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="N169" t="n">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="O169" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="P169" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="Q169" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="R169" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="S169" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="T169" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="U169" t="n">
         <v>13.5</v>
       </c>
       <c r="V169" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W169" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="X169" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y169" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI169" t="n">
         <v>22</v>
       </c>
-      <c r="Z169" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA169" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB169" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC169" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD169" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE169" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF169" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG169" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH169" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI169" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AJ169" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>xQopYQAk</t>
+          <t>ldk3ElXr</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -21014,7 +21014,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -21024,46 +21024,46 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Muang Thong Utd</t>
+          <t>Nakhon Pathom</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Port MTI FC</t>
         </is>
       </c>
       <c r="G170" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N170" t="n">
         <v>1.6</v>
       </c>
-      <c r="H170" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K170" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L170" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M170" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="N170" t="n">
-        <v>1.47</v>
-      </c>
       <c r="O170" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="P170" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="Q170" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="R170" t="n">
         <v>1.52</v>
@@ -21072,31 +21072,31 @@
         <v>2.37</v>
       </c>
       <c r="T170" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="U170" t="n">
-        <v>9.75</v>
+        <v>13.5</v>
       </c>
       <c r="V170" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="W170" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="X170" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="Y170" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Z170" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA170" t="n">
-        <v>8.75</v>
+        <v>7.1</v>
       </c>
       <c r="AB170" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC170" t="n">
         <v>40</v>
@@ -21105,28 +21105,28 @@
         <v>200</v>
       </c>
       <c r="AE170" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AF170" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AG170" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AH170" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AI170" t="n">
-        <v>37</v>
+        <v>19.5</v>
       </c>
       <c r="AJ170" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>n3BrB0mT</t>
+          <t>xQopYQAk</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -21136,119 +21136,119 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Muang Thong Utd</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I171" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J171" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K171" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="L171" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="M171" t="n">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="N171" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="O171" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="P171" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="Q171" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="R171" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="S171" t="n">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="T171" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="U171" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="V171" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="W171" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="X171" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="Y171" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z171" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="AA171" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB171" t="n">
         <v>13</v>
       </c>
       <c r="AC171" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AD171" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AE171" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF171" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AG171" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH171" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AI171" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AJ171" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Yu5SErl4</t>
+          <t>n3BrB0mT</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -21268,79 +21268,79 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="H172" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="J172" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K172" t="n">
+        <v>21</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M172" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O172" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="P172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>4</v>
+      </c>
+      <c r="R172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S172" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T172" t="n">
+        <v>12</v>
+      </c>
+      <c r="U172" t="n">
+        <v>11</v>
+      </c>
+      <c r="V172" t="n">
+        <v>9</v>
+      </c>
+      <c r="W172" t="n">
         <v>15</v>
       </c>
-      <c r="L172" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M172" t="n">
-        <v>5</v>
-      </c>
-      <c r="N172" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O172" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P172" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R172" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S172" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T172" t="n">
-        <v>11</v>
-      </c>
-      <c r="U172" t="n">
+      <c r="X172" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB172" t="n">
         <v>13</v>
-      </c>
-      <c r="V172" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W172" t="n">
-        <v>21</v>
-      </c>
-      <c r="X172" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y172" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z172" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA172" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB172" t="n">
-        <v>11</v>
       </c>
       <c r="AC172" t="n">
         <v>34</v>
@@ -21349,28 +21349,28 @@
         <v>101</v>
       </c>
       <c r="AE172" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF172" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AG172" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH172" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AI172" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ172" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>pKOXh1Rp</t>
+          <t>Yu5SErl4</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -21380,7 +21380,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -21390,28 +21390,28 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="I173" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J173" t="n">
         <v>1.03</v>
       </c>
       <c r="K173" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L173" t="n">
         <v>1.17</v>
@@ -21420,79 +21420,79 @@
         <v>5</v>
       </c>
       <c r="N173" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O173" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P173" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q173" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R173" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S173" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="T173" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="U173" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="V173" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="W173" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="X173" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="Y173" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Z173" t="n">
         <v>15</v>
       </c>
       <c r="AA173" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AB173" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC173" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD173" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE173" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF173" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AG173" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH173" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AI173" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AJ173" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>QF1KG4Ji</t>
+          <t>pKOXh1Rp</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -21512,46 +21512,46 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H174" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="I174" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J174" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K174" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L174" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N174" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="O174" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="P174" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="Q174" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R174" t="n">
         <v>1.67</v>
@@ -21560,31 +21560,31 @@
         <v>2.1</v>
       </c>
       <c r="T174" t="n">
+        <v>19</v>
+      </c>
+      <c r="U174" t="n">
+        <v>34</v>
+      </c>
+      <c r="V174" t="n">
+        <v>19</v>
+      </c>
+      <c r="W174" t="n">
+        <v>67</v>
+      </c>
+      <c r="X174" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA174" t="n">
         <v>8.5</v>
       </c>
-      <c r="U174" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V174" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W174" t="n">
-        <v>17</v>
-      </c>
-      <c r="X174" t="n">
+      <c r="AB174" t="n">
         <v>15</v>
-      </c>
-      <c r="Y174" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z174" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA174" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB174" t="n">
-        <v>13</v>
       </c>
       <c r="AC174" t="n">
         <v>41</v>
@@ -21593,28 +21593,28 @@
         <v>151</v>
       </c>
       <c r="AE174" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF174" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ174" t="n">
         <v>21</v>
-      </c>
-      <c r="AG174" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH174" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI174" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ174" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>4KN3flUG</t>
+          <t>QF1KG4Ji</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -21624,119 +21624,119 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="I175" t="n">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="J175" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="K175" t="n">
-        <v>4.45</v>
+        <v>13</v>
       </c>
       <c r="L175" t="n">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="M175" t="n">
-        <v>2.12</v>
+        <v>4</v>
       </c>
       <c r="N175" t="n">
-        <v>2.62</v>
+        <v>1.8</v>
       </c>
       <c r="O175" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="P175" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q175" t="n">
+        <v>3</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S175" t="n">
         <v>2.1</v>
       </c>
-      <c r="R175" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S175" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T175" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U175" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V175" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W175" t="n">
         <v>17</v>
       </c>
-      <c r="V175" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="W175" t="n">
-        <v>55</v>
-      </c>
       <c r="X175" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="Y175" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="Z175" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="AA175" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AC175" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AD175" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AE175" t="n">
-        <v>5.2</v>
+        <v>13</v>
       </c>
       <c r="AF175" t="n">
-        <v>8.75</v>
+        <v>21</v>
       </c>
       <c r="AG175" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH175" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AI175" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AJ175" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>6aj8I4nK</t>
+          <t>4KN3flUG</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -21746,7 +21746,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -21756,76 +21756,76 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>Vorskla Poltava</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="H176" t="n">
-        <v>2.47</v>
+        <v>2.82</v>
       </c>
       <c r="I176" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="J176" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K176" t="n">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="L176" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="M176" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="N176" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="O176" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="P176" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R176" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="S176" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T176" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="U176" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V176" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="W176" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="X176" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Y176" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Z176" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AA176" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AB176" t="n">
         <v>20</v>
@@ -21837,28 +21837,28 @@
         <v>101</v>
       </c>
       <c r="AE176" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AF176" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AG176" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH176" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AI176" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AJ176" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>dWsH15yp</t>
+          <t>6aj8I4nK</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -21868,7 +21868,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -21878,105 +21878,109 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Livyi Bereg</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.65</v>
+        <v>3.85</v>
       </c>
       <c r="H177" t="n">
-        <v>3.15</v>
+        <v>2.47</v>
       </c>
       <c r="I177" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>2.35</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K177" t="n">
+        <v>3.9</v>
+      </c>
       <c r="L177" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="M177" t="n">
-        <v>2.95</v>
+        <v>1.98</v>
       </c>
       <c r="N177" t="n">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="O177" t="n">
-        <v>1.72</v>
+        <v>1.31</v>
       </c>
       <c r="P177" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="R177" t="n">
-        <v>1.7</v>
+        <v>2.22</v>
       </c>
       <c r="S177" t="n">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="T177" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="U177" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V177" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>70</v>
+      </c>
+      <c r="X177" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AF177" t="n">
         <v>9.75</v>
       </c>
-      <c r="W177" t="n">
-        <v>32</v>
-      </c>
-      <c r="X177" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y177" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z177" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA177" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB177" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC177" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD177" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE177" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF177" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG177" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH177" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI177" t="n">
         <v>28</v>
       </c>
-      <c r="AI177" t="n">
-        <v>22</v>
-      </c>
       <c r="AJ177" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AsS9IweA</t>
+          <t>dWsH15yp</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -21986,119 +21990,115 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>FK Zorya Luhansk</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Veres-Rivne</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="H178" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I178" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K178" t="n">
-        <v>7.5</v>
-      </c>
+        <v>2.52</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="M178" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="N178" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="O178" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="P178" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Q178" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="R178" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="S178" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="T178" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U178" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="V178" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W178" t="n">
+        <v>32</v>
+      </c>
+      <c r="X178" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG178" t="n">
         <v>9.5</v>
       </c>
-      <c r="W178" t="n">
-        <v>19</v>
-      </c>
-      <c r="X178" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y178" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z178" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA178" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB178" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC178" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD178" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE178" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF178" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG178" t="n">
-        <v>13</v>
-      </c>
       <c r="AH178" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AI178" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AJ178" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>reQHGHPM</t>
+          <t>AsS9IweA</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -22118,109 +22118,109 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="H179" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I179" t="n">
-        <v>6.25</v>
+        <v>3.5</v>
       </c>
       <c r="J179" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K179" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L179" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M179" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N179" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="O179" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S179" t="n">
         <v>1.67</v>
       </c>
-      <c r="P179" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R179" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S179" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T179" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U179" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V179" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W179" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="X179" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y179" t="n">
         <v>34</v>
       </c>
       <c r="Z179" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE179" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA179" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB179" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC179" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD179" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE179" t="n">
+      <c r="AF179" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG179" t="n">
         <v>13</v>
       </c>
-      <c r="AF179" t="n">
+      <c r="AH179" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI179" t="n">
         <v>34</v>
       </c>
-      <c r="AG179" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH179" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI179" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ179" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EFY0KaQc</t>
+          <t>reQHGHPM</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -22240,22 +22240,22 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H180" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>2.2</v>
+        <v>6.25</v>
       </c>
       <c r="J180" t="n">
         <v>1.06</v>
@@ -22264,85 +22264,85 @@
         <v>10</v>
       </c>
       <c r="L180" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M180" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N180" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O180" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="P180" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q180" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R180" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="S180" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="T180" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U180" t="n">
+        <v>6</v>
+      </c>
+      <c r="V180" t="n">
+        <v>9</v>
+      </c>
+      <c r="W180" t="n">
         <v>10</v>
       </c>
-      <c r="U180" t="n">
+      <c r="X180" t="n">
         <v>15</v>
-      </c>
-      <c r="V180" t="n">
-        <v>12</v>
-      </c>
-      <c r="W180" t="n">
-        <v>34</v>
-      </c>
-      <c r="X180" t="n">
-        <v>23</v>
       </c>
       <c r="Y180" t="n">
         <v>34</v>
       </c>
       <c r="Z180" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA180" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB180" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE180" t="n">
         <v>13</v>
       </c>
-      <c r="AC180" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD180" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE180" t="n">
-        <v>8</v>
-      </c>
       <c r="AF180" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AG180" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AH180" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AI180" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AJ180" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>jRApJ4tP</t>
+          <t>EFY0KaQc</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -22352,110 +22352,110 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="H181" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K181" t="n">
+        <v>11</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M181" t="n">
         <v>3.5</v>
       </c>
-      <c r="J181" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K181" t="n">
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S181" t="n">
+        <v>2</v>
+      </c>
+      <c r="T181" t="n">
+        <v>10</v>
+      </c>
+      <c r="U181" t="n">
+        <v>17</v>
+      </c>
+      <c r="V181" t="n">
+        <v>12</v>
+      </c>
+      <c r="W181" t="n">
+        <v>34</v>
+      </c>
+      <c r="X181" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB181" t="n">
         <v>13</v>
-      </c>
-      <c r="L181" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M181" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N181" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O181" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P181" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R181" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S181" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T181" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U181" t="n">
-        <v>11</v>
-      </c>
-      <c r="V181" t="n">
-        <v>9</v>
-      </c>
-      <c r="W181" t="n">
-        <v>19</v>
-      </c>
-      <c r="X181" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y181" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z181" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA181" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB181" t="n">
-        <v>12</v>
       </c>
       <c r="AC181" t="n">
         <v>41</v>
       </c>
       <c r="AD181" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AE181" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AF181" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI181" t="n">
         <v>19</v>
-      </c>
-      <c r="AG181" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH181" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI181" t="n">
-        <v>26</v>
       </c>
       <c r="AJ181" t="n">
         <v>29</v>
@@ -22464,7 +22464,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>WKShNGht</t>
+          <t>jRApJ4tP</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -22474,7 +22474,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -22484,109 +22484,109 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="H182" t="n">
         <v>3.6</v>
       </c>
       <c r="I182" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="J182" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K182" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L182" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M182" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="N182" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="O182" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P182" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q182" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R182" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="S182" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="T182" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U182" t="n">
+        <v>11</v>
+      </c>
+      <c r="V182" t="n">
+        <v>9</v>
+      </c>
+      <c r="W182" t="n">
+        <v>19</v>
+      </c>
+      <c r="X182" t="n">
         <v>15</v>
       </c>
-      <c r="U182" t="n">
-        <v>19</v>
-      </c>
-      <c r="V182" t="n">
-        <v>11</v>
-      </c>
-      <c r="W182" t="n">
-        <v>29</v>
-      </c>
-      <c r="X182" t="n">
+      <c r="Y182" t="n">
         <v>21</v>
       </c>
-      <c r="Y182" t="n">
-        <v>23</v>
-      </c>
       <c r="Z182" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA182" t="n">
         <v>7</v>
       </c>
       <c r="AB182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC182" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ182" t="n">
         <v>29</v>
-      </c>
-      <c r="AD182" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE182" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF182" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG182" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH182" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI182" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ182" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>4YQ0LfNh</t>
+          <t>WKShNGht</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -22596,7 +22596,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -22606,61 +22606,61 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H183" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I183" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="J183" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K183" t="n">
+        <v>17</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M183" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O183" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P183" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S183" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T183" t="n">
+        <v>15</v>
+      </c>
+      <c r="U183" t="n">
+        <v>19</v>
+      </c>
+      <c r="V183" t="n">
         <v>11</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M183" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N183" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O183" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P183" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q183" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R183" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S183" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T183" t="n">
-        <v>10</v>
-      </c>
-      <c r="U183" t="n">
-        <v>15</v>
-      </c>
-      <c r="V183" t="n">
-        <v>10</v>
       </c>
       <c r="W183" t="n">
         <v>29</v>
@@ -22669,46 +22669,46 @@
         <v>21</v>
       </c>
       <c r="Y183" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC183" t="n">
         <v>29</v>
       </c>
-      <c r="Z183" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA183" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB183" t="n">
+      <c r="AD183" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE183" t="n">
         <v>12</v>
       </c>
-      <c r="AC183" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD183" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE183" t="n">
+      <c r="AF183" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG183" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF183" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG183" t="n">
-        <v>10</v>
-      </c>
       <c r="AH183" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI183" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ183" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ183" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AT01BXYg</t>
+          <t>4YQ0LfNh</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -22718,47 +22718,47 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>St. Louis City</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>El Paso</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="H184" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I184" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="J184" t="n">
         <v>1.05</v>
       </c>
       <c r="K184" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L184" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M184" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="N184" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="O184" t="n">
         <v>2</v>
@@ -22767,70 +22767,70 @@
         <v>1.36</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R184" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S184" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T184" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="U184" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="V184" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W184" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="X184" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y184" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z184" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA184" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB184" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC184" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD184" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AE184" t="n">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="AF184" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AG184" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH184" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AI184" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AJ184" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6FjClkiC</t>
+          <t>AT01BXYg</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -22845,110 +22845,114 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Anzoategui FC</t>
+          <t>El Paso</t>
         </is>
       </c>
       <c r="G185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K185" t="n">
+        <v>8</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M185" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O185" t="n">
+        <v>2</v>
+      </c>
+      <c r="P185" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R185" t="n">
         <v>1.65</v>
       </c>
-      <c r="H185" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I185" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M185" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="N185" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O185" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P185" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q185" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R185" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S185" t="n">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="T185" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="U185" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="V185" t="n">
         <v>8.5</v>
       </c>
       <c r="W185" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="X185" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y185" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Z185" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AA185" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AB185" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AC185" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AD185" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AE185" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF185" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="AG185" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AH185" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AI185" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AJ185" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>KIGo3l65</t>
+          <t>6FjClkiC</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -22958,7 +22962,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -22968,40 +22972,36 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Zamora</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Anzoategui FC</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="H186" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="I186" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J186" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K186" t="n">
-        <v>6</v>
-      </c>
+        <v>5.9</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M186" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="N186" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="O186" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P186" t="n">
         <v>1.47</v>
@@ -23010,67 +23010,67 @@
         <v>2.32</v>
       </c>
       <c r="R186" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S186" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="T186" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="U186" t="n">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="V186" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="W186" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="X186" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="Y186" t="n">
         <v>40</v>
       </c>
       <c r="Z186" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA186" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="AB186" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AC186" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD186" t="n">
-        <v>1000</v>
+        <v>101</v>
       </c>
       <c r="AE186" t="n">
-        <v>6.7</v>
+        <v>12.5</v>
       </c>
       <c r="AF186" t="n">
-        <v>12.5</v>
+        <v>35</v>
       </c>
       <c r="AG186" t="n">
-        <v>10.75</v>
+        <v>19</v>
       </c>
       <c r="AH186" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="AI186" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AJ186" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>IgKU6W6t</t>
+          <t>KIGo3l65</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -23090,22 +23090,22 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="H187" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I187" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="J187" t="n">
         <v>1.11</v>
@@ -23114,85 +23114,85 @@
         <v>6</v>
       </c>
       <c r="L187" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P187" t="n">
         <v>1.5</v>
       </c>
-      <c r="M187" t="n">
+      <c r="Q187" t="n">
         <v>2.27</v>
       </c>
-      <c r="N187" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O187" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P187" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q187" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R187" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S187" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T187" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="U187" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="V187" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="W187" t="n">
+        <v>30</v>
+      </c>
+      <c r="X187" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y187" t="n">
         <v>40</v>
       </c>
-      <c r="X187" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y187" t="n">
+      <c r="Z187" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ187" t="n">
         <v>50</v>
-      </c>
-      <c r="Z187" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA187" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB187" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC187" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD187" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE187" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF187" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AG187" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH187" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI187" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ187" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>CCXdzybm</t>
+          <t>IgKU6W6t</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -23202,119 +23202,119 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.72</v>
+        <v>3</v>
       </c>
       <c r="H188" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="I188" t="n">
-        <v>4.15</v>
+        <v>2.57</v>
       </c>
       <c r="J188" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="K188" t="n">
-        <v>8.25</v>
+        <v>5.8</v>
       </c>
       <c r="L188" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="M188" t="n">
-        <v>3.8</v>
+        <v>2.27</v>
       </c>
       <c r="N188" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O188" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="P188" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="Q188" t="n">
-        <v>2.92</v>
+        <v>2.18</v>
       </c>
       <c r="R188" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S188" t="n">
         <v>1.65</v>
       </c>
-      <c r="S188" t="n">
-        <v>2.12</v>
-      </c>
       <c r="T188" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="U188" t="n">
-        <v>9.25</v>
+        <v>14.5</v>
       </c>
       <c r="V188" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W188" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="X188" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Y188" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="Z188" t="n">
-        <v>8.25</v>
+        <v>6.1</v>
       </c>
       <c r="AA188" t="n">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB188" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC188" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AD188" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AE188" t="n">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="AF188" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AG188" t="n">
-        <v>13.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH188" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AI188" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AJ188" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>82szygW7</t>
+          <t>CCXdzybm</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -23334,76 +23334,76 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Caernarfon</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H189" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I189" t="n">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="J189" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K189" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="L189" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M189" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N189" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O189" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P189" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q189" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R189" t="n">
         <v>1.65</v>
       </c>
       <c r="S189" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T189" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U189" t="n">
         <v>9.25</v>
       </c>
       <c r="V189" t="n">
+        <v>8</v>
+      </c>
+      <c r="W189" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X189" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z189" t="n">
         <v>8.25</v>
       </c>
-      <c r="W189" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X189" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y189" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z189" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AA189" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AB189" t="n">
         <v>13.5</v>
@@ -23412,24 +23412,146 @@
         <v>55</v>
       </c>
       <c r="AD189" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>82szygW7</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>13/04/2025</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K190" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M190" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R190" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T190" t="n">
+        <v>8</v>
+      </c>
+      <c r="U190" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V190" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W190" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X190" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD190" t="n">
         <v>400</v>
       </c>
-      <c r="AE189" t="n">
+      <c r="AE190" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF189" t="n">
+      <c r="AF190" t="n">
         <v>23</v>
       </c>
-      <c r="AG189" t="n">
+      <c r="AG190" t="n">
         <v>13</v>
       </c>
-      <c r="AH189" t="n">
+      <c r="AH190" t="n">
         <v>60</v>
       </c>
-      <c r="AI189" t="n">
+      <c r="AI190" t="n">
         <v>35</v>
       </c>
-      <c r="AJ189" t="n">
+      <c r="AJ190" t="n">
         <v>37</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-13.xlsx
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H52" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J52" t="n">
         <v>1.08</v>
@@ -6795,7 +6795,7 @@
         <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X52" t="n">
         <v>17</v>
@@ -6807,13 +6807,13 @@
         <v>7.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD52" t="n">
         <v>1000</v>
@@ -6822,13 +6822,13 @@
         <v>10</v>
       </c>
       <c r="AF52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI52" t="n">
         <v>51</v>
@@ -13957,16 +13957,16 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H112" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I112" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J112" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K112" t="n">
         <v>9</v>
@@ -13975,13 +13975,13 @@
         <v>1.33</v>
       </c>
       <c r="M112" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N112" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O112" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P112" t="n">
         <v>1.44</v>
@@ -14008,7 +14008,7 @@
         <v>15</v>
       </c>
       <c r="X112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y112" t="n">
         <v>29</v>
@@ -14029,13 +14029,13 @@
         <v>351</v>
       </c>
       <c r="AE112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF112" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH112" t="n">
         <v>51</v>
